--- a/parameter_study/parameter_v2.xlsx
+++ b/parameter_study/parameter_v2.xlsx
@@ -8,10 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\Ryoko and Hilary\SMSigxModel\analysis\parameter_study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83607195-64DD-4083-9F68-7EEF8AB98A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D56BCB-9160-47DD-8690-749674C8E23E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{C2B8906E-1C3B-4D84-9FF7-ACBD70084FC6}"/>
-    <workbookView minimized="1" xWindow="7590" yWindow="5430" windowWidth="15375" windowHeight="7950" activeTab="1" xr2:uid="{92903A29-01B9-41CB-A24E-F02EE5763081}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{C2B8906E-1C3B-4D84-9FF7-ACBD70084FC6}"/>
   </bookViews>
   <sheets>
     <sheet name="Definition &amp; analysis design" sheetId="1" r:id="rId1"/>
@@ -341,10 +340,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>?</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Sensitivity</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -982,6 +977,10 @@
   </si>
   <si>
     <t>Calculated using streamflow shapefile given by Hilary https://www.notion.so/raraki/Drainage-density-fb8efbeb5d064e91845399729dc44fed</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GLUE</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1753,13 +1752,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T40"/>
+  <dimension ref="A1:U40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
-    </sheetView>
-    <sheetView workbookViewId="1">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="I14" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1775,111 +1774,115 @@
     <col min="10" max="10" width="16.625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13" style="1" customWidth="1"/>
     <col min="12" max="12" width="15.5" style="1" customWidth="1"/>
-    <col min="13" max="13" width="21.25" style="1" customWidth="1"/>
-    <col min="14" max="14" width="20.875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="17" style="1" customWidth="1"/>
-    <col min="16" max="16" width="26.75" style="1" customWidth="1"/>
-    <col min="17" max="17" width="16.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9" style="1"/>
-    <col min="19" max="19" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="1"/>
+    <col min="13" max="14" width="21.25" style="1" customWidth="1"/>
+    <col min="15" max="15" width="20.875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="17" style="1" customWidth="1"/>
+    <col min="17" max="17" width="26.75" style="1" customWidth="1"/>
+    <col min="18" max="18" width="16.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9" style="1"/>
+    <col min="20" max="20" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="5" customFormat="1" ht="18.75" customHeight="1">
+    <row r="1" spans="1:21" s="5" customFormat="1" ht="18.75" customHeight="1">
       <c r="A1" s="59" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B1" s="60"/>
       <c r="C1" s="60"/>
       <c r="D1" s="60"/>
       <c r="E1" s="61"/>
       <c r="F1" s="59" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G1" s="63"/>
       <c r="H1" s="63"/>
       <c r="I1" s="64"/>
       <c r="J1" s="62" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K1" s="60"/>
       <c r="L1" s="60"/>
       <c r="M1" s="60"/>
       <c r="N1" s="60"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="62" t="s">
+        <v>88</v>
+      </c>
       <c r="R1" s="60"/>
       <c r="S1" s="60"/>
-      <c r="T1" s="61"/>
-    </row>
-    <row r="2" spans="1:20" s="5" customFormat="1" ht="33">
+      <c r="T1" s="60"/>
+      <c r="U1" s="61"/>
+    </row>
+    <row r="2" spans="1:21" s="5" customFormat="1" ht="33">
       <c r="A2" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>77</v>
-      </c>
       <c r="C2" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H2" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="I2" s="9" t="s">
-        <v>85</v>
-      </c>
       <c r="J2" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="L2" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="M2" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="N2" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q2" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="N2" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="O2" s="8" t="s">
+      <c r="R2" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="P2" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="R2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="S2" s="8" t="s">
+      <c r="U2" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="T2" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" s="2" customFormat="1" ht="99">
+    </row>
+    <row r="3" spans="1:21" s="2" customFormat="1" ht="99">
       <c r="A3" s="57" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>3</v>
@@ -1888,10 +1891,10 @@
         <v>19</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>54</v>
@@ -1903,10 +1906,10 @@
         <v>0</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K3" s="19">
         <f>'Lit review on WRF-Hydro'!G3</f>
@@ -1920,29 +1923,30 @@
         <f>'Lit review on WRF-Hydro'!I3</f>
         <v>15</v>
       </c>
-      <c r="N3" s="11"/>
+      <c r="N3" s="19"/>
       <c r="O3" s="11"/>
       <c r="P3" s="11"/>
-      <c r="Q3" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="R3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="S3" s="11"/>
       <c r="T3" s="11"/>
-    </row>
-    <row r="4" spans="1:20" s="2" customFormat="1" ht="49.5">
+      <c r="U3" s="11"/>
+    </row>
+    <row r="4" spans="1:21" s="2" customFormat="1" ht="49.5">
       <c r="A4" s="65"/>
       <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>54</v>
@@ -1954,10 +1958,10 @@
         <v>0</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K4" s="14">
         <f>'Lit review on WRF-Hydro'!G9</f>
@@ -1971,27 +1975,28 @@
         <f>'Lit review on WRF-Hydro'!I9</f>
         <v>2.4499999999999999E-5</v>
       </c>
-      <c r="N4" s="11"/>
+      <c r="N4" s="14"/>
       <c r="O4" s="11"/>
       <c r="P4" s="11"/>
       <c r="Q4" s="11"/>
       <c r="R4" s="11"/>
       <c r="S4" s="11"/>
       <c r="T4" s="11"/>
-    </row>
-    <row r="5" spans="1:20" s="2" customFormat="1" ht="33">
+      <c r="U4" s="11"/>
+    </row>
+    <row r="5" spans="1:21" s="2" customFormat="1" ht="33">
       <c r="A5" s="65"/>
       <c r="B5" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>54</v>
@@ -2006,7 +2011,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K5" s="20">
         <f>'Lit review on WRF-Hydro'!G15</f>
@@ -2020,42 +2025,43 @@
         <f>'Lit review on WRF-Hydro'!I15</f>
         <v>1</v>
       </c>
-      <c r="N5" s="11"/>
+      <c r="N5" s="20"/>
       <c r="O5" s="11"/>
       <c r="P5" s="11"/>
       <c r="Q5" s="11"/>
       <c r="R5" s="11"/>
       <c r="S5" s="11"/>
       <c r="T5" s="11"/>
-    </row>
-    <row r="6" spans="1:20" s="2" customFormat="1" ht="49.5">
+      <c r="U5" s="11"/>
+    </row>
+    <row r="6" spans="1:21" s="2" customFormat="1" ht="49.5">
       <c r="A6" s="65"/>
       <c r="B6" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>54</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H6" s="11">
         <v>0</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K6" s="11">
         <f>'Lit review on WRF-Hydro'!G20</f>
@@ -2076,20 +2082,21 @@
       <c r="R6" s="11"/>
       <c r="S6" s="11"/>
       <c r="T6" s="11"/>
-    </row>
-    <row r="7" spans="1:20" s="2" customFormat="1" ht="99">
+      <c r="U6" s="11"/>
+    </row>
+    <row r="7" spans="1:21" s="2" customFormat="1" ht="99">
       <c r="A7" s="65"/>
       <c r="B7" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>40</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>54</v>
@@ -2098,13 +2105,13 @@
         <v>19</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I7" s="11">
         <v>1</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K7" s="11">
         <v>0.5</v>
@@ -2122,20 +2129,21 @@
       <c r="R7" s="11"/>
       <c r="S7" s="11"/>
       <c r="T7" s="11"/>
-    </row>
-    <row r="8" spans="1:20" s="2" customFormat="1" ht="99">
+      <c r="U7" s="11"/>
+    </row>
+    <row r="8" spans="1:21" s="2" customFormat="1" ht="99">
       <c r="A8" s="65"/>
       <c r="B8" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>41</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>54</v>
@@ -2147,10 +2155,10 @@
         <v>0</v>
       </c>
       <c r="I8" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="J8" s="11" t="s">
         <v>130</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>131</v>
       </c>
       <c r="K8" s="11">
         <v>0.35</v>
@@ -2168,20 +2176,21 @@
       <c r="R8" s="11"/>
       <c r="S8" s="11"/>
       <c r="T8" s="11"/>
-    </row>
-    <row r="9" spans="1:20" s="2" customFormat="1" ht="99">
+      <c r="U8" s="11"/>
+    </row>
+    <row r="9" spans="1:21" s="2" customFormat="1" ht="99">
       <c r="A9" s="65"/>
       <c r="B9" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>54</v>
@@ -2196,7 +2205,7 @@
         <v>0.33</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K9" s="11">
         <v>0.33</v>
@@ -2216,8 +2225,9 @@
       <c r="R9" s="11"/>
       <c r="S9" s="11"/>
       <c r="T9" s="11"/>
-    </row>
-    <row r="10" spans="1:20" s="17" customFormat="1" ht="82.5">
+      <c r="U9" s="11"/>
+    </row>
+    <row r="10" spans="1:21" s="17" customFormat="1" ht="82.5">
       <c r="A10" s="65"/>
       <c r="B10" s="15" t="s">
         <v>51</v>
@@ -2226,16 +2236,16 @@
         <v>19</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E10" s="55" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F10" s="16" t="s">
         <v>53</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H10" s="16" t="s">
         <v>19</v>
@@ -2262,32 +2272,33 @@
       <c r="R10" s="16"/>
       <c r="S10" s="16"/>
       <c r="T10" s="16"/>
-    </row>
-    <row r="11" spans="1:20" s="2" customFormat="1" ht="99">
+      <c r="U10" s="16"/>
+    </row>
+    <row r="11" spans="1:21" s="2" customFormat="1" ht="99">
       <c r="A11" s="65"/>
       <c r="B11" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E11" s="55" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F11" s="16" t="s">
         <v>53</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H11" s="16">
         <v>0</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J11" s="16" t="s">
         <v>19</v>
@@ -2301,15 +2312,16 @@
       <c r="M11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="N11" s="11"/>
+      <c r="N11" s="16"/>
       <c r="O11" s="11"/>
       <c r="P11" s="11"/>
       <c r="Q11" s="11"/>
       <c r="R11" s="11"/>
       <c r="S11" s="11"/>
       <c r="T11" s="11"/>
-    </row>
-    <row r="12" spans="1:20" s="17" customFormat="1" ht="82.5">
+      <c r="U11" s="11"/>
+    </row>
+    <row r="12" spans="1:21" s="17" customFormat="1" ht="82.5">
       <c r="A12" s="65"/>
       <c r="B12" s="15" t="s">
         <v>50</v>
@@ -2318,16 +2330,16 @@
         <v>19</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F12" s="16" t="s">
         <v>53</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H12" s="16" t="s">
         <v>19</v>
@@ -2354,26 +2366,27 @@
       <c r="R12" s="16"/>
       <c r="S12" s="16"/>
       <c r="T12" s="16"/>
-    </row>
-    <row r="13" spans="1:20" s="17" customFormat="1" ht="99">
+      <c r="U12" s="16"/>
+    </row>
+    <row r="13" spans="1:21" s="17" customFormat="1" ht="99">
       <c r="A13" s="65"/>
       <c r="B13" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F13" s="16" t="s">
         <v>53</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H13" s="16" t="s">
         <v>19</v>
@@ -2400,26 +2413,27 @@
       <c r="R13" s="16"/>
       <c r="S13" s="16"/>
       <c r="T13" s="16"/>
-    </row>
-    <row r="14" spans="1:20" s="3" customFormat="1" ht="148.5">
+      <c r="U13" s="16"/>
+    </row>
+    <row r="14" spans="1:21" s="3" customFormat="1" ht="148.5">
       <c r="A14" s="65"/>
       <c r="B14" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="D14" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="D14" s="16" t="s">
-        <v>127</v>
-      </c>
       <c r="E14" s="55" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F14" s="16" t="s">
         <v>53</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H14" s="16">
         <v>0</v>
@@ -2428,7 +2442,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K14" s="16">
         <v>1.4350000000000001E-3</v>
@@ -2439,18 +2453,19 @@
       <c r="M14" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="N14" s="11"/>
+      <c r="N14" s="16"/>
       <c r="O14" s="11"/>
       <c r="P14" s="11"/>
       <c r="Q14" s="11"/>
       <c r="R14" s="11"/>
       <c r="S14" s="11"/>
       <c r="T14" s="11"/>
-    </row>
-    <row r="15" spans="1:20" s="3" customFormat="1" ht="49.5">
+      <c r="U14" s="11"/>
+    </row>
+    <row r="15" spans="1:21" s="3" customFormat="1" ht="49.5">
       <c r="A15" s="65"/>
       <c r="B15" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>19</v>
@@ -2459,7 +2474,7 @@
         <v>43</v>
       </c>
       <c r="E15" s="56" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F15" s="11" t="s">
         <v>54</v>
@@ -2471,10 +2486,10 @@
         <v>0</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K15" s="11">
         <f>'Lit review on WRF-Hydro'!G26</f>
@@ -2495,14 +2510,15 @@
       <c r="R15" s="11"/>
       <c r="S15" s="11"/>
       <c r="T15" s="11"/>
-    </row>
-    <row r="16" spans="1:20" s="2" customFormat="1" ht="33">
+      <c r="U15" s="11"/>
+    </row>
+    <row r="16" spans="1:21" s="2" customFormat="1" ht="33">
       <c r="A16" s="65"/>
       <c r="B16" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>44</v>
@@ -2520,10 +2536,10 @@
         <v>0</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K16" s="11">
         <f>'Lit review on WRF-Hydro'!G29</f>
@@ -2544,11 +2560,12 @@
       <c r="R16" s="11"/>
       <c r="S16" s="11"/>
       <c r="T16" s="11"/>
-    </row>
-    <row r="17" spans="1:20" s="2" customFormat="1" ht="66">
+      <c r="U16" s="11"/>
+    </row>
+    <row r="17" spans="1:21" s="2" customFormat="1" ht="66">
       <c r="A17" s="58"/>
       <c r="B17" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>19</v>
@@ -2557,7 +2574,7 @@
         <v>52</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F17" s="11" t="s">
         <v>54</v>
@@ -2572,43 +2589,44 @@
         <v>1</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K17" s="20">
         <f>'Lit review on WRF-Hydro'!G32</f>
-        <v>0.27777777777777779</v>
+        <v>0.625</v>
       </c>
       <c r="L17" s="20">
         <f>'Lit review on WRF-Hydro'!H32</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="M17" s="20">
         <f>'Lit review on WRF-Hydro'!I32</f>
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="N17" s="11"/>
+        <v>1</v>
+      </c>
+      <c r="N17" s="20"/>
       <c r="O17" s="11"/>
       <c r="P17" s="11"/>
       <c r="Q17" s="11"/>
       <c r="R17" s="11"/>
       <c r="S17" s="11"/>
       <c r="T17" s="11"/>
-    </row>
-    <row r="18" spans="1:20" s="3" customFormat="1" ht="49.5">
+      <c r="U17" s="11"/>
+    </row>
+    <row r="18" spans="1:21" s="3" customFormat="1" ht="49.5">
       <c r="A18" s="57" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>39</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>54</v>
@@ -2620,22 +2638,22 @@
         <v>0</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K18" s="11">
         <f>'Lit review on WRF-Hydro'!G35</f>
-        <v>0.05</v>
+        <v>50</v>
       </c>
       <c r="L18" s="11">
         <f>'Lit review on WRF-Hydro'!H35</f>
-        <v>0.01</v>
+        <v>10</v>
       </c>
       <c r="M18" s="11">
         <f>'Lit review on WRF-Hydro'!I35</f>
-        <v>0.25</v>
+        <v>250</v>
       </c>
       <c r="N18" s="11"/>
       <c r="O18" s="11"/>
@@ -2644,20 +2662,21 @@
       <c r="R18" s="11"/>
       <c r="S18" s="11"/>
       <c r="T18" s="11"/>
-    </row>
-    <row r="19" spans="1:20" s="3" customFormat="1" ht="82.5">
+      <c r="U18" s="11"/>
+    </row>
+    <row r="19" spans="1:21" s="3" customFormat="1" ht="82.5">
       <c r="A19" s="65"/>
       <c r="B19" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>48</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F19" s="11" t="s">
         <v>54</v>
@@ -2669,10 +2688,10 @@
         <v>0</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K19" s="11">
         <f>'Lit review on WRF-Hydro'!G40</f>
@@ -2693,8 +2712,9 @@
       <c r="R19" s="11"/>
       <c r="S19" s="11"/>
       <c r="T19" s="11"/>
-    </row>
-    <row r="20" spans="1:20" s="3" customFormat="1" ht="99">
+      <c r="U19" s="11"/>
+    </row>
+    <row r="20" spans="1:21" s="3" customFormat="1" ht="99">
       <c r="A20" s="58"/>
       <c r="B20" s="10" t="s">
         <v>12</v>
@@ -2706,7 +2726,7 @@
         <v>49</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F20" s="11" t="s">
         <v>54</v>
@@ -2718,10 +2738,10 @@
         <v>0</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K20" s="11">
         <f>'Lit review on WRF-Hydro'!G44</f>
@@ -2742,10 +2762,11 @@
       <c r="R20" s="11"/>
       <c r="S20" s="11"/>
       <c r="T20" s="11"/>
-    </row>
-    <row r="21" spans="1:20" s="2" customFormat="1" ht="66">
+      <c r="U20" s="11"/>
+    </row>
+    <row r="21" spans="1:21" s="2" customFormat="1" ht="66">
       <c r="A21" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>45</v>
@@ -2754,10 +2775,10 @@
         <v>46</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>54</v>
@@ -2769,10 +2790,10 @@
         <v>0</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K21" s="11">
         <f>'Lit review on WRF-Hydro'!G47</f>
@@ -2793,8 +2814,9 @@
       <c r="R21" s="11"/>
       <c r="S21" s="11"/>
       <c r="T21" s="11"/>
-    </row>
-    <row r="22" spans="1:20" s="2" customFormat="1" ht="49.5">
+      <c r="U21" s="11"/>
+    </row>
+    <row r="22" spans="1:21" s="2" customFormat="1" ht="49.5">
       <c r="A22" s="15" t="s">
         <v>2</v>
       </c>
@@ -2802,25 +2824,25 @@
         <v>1</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D22" s="16" t="s">
         <v>38</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F22" s="16" t="s">
         <v>53</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H22" s="16">
         <v>0</v>
       </c>
       <c r="I22" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J22" s="16" t="s">
         <v>19</v>
@@ -2834,15 +2856,16 @@
       <c r="M22" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="N22" s="11"/>
+      <c r="N22" s="16"/>
       <c r="O22" s="11"/>
       <c r="P22" s="11"/>
       <c r="Q22" s="11"/>
       <c r="R22" s="11"/>
       <c r="S22" s="11"/>
       <c r="T22" s="11"/>
-    </row>
-    <row r="23" spans="1:20" s="2" customFormat="1" ht="297">
+      <c r="U22" s="11"/>
+    </row>
+    <row r="23" spans="1:21" s="2" customFormat="1" ht="297">
       <c r="A23" s="57" t="s">
         <v>56</v>
       </c>
@@ -2851,10 +2874,10 @@
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F23" s="11" t="s">
         <v>54</v>
@@ -2869,7 +2892,7 @@
         <v>1</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K23" s="11">
         <v>0.03</v>
@@ -2889,22 +2912,23 @@
       <c r="R23" s="11"/>
       <c r="S23" s="11"/>
       <c r="T23" s="11"/>
-    </row>
-    <row r="24" spans="1:20" s="2" customFormat="1" ht="66">
+      <c r="U23" s="11"/>
+    </row>
+    <row r="24" spans="1:21" s="2" customFormat="1" ht="66">
       <c r="A24" s="58"/>
       <c r="B24" s="15" t="s">
         <v>14</v>
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E24" s="18"/>
       <c r="F24" s="16" t="s">
         <v>53</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H24" s="16" t="s">
         <v>19</v>
@@ -2913,10 +2937,10 @@
         <v>19</v>
       </c>
       <c r="J24" s="16" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K24" s="16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L24" s="16" t="s">
         <v>19</v>
@@ -2924,15 +2948,16 @@
       <c r="M24" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="N24" s="11"/>
+      <c r="N24" s="16"/>
       <c r="O24" s="11"/>
       <c r="P24" s="11"/>
       <c r="Q24" s="11"/>
       <c r="R24" s="11"/>
       <c r="S24" s="11"/>
       <c r="T24" s="11"/>
-    </row>
-    <row r="25" spans="1:20" s="2" customFormat="1" ht="181.5">
+      <c r="U24" s="11"/>
+    </row>
+    <row r="25" spans="1:21" s="2" customFormat="1" ht="181.5">
       <c r="A25" s="10" t="s">
         <v>16</v>
       </c>
@@ -2950,7 +2975,7 @@
         <v>53</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H25" s="16" t="s">
         <v>19</v>
@@ -2959,10 +2984,10 @@
         <v>19</v>
       </c>
       <c r="J25" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K25" s="16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L25" s="16" t="s">
         <v>19</v>
@@ -2970,13 +2995,14 @@
       <c r="M25" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="N25" s="11"/>
+      <c r="N25" s="16"/>
       <c r="O25" s="11"/>
       <c r="P25" s="11"/>
       <c r="Q25" s="11"/>
       <c r="R25" s="11"/>
       <c r="S25" s="11"/>
       <c r="T25" s="11"/>
+      <c r="U25" s="11"/>
     </row>
     <row r="36" spans="1:5" s="2" customFormat="1">
       <c r="A36" s="6"/>
@@ -2994,9 +3020,9 @@
   <mergeCells count="7">
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="Q1:U1"/>
     <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:O1"/>
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A3:A17"/>
     <mergeCell ref="A18:A20"/>
   </mergeCells>
@@ -3011,11 +3037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DB7CFF8-16E9-44BD-BC94-406D58013BA0}">
   <dimension ref="A1:S60"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
-    </sheetView>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="1">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="C30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3036,16 +3059,16 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="67" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B1" s="68"/>
       <c r="C1" s="68"/>
       <c r="D1" s="68" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E1" s="68"/>
       <c r="F1" s="68" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G1" s="68"/>
       <c r="H1" s="68"/>
@@ -3055,42 +3078,42 @@
     </row>
     <row r="2" spans="1:11" ht="66">
       <c r="A2" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="C2" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>78</v>
-      </c>
       <c r="E2" s="22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G2" s="22" t="s">
         <v>0</v>
       </c>
       <c r="H2" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="I2" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="I2" s="22" t="s">
-        <v>85</v>
-      </c>
       <c r="J2" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K2" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="28" customFormat="1" ht="99">
       <c r="A3" s="66" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B3" s="23" t="str">
         <f>'Definition &amp; analysis design'!B3</f>
@@ -3104,7 +3127,7 @@
         <v>57</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F3" s="25" t="s">
         <v>19</v>
@@ -3122,7 +3145,7 @@
         <v>15</v>
       </c>
       <c r="J3" s="27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K3" s="24"/>
     </row>
@@ -3148,7 +3171,7 @@
         <v>15</v>
       </c>
       <c r="J4" s="24" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K4" s="24"/>
     </row>
@@ -3159,19 +3182,19 @@
       <c r="D5" s="24"/>
       <c r="E5" s="24"/>
       <c r="F5" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G5" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="I5" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="H5" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="I5" s="24" t="s">
-        <v>136</v>
-      </c>
       <c r="J5" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K5" s="24"/>
     </row>
@@ -3182,22 +3205,22 @@
       <c r="D6" s="24"/>
       <c r="E6" s="24"/>
       <c r="F6" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G6" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="I6" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="H6" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="I6" s="24" t="s">
-        <v>136</v>
-      </c>
       <c r="J6" s="24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K6" s="29" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="28" customFormat="1" ht="46.5" customHeight="1">
@@ -3207,7 +3230,7 @@
       <c r="D7" s="24"/>
       <c r="E7" s="24"/>
       <c r="F7" s="24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G7" s="24" t="s">
         <v>19</v>
@@ -3219,10 +3242,10 @@
         <v>15</v>
       </c>
       <c r="J7" s="24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K7" s="29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="28" customFormat="1" ht="49.5">
@@ -3244,10 +3267,10 @@
         <v>11.55</v>
       </c>
       <c r="J8" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K8" s="30" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="35" customFormat="1" ht="66">
@@ -3262,13 +3285,13 @@
 [m/s]</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E9" s="32" t="s">
         <v>35</v>
       </c>
       <c r="F9" s="32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="33">
         <f>G10</f>
@@ -3283,7 +3306,7 @@
         <v>2.4499999999999999E-5</v>
       </c>
       <c r="J9" s="31" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K9" s="34"/>
     </row>
@@ -3307,7 +3330,7 @@
         <v>x10</v>
       </c>
       <c r="J10" s="32" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K10" s="32"/>
     </row>
@@ -3322,13 +3345,13 @@
         <v>19</v>
       </c>
       <c r="H11" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="I11" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="I11" s="32" t="s">
-        <v>149</v>
-      </c>
       <c r="J11" s="32" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K11" s="32"/>
     </row>
@@ -3343,16 +3366,16 @@
         <v>19</v>
       </c>
       <c r="H12" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="I12" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="I12" s="32" t="s">
-        <v>149</v>
-      </c>
       <c r="J12" s="32" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K12" s="38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="33">
@@ -3372,10 +3395,10 @@
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="J13" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K13" s="32" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="49.5">
@@ -3395,7 +3418,7 @@
         <v>19</v>
       </c>
       <c r="J14" s="32" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K14" s="32"/>
     </row>
@@ -3414,7 +3437,7 @@
         <v>6</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F15" s="24"/>
       <c r="G15" s="40">
@@ -3430,7 +3453,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="23" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K15" s="24"/>
     </row>
@@ -3454,7 +3477,7 @@
         <v>1</v>
       </c>
       <c r="J16" s="24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K16" s="24"/>
     </row>
@@ -3465,7 +3488,7 @@
       <c r="D17" s="24"/>
       <c r="E17" s="24"/>
       <c r="F17" s="24" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G17" s="24">
         <v>0.1</v>
@@ -3477,10 +3500,10 @@
         <v>1</v>
       </c>
       <c r="J17" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K17" s="29" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="28" customFormat="1" ht="33">
@@ -3503,10 +3526,10 @@
         <v>19</v>
       </c>
       <c r="J18" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="K18" s="24" t="s">
         <v>164</v>
-      </c>
-      <c r="K18" s="24" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="28" customFormat="1" ht="49.5">
@@ -3529,10 +3552,10 @@
         <v>19</v>
       </c>
       <c r="J19" s="24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K19" s="24" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="132">
@@ -3550,7 +3573,7 @@
         <v>5</v>
       </c>
       <c r="E20" s="32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F20" s="32" t="s">
         <v>53</v>
@@ -3568,7 +3591,7 @@
         <v>0.78</v>
       </c>
       <c r="J20" s="31" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K20" s="32"/>
     </row>
@@ -3589,10 +3612,10 @@
         <v>0.78</v>
       </c>
       <c r="J21" s="36" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K21" s="32" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="49.5">
@@ -3612,10 +3635,10 @@
         <v>0.75900000000000001</v>
       </c>
       <c r="J22" s="32" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K22" s="38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="28" customFormat="1" ht="82.5">
@@ -3636,7 +3659,7 @@
         <v>40</v>
       </c>
       <c r="F23" s="43" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G23" s="43">
         <v>0.56999999999999995</v>
@@ -3648,7 +3671,7 @@
         <v>0.7</v>
       </c>
       <c r="J23" s="43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K23" s="43" t="s">
         <v>55</v>
@@ -3675,7 +3698,7 @@
         <v>53</v>
       </c>
       <c r="G24" s="45" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H24" s="45">
         <v>0</v>
@@ -3684,10 +3707,10 @@
         <v>1</v>
       </c>
       <c r="J24" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="K24" s="45" t="s">
         <v>70</v>
-      </c>
-      <c r="K24" s="45" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="28" customFormat="1" ht="49.5">
@@ -3701,7 +3724,7 @@
         <v>-</v>
       </c>
       <c r="D25" s="43" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E25" s="43" t="s">
         <v>19</v>
@@ -3720,7 +3743,7 @@
         <v>-1</v>
       </c>
       <c r="J25" s="43" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K25" s="43" t="s">
         <v>19</v>
@@ -3757,7 +3780,7 @@
         <v>10000</v>
       </c>
       <c r="J26" s="31" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K26" s="32"/>
     </row>
@@ -3768,7 +3791,7 @@
       <c r="D27" s="32"/>
       <c r="E27" s="32"/>
       <c r="F27" s="32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G27" s="32">
         <v>1000</v>
@@ -3780,10 +3803,10 @@
         <v>10000</v>
       </c>
       <c r="J27" s="32" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K27" s="32" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="33">
@@ -3805,7 +3828,7 @@
         <v>10000</v>
       </c>
       <c r="J28" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K28" s="32"/>
     </row>
@@ -3840,7 +3863,7 @@
         <v>1.2</v>
       </c>
       <c r="J29" s="23" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K29" s="24"/>
     </row>
@@ -3865,10 +3888,10 @@
         <v>19</v>
       </c>
       <c r="J30" s="24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K30" s="24" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="31" spans="1:11" s="28" customFormat="1">
@@ -3892,10 +3915,10 @@
         <v>1.2</v>
       </c>
       <c r="J31" s="24" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K31" s="24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="32" spans="1:11" s="46" customFormat="1" ht="49.5">
@@ -3909,28 +3932,28 @@
         <v>-</v>
       </c>
       <c r="D32" s="32" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E32" s="32" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F32" s="32" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G32" s="32">
         <f>AVERAGE(H32:I32)</f>
-        <v>0.27777777777777779</v>
+        <v>0.625</v>
       </c>
       <c r="H32" s="32">
         <f>H33</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="I32" s="32">
         <f>I33</f>
-        <v>0.55555555555555558</v>
+        <v>1</v>
       </c>
       <c r="J32" s="32" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K32" s="36"/>
     </row>
@@ -3949,14 +3972,14 @@
         <v>19</v>
       </c>
       <c r="H33" s="32">
-        <v>0</v>
+        <f>0.3/1.2</f>
+        <v>0.25</v>
       </c>
       <c r="I33" s="47">
-        <f>0.5/0.9</f>
-        <v>0.55555555555555558</v>
+        <v>1</v>
       </c>
       <c r="J33" s="32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K33" s="36"/>
     </row>
@@ -3966,30 +3989,30 @@
       <c r="C34" s="45"/>
       <c r="D34" s="45"/>
       <c r="E34" s="45" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F34" s="45" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G34" s="45" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H34" s="45" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I34" s="45" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J34" s="32" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K34" s="36" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="35" spans="1:11" s="28" customFormat="1" ht="82.5">
       <c r="A35" s="66" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B35" s="23" t="str">
         <f>'Definition &amp; analysis design'!B18</f>
@@ -4001,28 +4024,28 @@
 [m]</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E35" s="24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F35" s="24" t="s">
         <v>19</v>
       </c>
       <c r="G35" s="24">
-        <f>G37/1000</f>
-        <v>0.05</v>
+        <f>G37</f>
+        <v>50</v>
       </c>
       <c r="H35" s="24">
-        <f>H38/1000</f>
-        <v>0.01</v>
+        <f>H38</f>
+        <v>10</v>
       </c>
       <c r="I35" s="24">
-        <f>I38/1000</f>
-        <v>0.25</v>
+        <f>I38</f>
+        <v>250</v>
       </c>
       <c r="J35" s="48" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K35" s="24"/>
     </row>
@@ -4032,7 +4055,7 @@
       <c r="C36" s="24"/>
       <c r="D36" s="24"/>
       <c r="E36" s="24" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F36" s="24" t="s">
         <v>19</v>
@@ -4047,7 +4070,7 @@
         <v>250</v>
       </c>
       <c r="J36" s="24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K36" s="29"/>
     </row>
@@ -4057,7 +4080,7 @@
       <c r="C37" s="24"/>
       <c r="D37" s="24"/>
       <c r="E37" s="24" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F37" s="24" t="s">
         <v>19</v>
@@ -4072,10 +4095,10 @@
         <v>19</v>
       </c>
       <c r="J37" s="24" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K37" s="29" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="38" spans="1:11" s="28" customFormat="1" ht="82.5">
@@ -4084,10 +4107,10 @@
       <c r="C38" s="24"/>
       <c r="D38" s="24"/>
       <c r="E38" s="24" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F38" s="24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G38" s="24">
         <v>25</v>
@@ -4099,10 +4122,10 @@
         <v>250</v>
       </c>
       <c r="J38" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K38" s="29" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="39" spans="1:11" s="28" customFormat="1" ht="82.5">
@@ -4111,7 +4134,7 @@
       <c r="C39" s="24"/>
       <c r="D39" s="24"/>
       <c r="E39" s="24" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F39" s="24" t="s">
         <v>19</v>
@@ -4126,7 +4149,7 @@
         <v>2.5</v>
       </c>
       <c r="J39" s="24" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K39" s="29"/>
     </row>
@@ -4163,7 +4186,7 @@
         <v>2</v>
       </c>
       <c r="J40" s="50" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K40" s="32" t="s">
         <v>19</v>
@@ -4180,13 +4203,13 @@
         <v>19</v>
       </c>
       <c r="H41" s="32" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I41" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="J41" s="32" t="s">
         <v>144</v>
-      </c>
-      <c r="J41" s="32" t="s">
-        <v>145</v>
       </c>
       <c r="K41" s="32"/>
     </row>
@@ -4209,10 +4232,10 @@
         <v>19</v>
       </c>
       <c r="J42" s="32" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K42" s="38" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -4234,7 +4257,7 @@
         <v>0.3</v>
       </c>
       <c r="J43" s="32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K43" s="32"/>
     </row>
@@ -4270,7 +4293,7 @@
         <v>8</v>
       </c>
       <c r="J44" s="24" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K44" s="24"/>
     </row>
@@ -4280,10 +4303,10 @@
       <c r="C45" s="24"/>
       <c r="D45" s="24"/>
       <c r="E45" s="24" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F45" s="24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G45" s="24">
         <v>1.75</v>
@@ -4295,10 +4318,10 @@
         <v>8</v>
       </c>
       <c r="J45" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K45" s="29" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="46" spans="1:11" s="28" customFormat="1" ht="33">
@@ -4318,15 +4341,15 @@
         <v>19</v>
       </c>
       <c r="J46" s="24" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K46" s="29" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="63" customHeight="1">
       <c r="A47" s="31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B47" s="31" t="str">
         <f>'Definition &amp; analysis design'!B21</f>
@@ -4356,7 +4379,7 @@
         <v>4</v>
       </c>
       <c r="J47" s="50" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K47" s="32"/>
     </row>
@@ -4366,10 +4389,10 @@
       <c r="C48" s="32"/>
       <c r="D48" s="32"/>
       <c r="E48" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="F48" s="32" t="s">
         <v>204</v>
-      </c>
-      <c r="F48" s="32" t="s">
-        <v>205</v>
       </c>
       <c r="G48" s="32">
         <v>0.6</v>
@@ -4381,10 +4404,10 @@
         <v>4</v>
       </c>
       <c r="J48" s="32" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K48" s="53" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="49" spans="1:19" ht="115.5">
@@ -4424,7 +4447,7 @@
       </c>
       <c r="D50" s="24"/>
       <c r="E50" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F50" s="24" t="s">
         <v>53</v>
@@ -4435,17 +4458,17 @@
       <c r="H50" s="24">
         <v>0</v>
       </c>
-      <c r="I50" s="24" t="s">
-        <v>58</v>
+      <c r="I50" s="24">
+        <v>1</v>
       </c>
       <c r="J50" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K50" s="24"/>
     </row>
     <row r="51" spans="1:19" s="51" customFormat="1" ht="16.5">
       <c r="A51" s="66" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B51" s="31" t="s">
         <v>33</v>

--- a/parameter_study/parameter_v2.xlsx
+++ b/parameter_study/parameter_v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\Ryoko and Hilary\SMSigxModel\analysis\parameter_study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D56BCB-9160-47DD-8690-749674C8E23E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A1DCC1D-DA15-4A4A-9804-37B48288AB8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{C2B8906E-1C3B-4D84-9FF7-ACBD70084FC6}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{C2B8906E-1C3B-4D84-9FF7-ACBD70084FC6}"/>
   </bookViews>
   <sheets>
     <sheet name="Definition &amp; analysis design" sheetId="1" r:id="rId1"/>
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="213">
   <si>
     <t>init</t>
     <phoneticPr fontId="1"/>
@@ -899,10 +899,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Max groundwater storage (m)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">Exponent controlling rate of bucket drainage as a 
 function of depth </t>
     <phoneticPr fontId="1"/>
@@ -981,6 +977,18 @@
   </si>
   <si>
     <t>GLUE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Maximum groundwater bucket depth (mm?)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Max groundwater storage (mm)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Calculated from the equivalent Q_out max from groundwater reservoir to NWM at z=z_max</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1249,7 +1257,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1400,6 +1408,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1754,11 +1765,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="I14" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomRight" activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1785,35 +1796,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="5" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="59" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="60" t="s">
         <v>151</v>
       </c>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="62" t="s">
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="62" t="s">
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="R1" s="60"/>
-      <c r="S1" s="60"/>
-      <c r="T1" s="60"/>
-      <c r="U1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="61"/>
+      <c r="U1" s="62"/>
     </row>
     <row r="2" spans="1:21" s="5" customFormat="1" ht="33">
       <c r="A2" s="8" t="s">
@@ -1862,7 +1873,7 @@
         <v>82</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Q2" s="8" t="s">
         <v>85</v>
@@ -1881,7 +1892,7 @@
       </c>
     </row>
     <row r="3" spans="1:21" s="2" customFormat="1" ht="99">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="58" t="s">
         <v>92</v>
       </c>
       <c r="B3" s="10" t="s">
@@ -1935,7 +1946,7 @@
       <c r="U3" s="11"/>
     </row>
     <row r="4" spans="1:21" s="2" customFormat="1" ht="49.5">
-      <c r="A4" s="65"/>
+      <c r="A4" s="66"/>
       <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
@@ -1985,7 +1996,7 @@
       <c r="U4" s="11"/>
     </row>
     <row r="5" spans="1:21" s="2" customFormat="1" ht="33">
-      <c r="A5" s="65"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="10" t="s">
         <v>6</v>
       </c>
@@ -2035,7 +2046,7 @@
       <c r="U5" s="11"/>
     </row>
     <row r="6" spans="1:21" s="2" customFormat="1" ht="49.5">
-      <c r="A6" s="65"/>
+      <c r="A6" s="66"/>
       <c r="B6" s="10" t="s">
         <v>5</v>
       </c>
@@ -2085,7 +2096,7 @@
       <c r="U6" s="11"/>
     </row>
     <row r="7" spans="1:21" s="2" customFormat="1" ht="99">
-      <c r="A7" s="65"/>
+      <c r="A7" s="66"/>
       <c r="B7" s="10" t="s">
         <v>7</v>
       </c>
@@ -2132,7 +2143,7 @@
       <c r="U7" s="11"/>
     </row>
     <row r="8" spans="1:21" s="2" customFormat="1" ht="99">
-      <c r="A8" s="65"/>
+      <c r="A8" s="66"/>
       <c r="B8" s="10" t="s">
         <v>8</v>
       </c>
@@ -2179,7 +2190,7 @@
       <c r="U8" s="11"/>
     </row>
     <row r="9" spans="1:21" s="2" customFormat="1" ht="99">
-      <c r="A9" s="65"/>
+      <c r="A9" s="66"/>
       <c r="B9" s="10" t="s">
         <v>127</v>
       </c>
@@ -2228,7 +2239,7 @@
       <c r="U9" s="11"/>
     </row>
     <row r="10" spans="1:21" s="17" customFormat="1" ht="82.5">
-      <c r="A10" s="65"/>
+      <c r="A10" s="66"/>
       <c r="B10" s="15" t="s">
         <v>51</v>
       </c>
@@ -2275,7 +2286,7 @@
       <c r="U10" s="16"/>
     </row>
     <row r="11" spans="1:21" s="2" customFormat="1" ht="99">
-      <c r="A11" s="65"/>
+      <c r="A11" s="66"/>
       <c r="B11" s="15" t="s">
         <v>115</v>
       </c>
@@ -2322,7 +2333,7 @@
       <c r="U11" s="11"/>
     </row>
     <row r="12" spans="1:21" s="17" customFormat="1" ht="82.5">
-      <c r="A12" s="65"/>
+      <c r="A12" s="66"/>
       <c r="B12" s="15" t="s">
         <v>50</v>
       </c>
@@ -2369,7 +2380,7 @@
       <c r="U12" s="16"/>
     </row>
     <row r="13" spans="1:21" s="17" customFormat="1" ht="99">
-      <c r="A13" s="65"/>
+      <c r="A13" s="66"/>
       <c r="B13" s="15" t="s">
         <v>62</v>
       </c>
@@ -2416,7 +2427,7 @@
       <c r="U13" s="16"/>
     </row>
     <row r="14" spans="1:21" s="3" customFormat="1" ht="148.5">
-      <c r="A14" s="65"/>
+      <c r="A14" s="66"/>
       <c r="B14" s="15" t="s">
         <v>124</v>
       </c>
@@ -2442,7 +2453,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K14" s="16">
         <v>1.4350000000000001E-3</v>
@@ -2463,7 +2474,7 @@
       <c r="U14" s="11"/>
     </row>
     <row r="15" spans="1:21" s="3" customFormat="1" ht="49.5">
-      <c r="A15" s="65"/>
+      <c r="A15" s="66"/>
       <c r="B15" s="10" t="s">
         <v>131</v>
       </c>
@@ -2513,7 +2524,7 @@
       <c r="U15" s="11"/>
     </row>
     <row r="16" spans="1:21" s="2" customFormat="1" ht="33">
-      <c r="A16" s="65"/>
+      <c r="A16" s="66"/>
       <c r="B16" s="10" t="s">
         <v>9</v>
       </c>
@@ -2563,7 +2574,7 @@
       <c r="U16" s="11"/>
     </row>
     <row r="17" spans="1:21" s="2" customFormat="1" ht="66">
-      <c r="A17" s="58"/>
+      <c r="A17" s="59"/>
       <c r="B17" s="10" t="s">
         <v>116</v>
       </c>
@@ -2613,13 +2624,13 @@
       <c r="U17" s="11"/>
     </row>
     <row r="18" spans="1:21" s="3" customFormat="1" ht="49.5">
-      <c r="A18" s="57" t="s">
+      <c r="A18" s="58" t="s">
         <v>91</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="57" t="s">
         <v>98</v>
       </c>
       <c r="D18" s="11" t="s">
@@ -2664,8 +2675,8 @@
       <c r="T18" s="11"/>
       <c r="U18" s="11"/>
     </row>
-    <row r="19" spans="1:21" s="3" customFormat="1" ht="82.5">
-      <c r="A19" s="65"/>
+    <row r="19" spans="1:21" s="3" customFormat="1" ht="99">
+      <c r="A19" s="66"/>
       <c r="B19" s="10" t="s">
         <v>11</v>
       </c>
@@ -2691,19 +2702,19 @@
         <v>114</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>159</v>
+        <v>212</v>
       </c>
       <c r="K19" s="11">
         <f>'Lit review on WRF-Hydro'!G40</f>
         <v>1</v>
       </c>
-      <c r="L19" s="11">
-        <f>'Lit review on WRF-Hydro'!H40</f>
-        <v>0.2</v>
-      </c>
-      <c r="M19" s="11">
-        <f>'Lit review on WRF-Hydro'!I40</f>
-        <v>2</v>
+      <c r="L19" s="19">
+        <f>0.2*EXP(1)/(EXP(1)-1)</f>
+        <v>0.31639534137386532</v>
+      </c>
+      <c r="M19" s="19">
+        <f>2*EXP(8)/(EXP(8)-1)</f>
+        <v>2.0006711504016823</v>
       </c>
       <c r="N19" s="11"/>
       <c r="O19" s="11"/>
@@ -2715,7 +2726,7 @@
       <c r="U19" s="11"/>
     </row>
     <row r="20" spans="1:21" s="3" customFormat="1" ht="99">
-      <c r="A20" s="58"/>
+      <c r="A20" s="59"/>
       <c r="B20" s="10" t="s">
         <v>12</v>
       </c>
@@ -2775,10 +2786,10 @@
         <v>46</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>54</v>
@@ -2866,7 +2877,7 @@
       <c r="U22" s="11"/>
     </row>
     <row r="23" spans="1:21" s="2" customFormat="1" ht="297">
-      <c r="A23" s="57" t="s">
+      <c r="A23" s="58" t="s">
         <v>56</v>
       </c>
       <c r="B23" s="10" t="s">
@@ -2877,7 +2888,7 @@
         <v>63</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F23" s="11" t="s">
         <v>54</v>
@@ -2892,7 +2903,7 @@
         <v>1</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K23" s="11">
         <v>0.03</v>
@@ -2915,7 +2926,7 @@
       <c r="U23" s="11"/>
     </row>
     <row r="24" spans="1:21" s="2" customFormat="1" ht="66">
-      <c r="A24" s="58"/>
+      <c r="A24" s="59"/>
       <c r="B24" s="15" t="s">
         <v>14</v>
       </c>
@@ -2937,10 +2948,10 @@
         <v>19</v>
       </c>
       <c r="J24" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K24" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L24" s="16" t="s">
         <v>19</v>
@@ -2984,10 +2995,10 @@
         <v>19</v>
       </c>
       <c r="J25" s="16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K25" s="16" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L25" s="16" t="s">
         <v>19</v>
@@ -3037,8 +3048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DB7CFF8-16E9-44BD-BC94-406D58013BA0}">
   <dimension ref="A1:S60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3058,23 +3069,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="68" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68" t="s">
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69" t="s">
         <v>103</v>
       </c>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68" t="s">
+      <c r="E1" s="69"/>
+      <c r="F1" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
     </row>
     <row r="2" spans="1:11" ht="66">
       <c r="A2" s="22" t="s">
@@ -3112,7 +3123,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" s="28" customFormat="1" ht="99">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="67" t="s">
         <v>92</v>
       </c>
       <c r="B3" s="23" t="str">
@@ -3150,7 +3161,7 @@
       <c r="K3" s="24"/>
     </row>
     <row r="4" spans="1:11" s="28" customFormat="1" ht="66">
-      <c r="A4" s="66"/>
+      <c r="A4" s="67"/>
       <c r="B4" s="23"/>
       <c r="C4" s="24"/>
       <c r="D4" s="24"/>
@@ -3176,7 +3187,7 @@
       <c r="K4" s="24"/>
     </row>
     <row r="5" spans="1:11" s="28" customFormat="1">
-      <c r="A5" s="66"/>
+      <c r="A5" s="67"/>
       <c r="B5" s="23"/>
       <c r="C5" s="24"/>
       <c r="D5" s="24"/>
@@ -3199,7 +3210,7 @@
       <c r="K5" s="24"/>
     </row>
     <row r="6" spans="1:11" s="28" customFormat="1" ht="46.5" customHeight="1">
-      <c r="A6" s="66"/>
+      <c r="A6" s="67"/>
       <c r="B6" s="23"/>
       <c r="C6" s="24"/>
       <c r="D6" s="24"/>
@@ -3224,7 +3235,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" s="28" customFormat="1" ht="46.5" customHeight="1">
-      <c r="A7" s="66"/>
+      <c r="A7" s="67"/>
       <c r="B7" s="23"/>
       <c r="C7" s="24"/>
       <c r="D7" s="24"/>
@@ -3249,7 +3260,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" s="28" customFormat="1" ht="49.5">
-      <c r="A8" s="66"/>
+      <c r="A8" s="67"/>
       <c r="B8" s="23"/>
       <c r="C8" s="24"/>
       <c r="D8" s="24"/>
@@ -3274,7 +3285,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" s="35" customFormat="1" ht="66">
-      <c r="A9" s="66"/>
+      <c r="A9" s="67"/>
       <c r="B9" s="31" t="str">
         <f>'Definition &amp; analysis design'!B4</f>
         <v>satdk</v>
@@ -3311,7 +3322,7 @@
       <c r="K9" s="34"/>
     </row>
     <row r="10" spans="1:11" ht="66">
-      <c r="A10" s="66"/>
+      <c r="A10" s="67"/>
       <c r="B10" s="36"/>
       <c r="C10" s="36"/>
       <c r="D10" s="36"/>
@@ -3335,7 +3346,7 @@
       <c r="K10" s="32"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="66"/>
+      <c r="A11" s="67"/>
       <c r="B11" s="36"/>
       <c r="C11" s="36"/>
       <c r="D11" s="36"/>
@@ -3356,7 +3367,7 @@
       <c r="K11" s="32"/>
     </row>
     <row r="12" spans="1:11" ht="33">
-      <c r="A12" s="66"/>
+      <c r="A12" s="67"/>
       <c r="B12" s="31"/>
       <c r="C12" s="32"/>
       <c r="D12" s="32"/>
@@ -3379,7 +3390,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="33">
-      <c r="A13" s="66"/>
+      <c r="A13" s="67"/>
       <c r="B13" s="31"/>
       <c r="C13" s="32"/>
       <c r="D13" s="32"/>
@@ -3402,7 +3413,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="49.5">
-      <c r="A14" s="66"/>
+      <c r="A14" s="67"/>
       <c r="B14" s="31"/>
       <c r="C14" s="32"/>
       <c r="D14" s="32"/>
@@ -3423,7 +3434,7 @@
       <c r="K14" s="32"/>
     </row>
     <row r="15" spans="1:11" ht="115.5">
-      <c r="A15" s="66"/>
+      <c r="A15" s="67"/>
       <c r="B15" s="23" t="str">
         <f>'Definition &amp; analysis design'!B5</f>
         <v>slop</v>
@@ -3458,7 +3469,7 @@
       <c r="K15" s="24"/>
     </row>
     <row r="16" spans="1:11" s="28" customFormat="1" ht="66">
-      <c r="A16" s="66"/>
+      <c r="A16" s="67"/>
       <c r="B16" s="25"/>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
@@ -3482,7 +3493,7 @@
       <c r="K16" s="24"/>
     </row>
     <row r="17" spans="1:11" s="28" customFormat="1" ht="33">
-      <c r="A17" s="66"/>
+      <c r="A17" s="67"/>
       <c r="B17" s="23"/>
       <c r="C17" s="24"/>
       <c r="D17" s="24"/>
@@ -3507,7 +3518,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" s="28" customFormat="1" ht="33">
-      <c r="A18" s="66"/>
+      <c r="A18" s="67"/>
       <c r="B18" s="23"/>
       <c r="C18" s="24"/>
       <c r="D18" s="24"/>
@@ -3533,7 +3544,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" s="28" customFormat="1" ht="49.5">
-      <c r="A19" s="66"/>
+      <c r="A19" s="67"/>
       <c r="B19" s="23"/>
       <c r="C19" s="24"/>
       <c r="D19" s="24"/>
@@ -3559,7 +3570,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="132">
-      <c r="A20" s="66"/>
+      <c r="A20" s="67"/>
       <c r="B20" s="31" t="str">
         <f>'Definition &amp; analysis design'!B6</f>
         <v>satpsi</v>
@@ -3596,7 +3607,7 @@
       <c r="K20" s="32"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="66"/>
+      <c r="A21" s="67"/>
       <c r="B21" s="31"/>
       <c r="C21" s="32"/>
       <c r="D21" s="32"/>
@@ -3619,7 +3630,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="49.5">
-      <c r="A22" s="66"/>
+      <c r="A22" s="67"/>
       <c r="B22" s="31"/>
       <c r="C22" s="32"/>
       <c r="D22" s="32"/>
@@ -3642,7 +3653,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" s="28" customFormat="1" ht="82.5">
-      <c r="A23" s="66"/>
+      <c r="A23" s="67"/>
       <c r="B23" s="42" t="str">
         <f>'Definition &amp; analysis design'!B7</f>
         <v>smcmax</v>
@@ -3678,7 +3689,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" ht="33">
-      <c r="A24" s="66"/>
+      <c r="A24" s="67"/>
       <c r="B24" s="44" t="str">
         <f>'Definition &amp; analysis design'!B8</f>
         <v>wltsmc</v>
@@ -3714,7 +3725,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" s="28" customFormat="1" ht="49.5">
-      <c r="A25" s="66"/>
+      <c r="A25" s="67"/>
       <c r="B25" s="42" t="str">
         <f>'Definition &amp; analysis design'!B9</f>
         <v>field_capacity_atm_press_fraction (alpha_fc in the NOAA version CFE)</v>
@@ -3750,7 +3761,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" ht="49.5">
-      <c r="A26" s="66"/>
+      <c r="A26" s="67"/>
       <c r="B26" s="31" t="str">
         <f>'Definition &amp; analysis design'!B15</f>
         <v>lksatfac</v>
@@ -3785,7 +3796,7 @@
       <c r="K26" s="32"/>
     </row>
     <row r="27" spans="1:11" ht="33">
-      <c r="A27" s="66"/>
+      <c r="A27" s="67"/>
       <c r="B27" s="31"/>
       <c r="C27" s="32"/>
       <c r="D27" s="32"/>
@@ -3810,7 +3821,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" ht="33">
-      <c r="A28" s="66"/>
+      <c r="A28" s="67"/>
       <c r="B28" s="31"/>
       <c r="C28" s="32"/>
       <c r="D28" s="32"/>
@@ -3833,7 +3844,7 @@
       <c r="K28" s="32"/>
     </row>
     <row r="29" spans="1:11" s="28" customFormat="1" ht="66">
-      <c r="A29" s="66"/>
+      <c r="A29" s="67"/>
       <c r="B29" s="23" t="str">
         <f>'Definition &amp; analysis design'!B16</f>
         <v>D</v>
@@ -3868,7 +3879,7 @@
       <c r="K29" s="24"/>
     </row>
     <row r="30" spans="1:11" s="28" customFormat="1">
-      <c r="A30" s="66"/>
+      <c r="A30" s="67"/>
       <c r="B30" s="23"/>
       <c r="C30" s="24"/>
       <c r="D30" s="24"/>
@@ -3895,7 +3906,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" s="28" customFormat="1">
-      <c r="A31" s="66"/>
+      <c r="A31" s="67"/>
       <c r="B31" s="23"/>
       <c r="C31" s="24"/>
       <c r="D31" s="24"/>
@@ -3922,7 +3933,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" s="46" customFormat="1" ht="49.5">
-      <c r="A32" s="66"/>
+      <c r="A32" s="67"/>
       <c r="B32" s="31" t="str">
         <f>'Definition &amp; analysis design'!B17</f>
         <v>trigger_z_m_coeff (*added by me)</v>
@@ -4011,7 +4022,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" s="28" customFormat="1" ht="82.5">
-      <c r="A35" s="66" t="s">
+      <c r="A35" s="67" t="s">
         <v>91</v>
       </c>
       <c r="B35" s="23" t="str">
@@ -4027,7 +4038,7 @@
         <v>67</v>
       </c>
       <c r="E35" s="24" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="F35" s="24" t="s">
         <v>19</v>
@@ -4050,7 +4061,7 @@
       <c r="K35" s="24"/>
     </row>
     <row r="36" spans="1:11" s="28" customFormat="1" ht="82.5">
-      <c r="A36" s="66"/>
+      <c r="A36" s="67"/>
       <c r="B36" s="23"/>
       <c r="C36" s="24"/>
       <c r="D36" s="24"/>
@@ -4075,7 +4086,7 @@
       <c r="K36" s="29"/>
     </row>
     <row r="37" spans="1:11" s="28" customFormat="1" ht="66">
-      <c r="A37" s="66"/>
+      <c r="A37" s="67"/>
       <c r="B37" s="23"/>
       <c r="C37" s="24"/>
       <c r="D37" s="24"/>
@@ -4102,12 +4113,12 @@
       </c>
     </row>
     <row r="38" spans="1:11" s="28" customFormat="1" ht="82.5">
-      <c r="A38" s="66"/>
+      <c r="A38" s="67"/>
       <c r="B38" s="23"/>
       <c r="C38" s="24"/>
       <c r="D38" s="24"/>
       <c r="E38" s="24" t="s">
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="F38" s="24" t="s">
         <v>168</v>
@@ -4129,7 +4140,7 @@
       </c>
     </row>
     <row r="39" spans="1:11" s="28" customFormat="1" ht="82.5">
-      <c r="A39" s="66"/>
+      <c r="A39" s="67"/>
       <c r="B39" s="23"/>
       <c r="C39" s="24"/>
       <c r="D39" s="24"/>
@@ -4149,12 +4160,12 @@
         <v>2.5</v>
       </c>
       <c r="J39" s="24" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K39" s="29"/>
     </row>
     <row r="40" spans="1:11" ht="115.5">
-      <c r="A40" s="66"/>
+      <c r="A40" s="67"/>
       <c r="B40" s="31" t="str">
         <f>'Definition &amp; analysis design'!B19</f>
         <v>Cgw</v>
@@ -4186,14 +4197,14 @@
         <v>2</v>
       </c>
       <c r="J40" s="50" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K40" s="32" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="66"/>
+      <c r="A41" s="67"/>
       <c r="B41" s="31"/>
       <c r="C41" s="32"/>
       <c r="D41" s="32"/>
@@ -4203,7 +4214,7 @@
         <v>19</v>
       </c>
       <c r="H41" s="32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I41" s="32" t="s">
         <v>143</v>
@@ -4214,7 +4225,7 @@
       <c r="K41" s="32"/>
     </row>
     <row r="42" spans="1:11" ht="33">
-      <c r="A42" s="66"/>
+      <c r="A42" s="67"/>
       <c r="B42" s="31"/>
       <c r="C42" s="32"/>
       <c r="D42" s="32"/>
@@ -4239,7 +4250,7 @@
       </c>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="66"/>
+      <c r="A43" s="67"/>
       <c r="B43" s="31"/>
       <c r="C43" s="32"/>
       <c r="D43" s="32"/>
@@ -4257,12 +4268,12 @@
         <v>0.3</v>
       </c>
       <c r="J43" s="32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K43" s="32"/>
     </row>
     <row r="44" spans="1:11" s="28" customFormat="1" ht="132">
-      <c r="A44" s="66"/>
+      <c r="A44" s="67"/>
       <c r="B44" s="23" t="str">
         <f>'Definition &amp; analysis design'!B20</f>
         <v>expon</v>
@@ -4293,7 +4304,7 @@
         <v>8</v>
       </c>
       <c r="J44" s="24" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K44" s="24"/>
     </row>
@@ -4303,7 +4314,7 @@
       <c r="C45" s="24"/>
       <c r="D45" s="24"/>
       <c r="E45" s="24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F45" s="24" t="s">
         <v>168</v>
@@ -4379,7 +4390,7 @@
         <v>4</v>
       </c>
       <c r="J47" s="50" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K47" s="32"/>
     </row>
@@ -4389,10 +4400,10 @@
       <c r="C48" s="32"/>
       <c r="D48" s="32"/>
       <c r="E48" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="F48" s="32" t="s">
         <v>203</v>
-      </c>
-      <c r="F48" s="32" t="s">
-        <v>204</v>
       </c>
       <c r="G48" s="32">
         <v>0.6</v>
@@ -4407,7 +4418,7 @@
         <v>136</v>
       </c>
       <c r="K48" s="53" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="49" spans="1:19" ht="115.5">
@@ -4467,7 +4478,7 @@
       <c r="K50" s="24"/>
     </row>
     <row r="51" spans="1:19" s="51" customFormat="1" ht="16.5">
-      <c r="A51" s="66" t="s">
+      <c r="A51" s="67" t="s">
         <v>94</v>
       </c>
       <c r="B51" s="31" t="s">
@@ -4496,7 +4507,7 @@
       <c r="S51" s="32"/>
     </row>
     <row r="52" spans="1:19" s="51" customFormat="1" ht="16.5">
-      <c r="A52" s="66"/>
+      <c r="A52" s="67"/>
       <c r="B52" s="31" t="s">
         <v>33</v>
       </c>
@@ -4523,7 +4534,7 @@
       <c r="S52" s="32"/>
     </row>
     <row r="53" spans="1:19" s="51" customFormat="1" ht="16.5">
-      <c r="A53" s="66"/>
+      <c r="A53" s="67"/>
       <c r="B53" s="31" t="s">
         <v>33</v>
       </c>
@@ -4550,7 +4561,7 @@
       <c r="S53" s="32"/>
     </row>
     <row r="54" spans="1:19" s="51" customFormat="1" ht="16.5">
-      <c r="A54" s="66"/>
+      <c r="A54" s="67"/>
       <c r="B54" s="31" t="s">
         <v>36</v>
       </c>
@@ -4577,7 +4588,7 @@
       <c r="S54" s="32"/>
     </row>
     <row r="55" spans="1:19" s="51" customFormat="1" ht="49.5">
-      <c r="A55" s="66"/>
+      <c r="A55" s="67"/>
       <c r="B55" s="31" t="s">
         <v>27</v>
       </c>
@@ -4604,7 +4615,7 @@
       <c r="S55" s="32"/>
     </row>
     <row r="56" spans="1:19" s="51" customFormat="1" ht="33">
-      <c r="A56" s="66"/>
+      <c r="A56" s="67"/>
       <c r="B56" s="31" t="s">
         <v>34</v>
       </c>
@@ -4631,7 +4642,7 @@
       <c r="S56" s="32"/>
     </row>
     <row r="57" spans="1:19" s="51" customFormat="1" ht="33">
-      <c r="A57" s="66"/>
+      <c r="A57" s="67"/>
       <c r="B57" s="31" t="s">
         <v>20</v>
       </c>
@@ -4658,7 +4669,7 @@
       <c r="S57" s="32"/>
     </row>
     <row r="58" spans="1:19" s="51" customFormat="1" ht="33">
-      <c r="A58" s="66"/>
+      <c r="A58" s="67"/>
       <c r="B58" s="31" t="s">
         <v>21</v>
       </c>
@@ -4685,7 +4696,7 @@
       <c r="S58" s="32"/>
     </row>
     <row r="59" spans="1:19" s="51" customFormat="1" ht="16.5">
-      <c r="A59" s="66"/>
+      <c r="A59" s="67"/>
       <c r="B59" s="31" t="s">
         <v>22</v>
       </c>
@@ -4710,7 +4721,7 @@
       <c r="S59" s="32"/>
     </row>
     <row r="60" spans="1:19" s="51" customFormat="1" ht="33">
-      <c r="A60" s="66"/>
+      <c r="A60" s="67"/>
       <c r="B60" s="31" t="s">
         <v>23</v>
       </c>

--- a/parameter_study/parameter_v2.xlsx
+++ b/parameter_study/parameter_v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\Ryoko and Hilary\SMSigxModel\analysis\parameter_study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A1DCC1D-DA15-4A4A-9804-37B48288AB8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6865AE92-2425-4F9F-AD27-7073FCDEC39F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{C2B8906E-1C3B-4D84-9FF7-ACBD70084FC6}"/>
+    <workbookView xWindow="-37" yWindow="413" windowWidth="16995" windowHeight="10905" activeTab="1" xr2:uid="{C2B8906E-1C3B-4D84-9FF7-ACBD70084FC6}"/>
   </bookViews>
   <sheets>
     <sheet name="Definition &amp; analysis design" sheetId="1" r:id="rId1"/>
@@ -94,7 +94,7 @@
     Probably not necessarily represent the actual slope degree</t>
       </text>
     </comment>
-    <comment ref="B47" authorId="2" shapeId="0" xr:uid="{C20170E4-07B4-4E19-811B-53F302607DCF}">
+    <comment ref="B48" authorId="2" shapeId="0" xr:uid="{C20170E4-07B4-4E19-811B-53F302607DCF}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="214">
   <si>
     <t>init</t>
     <phoneticPr fontId="1"/>
@@ -991,26 +991,29 @@
     <t>Calculated from the equivalent Q_out max from groundwater reservoir to NWM at z=z_max</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>Manual calibration by myself on Mahurangi watershed</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="0.000"/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1073,7 +1076,7 @@
     <font>
       <sz val="11"/>
       <color theme="6"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1081,7 +1084,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1257,11 +1260,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1308,7 +1310,7 @@
     <xf numFmtId="2" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -1362,10 +1364,10 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1380,14 +1382,13 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="7" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1404,9 +1405,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1755,7 +1753,7 @@
   <threadedComment ref="E15" dT="2022-10-14T00:15:17.17" personId="{0D253195-8A92-4921-A6B5-DC18E4FE8100}" id="{33B213FE-9CC4-4515-90C3-3CD46EF3CBB4}">
     <text>Probably not necessarily represent the actual slope degree</text>
   </threadedComment>
-  <threadedComment ref="B47" dT="2022-03-17T23:35:33.42" personId="{0D253195-8A92-4921-A6B5-DC18E4FE8100}" id="{C20170E4-07B4-4E19-811B-53F302607DCF}">
+  <threadedComment ref="B48" dT="2022-03-17T23:35:33.42" personId="{0D253195-8A92-4921-A6B5-DC18E4FE8100}" id="{C20170E4-07B4-4E19-811B-53F302607DCF}">
     <text>Very sensitive in WRF-hydro, but insensitive in CFE</text>
   </threadedComment>
 </ThreadedComments>
@@ -1765,1261 +1763,1261 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="19.5" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.46484375" style="6" customWidth="1"/>
     <col min="2" max="2" width="30" style="1" customWidth="1"/>
-    <col min="3" max="4" width="13.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="29.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.1328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29.73046875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.59765625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1328125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.3984375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.1328125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5" style="1" customWidth="1"/>
-    <col min="13" max="14" width="21.25" style="1" customWidth="1"/>
-    <col min="15" max="15" width="20.875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.46484375" style="1" customWidth="1"/>
+    <col min="13" max="14" width="21.265625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="20.86328125" style="1" customWidth="1"/>
     <col min="16" max="16" width="17" style="1" customWidth="1"/>
-    <col min="17" max="17" width="26.75" style="1" customWidth="1"/>
-    <col min="18" max="18" width="16.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="26.73046875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="16.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9" style="1"/>
-    <col min="20" max="20" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="5" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="60" t="s">
+    <row r="1" spans="1:21" s="4" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A1" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="60" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="57" t="s">
         <v>151</v>
       </c>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="63" t="s">
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="63" t="s">
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="R1" s="61"/>
-      <c r="S1" s="61"/>
-      <c r="T1" s="61"/>
-      <c r="U1" s="62"/>
-    </row>
-    <row r="2" spans="1:21" s="5" customFormat="1" ht="33">
-      <c r="A2" s="8" t="s">
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="59"/>
+    </row>
+    <row r="2" spans="1:21" s="4" customFormat="1" ht="27.75">
+      <c r="A2" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="P2" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="Q2" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="R2" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="S2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="T2" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="U2" s="8" t="s">
+      <c r="U2" s="7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1" ht="99">
-      <c r="A3" s="58" t="s">
+    <row r="3" spans="1:21" s="2" customFormat="1" ht="94.5">
+      <c r="A3" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="12" t="s">
+      <c r="C3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="11">
+      <c r="G3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="10">
         <v>0</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="K3" s="19">
+      <c r="K3" s="18">
         <f>'Lit review on WRF-Hydro'!G3</f>
         <v>8.17</v>
       </c>
-      <c r="L3" s="19">
+      <c r="L3" s="18">
         <f>'Lit review on WRF-Hydro'!H3</f>
         <v>2</v>
       </c>
-      <c r="M3" s="19">
+      <c r="M3" s="18">
         <f>'Lit review on WRF-Hydro'!I3</f>
         <v>15</v>
       </c>
-      <c r="N3" s="19"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11" t="s">
+      <c r="N3" s="18"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-    </row>
-    <row r="4" spans="1:21" s="2" customFormat="1" ht="49.5">
-      <c r="A4" s="66"/>
-      <c r="B4" s="10" t="s">
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+    </row>
+    <row r="4" spans="1:21" s="2" customFormat="1" ht="40.5">
+      <c r="A4" s="63"/>
+      <c r="B4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="11">
+      <c r="G4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="10">
         <v>0</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="K4" s="14">
+      <c r="K4" s="13">
         <f>'Lit review on WRF-Hydro'!G9</f>
         <v>2.4499999999999998E-6</v>
       </c>
-      <c r="L4" s="14">
+      <c r="L4" s="13">
         <f>'Lit review on WRF-Hydro'!H9</f>
         <v>4.8999999999999997E-7</v>
       </c>
-      <c r="M4" s="14">
+      <c r="M4" s="13">
         <f>'Lit review on WRF-Hydro'!I9</f>
         <v>2.4499999999999999E-5</v>
       </c>
-      <c r="N4" s="14"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-    </row>
-    <row r="5" spans="1:21" s="2" customFormat="1" ht="33">
-      <c r="A5" s="66"/>
-      <c r="B5" s="10" t="s">
+      <c r="N4" s="13"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+    </row>
+    <row r="5" spans="1:21" s="2" customFormat="1" ht="40.5">
+      <c r="A5" s="63"/>
+      <c r="B5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="11">
+      <c r="G5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="10">
         <v>0</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="10">
         <v>1</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="K5" s="20">
+      <c r="K5" s="19">
         <f>'Lit review on WRF-Hydro'!G15</f>
         <v>0.1466666666666667</v>
       </c>
-      <c r="L5" s="20">
+      <c r="L5" s="19">
         <f>'Lit review on WRF-Hydro'!H15</f>
         <v>0</v>
       </c>
-      <c r="M5" s="20">
+      <c r="M5" s="19">
         <f>'Lit review on WRF-Hydro'!I15</f>
         <v>1</v>
       </c>
-      <c r="N5" s="20"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
-    </row>
-    <row r="6" spans="1:21" s="2" customFormat="1" ht="49.5">
-      <c r="A6" s="66"/>
-      <c r="B6" s="10" t="s">
+      <c r="N5" s="19"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+    </row>
+    <row r="6" spans="1:21" s="2" customFormat="1" ht="40.5">
+      <c r="A6" s="63"/>
+      <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="10">
         <v>0</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="10">
         <f>'Lit review on WRF-Hydro'!G20</f>
         <v>0.26300000000000001</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L6" s="10">
         <f>'Lit review on WRF-Hydro'!H20</f>
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="M6" s="11">
+      <c r="M6" s="10">
         <f>'Lit review on WRF-Hydro'!I20</f>
         <v>0.78</v>
       </c>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-    </row>
-    <row r="7" spans="1:21" s="2" customFormat="1" ht="99">
-      <c r="A7" s="66"/>
-      <c r="B7" s="10" t="s">
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+    </row>
+    <row r="7" spans="1:21" s="2" customFormat="1" ht="81">
+      <c r="A7" s="63"/>
+      <c r="B7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="G7" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="11" t="s">
+      <c r="G7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="10">
         <v>1</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="10">
         <v>0.5</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L7" s="10">
         <v>0.45</v>
       </c>
-      <c r="M7" s="11">
+      <c r="M7" s="10">
         <v>1</v>
       </c>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-    </row>
-    <row r="8" spans="1:21" s="2" customFormat="1" ht="99">
-      <c r="A8" s="66"/>
-      <c r="B8" s="10" t="s">
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+    </row>
+    <row r="8" spans="1:21" s="2" customFormat="1" ht="81">
+      <c r="A8" s="63"/>
+      <c r="B8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="G8" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="54">
+      <c r="G8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="52">
         <v>0</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="10">
         <v>0.35</v>
       </c>
-      <c r="L8" s="11">
+      <c r="L8" s="10">
         <v>0</v>
       </c>
-      <c r="M8" s="11">
+      <c r="M8" s="10">
         <v>0.45</v>
       </c>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-    </row>
-    <row r="9" spans="1:21" s="2" customFormat="1" ht="99">
-      <c r="A9" s="66"/>
-      <c r="B9" s="10" t="s">
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+    </row>
+    <row r="9" spans="1:21" s="2" customFormat="1" ht="81">
+      <c r="A9" s="63"/>
+      <c r="B9" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="11" t="s">
+      <c r="C9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="G9" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="11">
+      <c r="G9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="10">
         <v>0.1</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="10">
         <v>0.33</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="J9" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="10">
         <v>0.33</v>
       </c>
-      <c r="L9" s="11">
+      <c r="L9" s="10">
         <f>H9</f>
         <v>0.1</v>
       </c>
-      <c r="M9" s="11">
+      <c r="M9" s="10">
         <f>I9</f>
         <v>0.33</v>
       </c>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
-    </row>
-    <row r="10" spans="1:21" s="17" customFormat="1" ht="82.5">
-      <c r="A10" s="66"/>
-      <c r="B10" s="15" t="s">
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+    </row>
+    <row r="10" spans="1:21" s="16" customFormat="1" ht="81">
+      <c r="A10" s="63"/>
+      <c r="B10" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="16" t="s">
+      <c r="C10" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="55" t="s">
+      <c r="E10" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="H10" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="K10" s="16">
+      <c r="H10" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="15">
         <v>1</v>
       </c>
-      <c r="L10" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="M10" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="16"/>
-      <c r="U10" s="16"/>
-    </row>
-    <row r="11" spans="1:21" s="2" customFormat="1" ht="99">
-      <c r="A11" s="66"/>
-      <c r="B11" s="15" t="s">
+      <c r="L10" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+    </row>
+    <row r="11" spans="1:21" s="2" customFormat="1" ht="81">
+      <c r="A11" s="63"/>
+      <c r="B11" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="C11" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="16" t="s">
+      <c r="C11" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="55" t="s">
+      <c r="E11" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H11" s="15">
         <v>0</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="J11" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="K11" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="L11" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="M11" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="N11" s="16"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
-    </row>
-    <row r="12" spans="1:21" s="17" customFormat="1" ht="82.5">
-      <c r="A12" s="66"/>
-      <c r="B12" s="15" t="s">
+      <c r="J11" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="N11" s="15"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+    </row>
+    <row r="12" spans="1:21" s="16" customFormat="1" ht="67.5">
+      <c r="A12" s="63"/>
+      <c r="B12" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="16" t="s">
+      <c r="C12" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="H12" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="K12" s="16">
+      <c r="H12" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="15">
         <v>1</v>
       </c>
-      <c r="L12" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="M12" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="16"/>
-      <c r="T12" s="16"/>
-      <c r="U12" s="16"/>
-    </row>
-    <row r="13" spans="1:21" s="17" customFormat="1" ht="99">
-      <c r="A13" s="66"/>
-      <c r="B13" s="15" t="s">
+      <c r="L12" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+    </row>
+    <row r="13" spans="1:21" s="16" customFormat="1" ht="81">
+      <c r="A13" s="63"/>
+      <c r="B13" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="16" t="s">
+      <c r="C13" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="H13" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="J13" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="K13" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="L13" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="M13" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16"/>
-      <c r="T13" s="16"/>
-      <c r="U13" s="16"/>
-    </row>
-    <row r="14" spans="1:21" s="3" customFormat="1" ht="148.5">
-      <c r="A14" s="66"/>
-      <c r="B14" s="15" t="s">
+      <c r="H13" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
+    </row>
+    <row r="14" spans="1:21" s="2" customFormat="1" ht="135">
+      <c r="A14" s="63"/>
+      <c r="B14" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="E14" s="55" t="s">
+      <c r="E14" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="G14" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="H14" s="16">
+      <c r="H14" s="15">
         <v>0</v>
       </c>
-      <c r="I14" s="16">
+      <c r="I14" s="15">
         <v>1</v>
       </c>
-      <c r="J14" s="16" t="s">
+      <c r="J14" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="K14" s="16">
+      <c r="K14" s="15">
         <v>1.4350000000000001E-3</v>
       </c>
-      <c r="L14" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="M14" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="N14" s="16"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="11"/>
-      <c r="U14" s="11"/>
-    </row>
-    <row r="15" spans="1:21" s="3" customFormat="1" ht="49.5">
-      <c r="A15" s="66"/>
-      <c r="B15" s="10" t="s">
+      <c r="L14" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="N14" s="15"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+    </row>
+    <row r="15" spans="1:21" s="2" customFormat="1" ht="40.5">
+      <c r="A15" s="63"/>
+      <c r="B15" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C15" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="11" t="s">
+      <c r="C15" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="56" t="s">
+      <c r="E15" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="G15" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="11">
+      <c r="G15" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="10">
         <v>0</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="I15" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="J15" s="11" t="s">
+      <c r="J15" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="K15" s="11">
+      <c r="K15" s="10">
         <f>'Lit review on WRF-Hydro'!G26</f>
         <v>1000</v>
       </c>
-      <c r="L15" s="11">
+      <c r="L15" s="10">
         <f>'Lit review on WRF-Hydro'!H26</f>
         <v>10</v>
       </c>
-      <c r="M15" s="11">
+      <c r="M15" s="10">
         <f>'Lit review on WRF-Hydro'!I26</f>
         <v>10000</v>
       </c>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
-      <c r="U15" s="11"/>
-    </row>
-    <row r="16" spans="1:21" s="2" customFormat="1" ht="33">
-      <c r="A16" s="66"/>
-      <c r="B16" s="10" t="s">
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+    </row>
+    <row r="16" spans="1:21" s="2" customFormat="1" ht="40.5">
+      <c r="A16" s="63"/>
+      <c r="B16" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="11" t="s">
+      <c r="E16" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="G16" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H16" s="11">
+      <c r="G16" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="10">
         <v>0</v>
       </c>
-      <c r="I16" s="11" t="s">
+      <c r="I16" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="J16" s="11" t="s">
+      <c r="J16" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="K16" s="11">
+      <c r="K16" s="10">
         <f>'Lit review on WRF-Hydro'!G29</f>
         <v>1</v>
       </c>
-      <c r="L16" s="11">
+      <c r="L16" s="10">
         <f>'Lit review on WRF-Hydro'!H29</f>
         <v>0.9</v>
       </c>
-      <c r="M16" s="11">
+      <c r="M16" s="10">
         <f>'Lit review on WRF-Hydro'!I29</f>
         <v>1.2</v>
       </c>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="11"/>
-    </row>
-    <row r="17" spans="1:21" s="2" customFormat="1" ht="66">
-      <c r="A17" s="59"/>
-      <c r="B17" s="10" t="s">
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+    </row>
+    <row r="17" spans="1:21" s="2" customFormat="1" ht="54">
+      <c r="A17" s="56"/>
+      <c r="B17" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="C17" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="11" t="s">
+      <c r="C17" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="G17" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H17" s="11">
+      <c r="G17" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="10">
         <v>0</v>
       </c>
-      <c r="I17" s="11">
+      <c r="I17" s="10">
         <v>1</v>
       </c>
-      <c r="J17" s="11" t="s">
+      <c r="J17" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="K17" s="20">
+      <c r="K17" s="19">
         <f>'Lit review on WRF-Hydro'!G32</f>
         <v>0.625</v>
       </c>
-      <c r="L17" s="20">
+      <c r="L17" s="19">
         <f>'Lit review on WRF-Hydro'!H32</f>
         <v>0.25</v>
       </c>
-      <c r="M17" s="20">
+      <c r="M17" s="19">
         <f>'Lit review on WRF-Hydro'!I32</f>
         <v>1</v>
       </c>
-      <c r="N17" s="20"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
-    </row>
-    <row r="18" spans="1:21" s="3" customFormat="1" ht="49.5">
-      <c r="A18" s="58" t="s">
+      <c r="N17" s="19"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+    </row>
+    <row r="18" spans="1:21" s="2" customFormat="1" ht="40.5">
+      <c r="A18" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="57" t="s">
+      <c r="C18" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F18" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="G18" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="11">
+      <c r="G18" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="10">
         <v>0</v>
       </c>
-      <c r="I18" s="11" t="s">
+      <c r="I18" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="J18" s="11" t="s">
+      <c r="J18" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="K18" s="11">
+      <c r="K18" s="10">
         <f>'Lit review on WRF-Hydro'!G35</f>
         <v>50</v>
       </c>
-      <c r="L18" s="11">
+      <c r="L18" s="10">
         <f>'Lit review on WRF-Hydro'!H35</f>
         <v>10</v>
       </c>
-      <c r="M18" s="11">
+      <c r="M18" s="10">
         <f>'Lit review on WRF-Hydro'!I35</f>
         <v>250</v>
       </c>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="11"/>
-    </row>
-    <row r="19" spans="1:21" s="3" customFormat="1" ht="99">
-      <c r="A19" s="66"/>
-      <c r="B19" s="10" t="s">
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+    </row>
+    <row r="19" spans="1:21" s="2" customFormat="1" ht="81">
+      <c r="A19" s="63"/>
+      <c r="B19" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F19" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="G19" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H19" s="11">
+      <c r="G19" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="10">
         <v>0</v>
       </c>
-      <c r="I19" s="11" t="s">
+      <c r="I19" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="J19" s="11" t="s">
+      <c r="J19" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="K19" s="11">
+      <c r="K19" s="10">
         <f>'Lit review on WRF-Hydro'!G40</f>
         <v>1</v>
       </c>
-      <c r="L19" s="19">
+      <c r="L19" s="18">
         <f>0.2*EXP(1)/(EXP(1)-1)</f>
         <v>0.31639534137386532</v>
       </c>
-      <c r="M19" s="19">
+      <c r="M19" s="18">
         <f>2*EXP(8)/(EXP(8)-1)</f>
         <v>2.0006711504016823</v>
       </c>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="11"/>
-    </row>
-    <row r="20" spans="1:21" s="3" customFormat="1" ht="99">
-      <c r="A20" s="59"/>
-      <c r="B20" s="10" t="s">
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+    </row>
+    <row r="20" spans="1:21" s="2" customFormat="1" ht="81">
+      <c r="A20" s="56"/>
+      <c r="B20" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="11" t="s">
+      <c r="C20" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="G20" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" s="11">
+      <c r="G20" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="10">
         <v>0</v>
       </c>
-      <c r="I20" s="11" t="s">
+      <c r="I20" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="J20" s="11" t="s">
+      <c r="J20" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="K20" s="11">
+      <c r="K20" s="10">
         <f>'Lit review on WRF-Hydro'!G44</f>
         <v>1.75</v>
       </c>
-      <c r="L20" s="11">
+      <c r="L20" s="10">
         <f>'Lit review on WRF-Hydro'!H44</f>
         <v>1</v>
       </c>
-      <c r="M20" s="11">
+      <c r="M20" s="10">
         <f>'Lit review on WRF-Hydro'!I44</f>
         <v>8</v>
       </c>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11"/>
-    </row>
-    <row r="21" spans="1:21" s="2" customFormat="1" ht="66">
-      <c r="A21" s="10" t="s">
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+    </row>
+    <row r="21" spans="1:21" s="2" customFormat="1" ht="54">
+      <c r="A21" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="F21" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="G21" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="11">
+      <c r="G21" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" s="10">
         <v>0</v>
       </c>
-      <c r="I21" s="11" t="s">
+      <c r="I21" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="J21" s="11" t="s">
+      <c r="J21" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="K21" s="11">
-        <f>'Lit review on WRF-Hydro'!G47</f>
+      <c r="K21" s="10">
+        <f>'Lit review on WRF-Hydro'!G48</f>
         <v>3</v>
       </c>
-      <c r="L21" s="11">
-        <f>'Lit review on WRF-Hydro'!H47</f>
+      <c r="L21" s="10">
+        <f>'Lit review on WRF-Hydro'!H48</f>
         <v>0.1</v>
       </c>
-      <c r="M21" s="11">
-        <f>'Lit review on WRF-Hydro'!I47</f>
+      <c r="M21" s="10">
+        <f>'Lit review on WRF-Hydro'!I48</f>
         <v>4</v>
       </c>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="11"/>
-      <c r="T21" s="11"/>
-      <c r="U21" s="11"/>
-    </row>
-    <row r="22" spans="1:21" s="2" customFormat="1" ht="49.5">
-      <c r="A22" s="15" t="s">
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+    </row>
+    <row r="22" spans="1:21" s="2" customFormat="1" ht="40.5">
+      <c r="A22" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="18" t="s">
+      <c r="E22" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="F22" s="16" t="s">
+      <c r="F22" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="G22" s="16" t="s">
+      <c r="G22" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="H22" s="16">
+      <c r="H22" s="15">
         <v>0</v>
       </c>
-      <c r="I22" s="16" t="s">
+      <c r="I22" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="J22" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="K22" s="16">
+      <c r="J22" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="K22" s="15">
         <v>46.65</v>
       </c>
-      <c r="L22" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="M22" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="N22" s="16"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="11"/>
-      <c r="U22" s="11"/>
-    </row>
-    <row r="23" spans="1:21" s="2" customFormat="1" ht="297">
-      <c r="A23" s="58" t="s">
+      <c r="L22" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="M22" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="N22" s="15"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+    </row>
+    <row r="23" spans="1:21" s="2" customFormat="1" ht="270">
+      <c r="A23" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11" t="s">
+      <c r="C23" s="10"/>
+      <c r="D23" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="E23" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="F23" s="11" t="s">
+      <c r="F23" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="G23" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H23" s="11">
+      <c r="G23" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" s="10">
         <v>0</v>
       </c>
-      <c r="I23" s="11">
+      <c r="I23" s="10">
         <v>1</v>
       </c>
-      <c r="J23" s="11" t="s">
+      <c r="J23" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="K23" s="11">
+      <c r="K23" s="10">
         <v>0.03</v>
       </c>
-      <c r="L23" s="11">
+      <c r="L23" s="10">
         <f>H23</f>
         <v>0</v>
       </c>
-      <c r="M23" s="11">
+      <c r="M23" s="10">
         <f>I23</f>
         <v>1</v>
       </c>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="11"/>
-      <c r="S23" s="11"/>
-      <c r="T23" s="11"/>
-      <c r="U23" s="11"/>
-    </row>
-    <row r="24" spans="1:21" s="2" customFormat="1" ht="66">
-      <c r="A24" s="59"/>
-      <c r="B24" s="15" t="s">
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+    </row>
+    <row r="24" spans="1:21" s="2" customFormat="1" ht="54">
+      <c r="A24" s="56"/>
+      <c r="B24" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16" t="s">
+      <c r="C24" s="15"/>
+      <c r="D24" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="E24" s="18"/>
-      <c r="F24" s="16" t="s">
+      <c r="E24" s="17"/>
+      <c r="F24" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="G24" s="16" t="s">
+      <c r="G24" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="H24" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="I24" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="J24" s="16" t="s">
+      <c r="H24" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="J24" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="K24" s="16" t="s">
+      <c r="K24" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="L24" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="N24" s="16"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="11"/>
-      <c r="S24" s="11"/>
-      <c r="T24" s="11"/>
-      <c r="U24" s="11"/>
-    </row>
-    <row r="25" spans="1:21" s="2" customFormat="1" ht="181.5">
-      <c r="A25" s="10" t="s">
+      <c r="L24" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="N24" s="15"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+    </row>
+    <row r="25" spans="1:21" s="2" customFormat="1" ht="175.5">
+      <c r="A25" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="16" t="s">
+      <c r="C25" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="18"/>
-      <c r="F25" s="16" t="s">
+      <c r="E25" s="17"/>
+      <c r="F25" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="G25" s="16" t="s">
+      <c r="G25" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="H25" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="I25" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="J25" s="16" t="s">
+      <c r="H25" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I25" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="J25" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="K25" s="16" t="s">
+      <c r="K25" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="L25" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="M25" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="N25" s="16"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="11"/>
-      <c r="S25" s="11"/>
-      <c r="T25" s="11"/>
-      <c r="U25" s="11"/>
+      <c r="L25" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="M25" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="N25" s="15"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
     </row>
     <row r="36" spans="1:5" s="2" customFormat="1">
-      <c r="A36" s="6"/>
+      <c r="A36" s="5"/>
     </row>
     <row r="37" spans="1:5" s="2" customFormat="1">
-      <c r="A37" s="6"/>
+      <c r="A37" s="5"/>
     </row>
     <row r="39" spans="1:5">
       <c r="E39" s="2"/>
@@ -3046,1710 +3044,1731 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DB7CFF8-16E9-44BD-BC94-406D58013BA0}">
-  <dimension ref="A1:S60"/>
+  <dimension ref="A1:S61"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="B40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="19.5" style="52" customWidth="1"/>
-    <col min="2" max="2" width="30" style="21" customWidth="1"/>
-    <col min="3" max="3" width="22.625" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.125" style="21" customWidth="1"/>
-    <col min="5" max="5" width="9" style="21"/>
-    <col min="6" max="6" width="17" style="21" customWidth="1"/>
-    <col min="7" max="7" width="14.375" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" style="21" customWidth="1"/>
-    <col min="9" max="9" width="15.625" style="21" customWidth="1"/>
-    <col min="10" max="10" width="20.25" style="21" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="86.125" style="21" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="21"/>
+    <col min="1" max="1" width="19.46484375" style="50" customWidth="1"/>
+    <col min="2" max="2" width="30" style="20" customWidth="1"/>
+    <col min="3" max="3" width="22.59765625" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1328125" style="20" customWidth="1"/>
+    <col min="5" max="5" width="9" style="20"/>
+    <col min="6" max="6" width="17" style="20" customWidth="1"/>
+    <col min="7" max="7" width="14.3984375" style="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="20" customWidth="1"/>
+    <col min="9" max="9" width="15.59765625" style="20" customWidth="1"/>
+    <col min="10" max="10" width="20.265625" style="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="86.1328125" style="20" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="65" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69" t="s">
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66" t="s">
         <v>103</v>
       </c>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69" t="s">
+      <c r="E1" s="66"/>
+      <c r="F1" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-    </row>
-    <row r="2" spans="1:11" ht="66">
-      <c r="A2" s="22" t="s">
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+    </row>
+    <row r="2" spans="1:11" ht="55.5">
+      <c r="A2" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="K2" s="22" t="s">
+      <c r="K2" s="21" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="28" customFormat="1" ht="99">
-      <c r="A3" s="67" t="s">
+    <row r="3" spans="1:11" s="27" customFormat="1" ht="94.5">
+      <c r="A3" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="B3" s="23" t="str">
+      <c r="B3" s="22" t="str">
         <f>'Definition &amp; analysis design'!B3</f>
         <v>bb</v>
       </c>
-      <c r="C3" s="24" t="str">
+      <c r="C3" s="23" t="str">
         <f>'Definition &amp; analysis design'!C3</f>
         <v>-</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="F3" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="26">
+      <c r="F3" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="25">
         <f>G4</f>
         <v>8.17</v>
       </c>
-      <c r="H3" s="26">
+      <c r="H3" s="25">
         <f>H4</f>
         <v>2</v>
       </c>
-      <c r="I3" s="26">
+      <c r="I3" s="25">
         <f>I4</f>
         <v>15</v>
       </c>
-      <c r="J3" s="27" t="s">
+      <c r="J3" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="K3" s="24"/>
-    </row>
-    <row r="4" spans="1:11" s="28" customFormat="1" ht="66">
-      <c r="A4" s="67"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="24">
+      <c r="K3" s="23"/>
+    </row>
+    <row r="4" spans="1:11" s="27" customFormat="1" ht="67.5">
+      <c r="A4" s="64"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="23">
         <f>G8</f>
         <v>8.17</v>
       </c>
-      <c r="H4" s="24">
+      <c r="H4" s="23">
         <f>H7</f>
         <v>2</v>
       </c>
-      <c r="I4" s="24">
+      <c r="I4" s="23">
         <f>I7</f>
         <v>15</v>
       </c>
-      <c r="J4" s="24" t="s">
+      <c r="J4" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="K4" s="24"/>
-    </row>
-    <row r="5" spans="1:11" s="28" customFormat="1">
-      <c r="A5" s="67"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24" t="s">
+      <c r="K4" s="23"/>
+    </row>
+    <row r="5" spans="1:11" s="27" customFormat="1">
+      <c r="A5" s="64"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="H5" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="I5" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="J5" s="24" t="s">
+      <c r="J5" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="K5" s="24"/>
-    </row>
-    <row r="6" spans="1:11" s="28" customFormat="1" ht="46.5" customHeight="1">
-      <c r="A6" s="67"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24" t="s">
+      <c r="K5" s="23"/>
+    </row>
+    <row r="6" spans="1:11" s="27" customFormat="1" ht="46.5" customHeight="1">
+      <c r="A6" s="64"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="H6" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="I6" s="24" t="s">
+      <c r="I6" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="J6" s="24" t="s">
+      <c r="J6" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="K6" s="29" t="s">
+      <c r="K6" s="28" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="28" customFormat="1" ht="46.5" customHeight="1">
-      <c r="A7" s="67"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24" t="s">
+    <row r="7" spans="1:11" s="27" customFormat="1" ht="46.5" customHeight="1">
+      <c r="A7" s="64"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="G7" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="24">
+      <c r="G7" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="23">
         <v>2</v>
       </c>
-      <c r="I7" s="24">
+      <c r="I7" s="23">
         <v>15</v>
       </c>
-      <c r="J7" s="24" t="s">
+      <c r="J7" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="K7" s="29" t="s">
+      <c r="K7" s="28" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="28" customFormat="1" ht="49.5">
-      <c r="A8" s="67"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="25">
+    <row r="8" spans="1:11" s="27" customFormat="1" ht="40.5">
+      <c r="A8" s="64"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="24">
         <v>8.17</v>
       </c>
-      <c r="H8" s="25">
+      <c r="H8" s="24">
         <v>2.79</v>
       </c>
-      <c r="I8" s="25">
+      <c r="I8" s="24">
         <v>11.55</v>
       </c>
-      <c r="J8" s="24" t="s">
+      <c r="J8" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="K8" s="30" t="s">
+      <c r="K8" s="29" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="35" customFormat="1" ht="66">
-      <c r="A9" s="67"/>
-      <c r="B9" s="31" t="str">
+    <row r="9" spans="1:11" s="34" customFormat="1" ht="67.5">
+      <c r="A9" s="64"/>
+      <c r="B9" s="30" t="str">
         <f>'Definition &amp; analysis design'!B4</f>
         <v>satdk</v>
       </c>
-      <c r="C9" s="32" t="str">
+      <c r="C9" s="31" t="str">
         <f>'Definition &amp; analysis design'!C4</f>
         <v>meters/second
 [m/s]</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="32" t="s">
+      <c r="E9" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="32" t="s">
+      <c r="F9" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="33">
+      <c r="G9" s="32">
         <f>G10</f>
         <v>2.4499999999999998E-6</v>
       </c>
-      <c r="H9" s="33">
+      <c r="H9" s="32">
         <f>$G9*REPLACE(H10, 1, 1, "")</f>
         <v>4.8999999999999997E-7</v>
       </c>
-      <c r="I9" s="33">
+      <c r="I9" s="32">
         <f>$G9*REPLACE(I10, 1, 1, "")</f>
         <v>2.4499999999999999E-5</v>
       </c>
-      <c r="J9" s="31" t="s">
+      <c r="J9" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="K9" s="34"/>
-    </row>
-    <row r="10" spans="1:11" ht="66">
-      <c r="A10" s="67"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="37">
+      <c r="K9" s="33"/>
+    </row>
+    <row r="10" spans="1:11" ht="67.5">
+      <c r="A10" s="64"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="36">
         <f>G14</f>
         <v>2.4499999999999998E-6</v>
       </c>
-      <c r="H10" s="32" t="str">
+      <c r="H10" s="31" t="str">
         <f>H12</f>
         <v>x0.2</v>
       </c>
-      <c r="I10" s="32" t="str">
+      <c r="I10" s="31" t="str">
         <f>I12</f>
         <v>x10</v>
       </c>
-      <c r="J10" s="32" t="s">
+      <c r="J10" s="31" t="s">
         <v>190</v>
       </c>
-      <c r="K10" s="32"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="67"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="32" t="s">
+      <c r="K10" s="31"/>
+    </row>
+    <row r="11" spans="1:11" ht="27">
+      <c r="A11" s="64"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="I11" s="32" t="s">
+      <c r="I11" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="J11" s="32" t="s">
+      <c r="J11" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="K11" s="32"/>
-    </row>
-    <row r="12" spans="1:11" ht="33">
-      <c r="A12" s="67"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="32" t="s">
+      <c r="K11" s="31"/>
+    </row>
+    <row r="12" spans="1:11" ht="27">
+      <c r="A12" s="64"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="I12" s="32" t="s">
+      <c r="I12" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="J12" s="32" t="s">
+      <c r="J12" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="K12" s="38" t="s">
+      <c r="K12" s="37" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="33">
-      <c r="A13" s="67"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" s="37">
+    <row r="13" spans="1:11" ht="27">
+      <c r="A13" s="64"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="36">
         <v>4.9999999999999998E-7</v>
       </c>
-      <c r="I13" s="37">
+      <c r="I13" s="36">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="J13" s="32" t="s">
+      <c r="J13" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="K13" s="32" t="s">
+      <c r="K13" s="31" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="49.5">
-      <c r="A14" s="67"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="37">
+    <row r="14" spans="1:11" ht="40.5">
+      <c r="A14" s="64"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="36">
         <v>2.4499999999999998E-6</v>
       </c>
-      <c r="H14" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="I14" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="J14" s="32" t="s">
+      <c r="H14" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="K14" s="32"/>
-    </row>
-    <row r="15" spans="1:11" ht="115.5">
-      <c r="A15" s="67"/>
-      <c r="B15" s="23" t="str">
+      <c r="K14" s="31"/>
+    </row>
+    <row r="15" spans="1:11" ht="94.5">
+      <c r="A15" s="64"/>
+      <c r="B15" s="22" t="str">
         <f>'Definition &amp; analysis design'!B5</f>
         <v>slop</v>
       </c>
-      <c r="C15" s="24" t="str">
+      <c r="C15" s="23" t="str">
         <f>'Definition &amp; analysis design'!C5</f>
         <v>meters/meters
 [m/m]</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="F15" s="24"/>
-      <c r="G15" s="40">
+      <c r="F15" s="23"/>
+      <c r="G15" s="39">
         <f>G16</f>
         <v>0.1466666666666667</v>
       </c>
-      <c r="H15" s="24">
+      <c r="H15" s="23">
         <f>H16</f>
         <v>0</v>
       </c>
-      <c r="I15" s="24">
+      <c r="I15" s="23">
         <f>I16</f>
         <v>1</v>
       </c>
-      <c r="J15" s="23" t="s">
+      <c r="J15" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="K15" s="24"/>
-    </row>
-    <row r="16" spans="1:11" s="28" customFormat="1" ht="66">
-      <c r="A16" s="67"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="40">
+      <c r="K15" s="23"/>
+    </row>
+    <row r="16" spans="1:11" s="27" customFormat="1" ht="54">
+      <c r="A16" s="64"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="39">
         <f>G18</f>
         <v>0.1466666666666667</v>
       </c>
-      <c r="H16" s="24">
+      <c r="H16" s="23">
         <f>H17</f>
         <v>0</v>
       </c>
-      <c r="I16" s="24">
+      <c r="I16" s="23">
         <f>I17</f>
         <v>1</v>
       </c>
-      <c r="J16" s="24" t="s">
+      <c r="J16" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="K16" s="24"/>
-    </row>
-    <row r="17" spans="1:11" s="28" customFormat="1" ht="33">
-      <c r="A17" s="67"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24" t="s">
+      <c r="K16" s="23"/>
+    </row>
+    <row r="17" spans="1:11" s="27" customFormat="1" ht="27">
+      <c r="A17" s="64"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="G17" s="24">
+      <c r="G17" s="23">
         <v>0.1</v>
       </c>
-      <c r="H17" s="24">
+      <c r="H17" s="23">
         <v>0</v>
       </c>
-      <c r="I17" s="24">
+      <c r="I17" s="23">
         <v>1</v>
       </c>
-      <c r="J17" s="24" t="s">
+      <c r="J17" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="K17" s="29" t="s">
+      <c r="K17" s="28" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="28" customFormat="1" ht="33">
-      <c r="A18" s="67"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="41">
+    <row r="18" spans="1:11" s="27" customFormat="1" ht="27">
+      <c r="A18" s="64"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="40">
         <f>AVERAGE(16/100, 14/100, 14/100)</f>
         <v>0.1466666666666667</v>
       </c>
-      <c r="H18" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="I18" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="J18" s="24" t="s">
+      <c r="H18" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="K18" s="24" t="s">
+      <c r="K18" s="23" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="28" customFormat="1" ht="49.5">
-      <c r="A19" s="67"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19" s="24">
+    <row r="19" spans="1:11" s="27" customFormat="1" ht="40.5">
+      <c r="A19" s="64"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="23">
         <f>1/8</f>
         <v>0.125</v>
       </c>
-      <c r="H19" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="I19" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="J19" s="24" t="s">
+      <c r="H19" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="K19" s="24" t="s">
+      <c r="K19" s="23" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="132">
-      <c r="A20" s="67"/>
-      <c r="B20" s="31" t="str">
+    <row r="20" spans="1:11" ht="111">
+      <c r="A20" s="64"/>
+      <c r="B20" s="30" t="str">
         <f>'Definition &amp; analysis design'!B6</f>
         <v>satpsi</v>
       </c>
-      <c r="C20" s="32" t="str">
+      <c r="C20" s="31" t="str">
         <f>'Definition &amp; analysis design'!C6</f>
         <v>meters
 [m]</v>
       </c>
-      <c r="D20" s="32" t="s">
+      <c r="D20" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="32" t="s">
+      <c r="E20" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="F20" s="32" t="s">
+      <c r="F20" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="G20" s="32">
+      <c r="G20" s="31">
         <f>G22</f>
         <v>0.26300000000000001</v>
       </c>
-      <c r="H20" s="32">
+      <c r="H20" s="31">
         <f>H22</f>
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="I20" s="32">
+      <c r="I20" s="31">
         <f>I21</f>
         <v>0.78</v>
       </c>
-      <c r="J20" s="31" t="s">
+      <c r="J20" s="30" t="s">
         <v>170</v>
       </c>
-      <c r="K20" s="32"/>
+      <c r="K20" s="31"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="67"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="36">
+      <c r="A21" s="64"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" s="35">
         <v>0.02</v>
       </c>
-      <c r="I21" s="36">
+      <c r="I21" s="35">
         <v>0.78</v>
       </c>
-      <c r="J21" s="36" t="s">
+      <c r="J21" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="K21" s="32" t="s">
+      <c r="K21" s="31" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="49.5">
-      <c r="A22" s="67"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32">
+    <row r="22" spans="1:11" ht="40.5">
+      <c r="A22" s="64"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31">
         <v>0.26300000000000001</v>
       </c>
-      <c r="H22" s="39">
+      <c r="H22" s="38">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="I22" s="39">
+      <c r="I22" s="38">
         <v>0.75900000000000001</v>
       </c>
-      <c r="J22" s="32" t="s">
+      <c r="J22" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="K22" s="38" t="s">
+      <c r="K22" s="37" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="28" customFormat="1" ht="82.5">
-      <c r="A23" s="67"/>
-      <c r="B23" s="42" t="str">
+    <row r="23" spans="1:11" s="27" customFormat="1" ht="67.5">
+      <c r="A23" s="64"/>
+      <c r="B23" s="41" t="str">
         <f>'Definition &amp; analysis design'!B7</f>
         <v>smcmax</v>
       </c>
-      <c r="C23" s="43" t="str">
+      <c r="C23" s="42" t="str">
         <f>'Definition &amp; analysis design'!C7</f>
         <v>meters/meters
 [m/m]</v>
       </c>
-      <c r="D23" s="43" t="s">
+      <c r="D23" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="43" t="s">
+      <c r="E23" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="F23" s="43" t="s">
+      <c r="F23" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="G23" s="43">
+      <c r="G23" s="42">
         <v>0.56999999999999995</v>
       </c>
-      <c r="H23" s="43">
+      <c r="H23" s="42">
         <v>0.33</v>
       </c>
-      <c r="I23" s="43">
+      <c r="I23" s="42">
         <v>0.7</v>
       </c>
-      <c r="J23" s="43" t="s">
+      <c r="J23" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="K23" s="43" t="s">
+      <c r="K23" s="42" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="33">
-      <c r="A24" s="67"/>
-      <c r="B24" s="44" t="str">
+    <row r="24" spans="1:11" ht="27">
+      <c r="A24" s="64"/>
+      <c r="B24" s="43" t="str">
         <f>'Definition &amp; analysis design'!B8</f>
         <v>wltsmc</v>
       </c>
-      <c r="C24" s="45" t="str">
+      <c r="C24" s="44" t="str">
         <f>'Definition &amp; analysis design'!C8</f>
         <v>meters/meters
 [m/m]</v>
       </c>
-      <c r="D24" s="45" t="s">
+      <c r="D24" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="45" t="s">
+      <c r="E24" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="F24" s="45" t="s">
+      <c r="F24" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="G24" s="45" t="s">
+      <c r="G24" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="H24" s="45">
+      <c r="H24" s="44">
         <v>0</v>
       </c>
-      <c r="I24" s="45">
+      <c r="I24" s="44">
         <v>1</v>
       </c>
-      <c r="J24" s="45" t="s">
+      <c r="J24" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="K24" s="45" t="s">
+      <c r="K24" s="44" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="28" customFormat="1" ht="49.5">
-      <c r="A25" s="67"/>
-      <c r="B25" s="42" t="str">
+    <row r="25" spans="1:11" s="27" customFormat="1" ht="41.65">
+      <c r="A25" s="64"/>
+      <c r="B25" s="41" t="str">
         <f>'Definition &amp; analysis design'!B9</f>
         <v>field_capacity_atm_press_fraction (alpha_fc in the NOAA version CFE)</v>
       </c>
-      <c r="C25" s="43" t="str">
+      <c r="C25" s="42" t="str">
         <f>'Definition &amp; analysis design'!C9</f>
         <v>-</v>
       </c>
-      <c r="D25" s="43" t="s">
+      <c r="D25" s="42" t="s">
         <v>172</v>
       </c>
-      <c r="E25" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="F25" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="G25" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="H25" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="I25" s="43">
+      <c r="E25" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="I25" s="42">
         <f>-I24</f>
         <v>-1</v>
       </c>
-      <c r="J25" s="43" t="s">
+      <c r="J25" s="42" t="s">
         <v>172</v>
       </c>
-      <c r="K25" s="43" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="49.5">
-      <c r="A26" s="67"/>
-      <c r="B26" s="31" t="str">
+      <c r="K25" s="42" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="40.5">
+      <c r="A26" s="64"/>
+      <c r="B26" s="30" t="str">
         <f>'Definition &amp; analysis design'!B15</f>
         <v>lksatfac</v>
       </c>
-      <c r="C26" s="32" t="str">
+      <c r="C26" s="31" t="str">
         <f>'Definition &amp; analysis design'!C15</f>
         <v>-</v>
       </c>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32" t="str">
+      <c r="D26" s="31"/>
+      <c r="E26" s="31" t="str">
         <f>'Definition &amp; analysis design'!D15</f>
         <v>Multiplier applied to satdk</v>
       </c>
-      <c r="F26" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" s="32">
+      <c r="F26" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" s="31">
         <f>G27</f>
         <v>1000</v>
       </c>
-      <c r="H26" s="32">
+      <c r="H26" s="31">
         <f>H28</f>
         <v>10</v>
       </c>
-      <c r="I26" s="32">
+      <c r="I26" s="31">
         <f>I28</f>
         <v>10000</v>
       </c>
-      <c r="J26" s="31" t="s">
+      <c r="J26" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="K26" s="32"/>
-    </row>
-    <row r="27" spans="1:11" ht="33">
-      <c r="A27" s="67"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32" t="s">
+      <c r="K26" s="31"/>
+    </row>
+    <row r="27" spans="1:11" ht="27">
+      <c r="A27" s="64"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31" t="s">
         <v>168</v>
       </c>
-      <c r="G27" s="32">
+      <c r="G27" s="31">
         <v>1000</v>
       </c>
-      <c r="H27" s="32">
+      <c r="H27" s="31">
         <v>10</v>
       </c>
-      <c r="I27" s="32">
+      <c r="I27" s="31">
         <v>10000</v>
       </c>
-      <c r="J27" s="32" t="s">
+      <c r="J27" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="K27" s="32" t="s">
+      <c r="K27" s="31" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="33">
-      <c r="A28" s="67"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="G28" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="H28" s="32">
+    <row r="28" spans="1:11" ht="27">
+      <c r="A28" s="64"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="H28" s="31">
         <v>10</v>
       </c>
-      <c r="I28" s="32">
+      <c r="I28" s="31">
         <v>10000</v>
       </c>
-      <c r="J28" s="32" t="s">
+      <c r="J28" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="K28" s="32"/>
-    </row>
-    <row r="29" spans="1:11" s="28" customFormat="1" ht="66">
-      <c r="A29" s="67"/>
-      <c r="B29" s="23" t="str">
+      <c r="K28" s="31"/>
+    </row>
+    <row r="29" spans="1:11" s="27" customFormat="1" ht="54.4">
+      <c r="A29" s="64"/>
+      <c r="B29" s="22" t="str">
         <f>'Definition &amp; analysis design'!B16</f>
         <v>D</v>
       </c>
-      <c r="C29" s="24" t="str">
+      <c r="C29" s="23" t="str">
         <f>'Definition &amp; analysis design'!C16</f>
         <v>meters
 [m]</v>
       </c>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="F29" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G29" s="24">
+      <c r="D29" s="23"/>
+      <c r="E29" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29" s="23">
         <f>G30</f>
         <v>1</v>
       </c>
-      <c r="H29" s="24">
+      <c r="H29" s="23">
         <f>H31</f>
         <v>0.9</v>
       </c>
-      <c r="I29" s="24">
+      <c r="I29" s="23">
         <f>I31</f>
         <v>1.2</v>
       </c>
-      <c r="J29" s="23" t="s">
+      <c r="J29" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="K29" s="24"/>
-    </row>
-    <row r="30" spans="1:11" s="28" customFormat="1">
-      <c r="A30" s="67"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="F30" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G30" s="24">
+      <c r="K29" s="23"/>
+    </row>
+    <row r="30" spans="1:11" s="27" customFormat="1">
+      <c r="A30" s="64"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G30" s="23">
         <v>1</v>
       </c>
-      <c r="H30" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="I30" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="J30" s="24" t="s">
+      <c r="H30" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="I30" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="J30" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="K30" s="24" t="s">
+      <c r="K30" s="23" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="28" customFormat="1">
-      <c r="A31" s="67"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="F31" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G31" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="H31" s="24">
+    <row r="31" spans="1:11" s="27" customFormat="1">
+      <c r="A31" s="64"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="H31" s="23">
         <v>0.9</v>
       </c>
-      <c r="I31" s="24">
+      <c r="I31" s="23">
         <v>1.2</v>
       </c>
-      <c r="J31" s="24" t="s">
+      <c r="J31" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="K31" s="24" t="s">
+      <c r="K31" s="23" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="46" customFormat="1" ht="49.5">
-      <c r="A32" s="67"/>
-      <c r="B32" s="31" t="str">
+    <row r="32" spans="1:11" ht="40.5">
+      <c r="A32" s="64"/>
+      <c r="B32" s="30" t="str">
         <f>'Definition &amp; analysis design'!B17</f>
         <v>trigger_z_m_coeff (*added by me)</v>
       </c>
-      <c r="C32" s="32" t="str">
+      <c r="C32" s="31" t="str">
         <f>'Definition &amp; analysis design'!C17</f>
         <v>-</v>
       </c>
-      <c r="D32" s="32" t="s">
+      <c r="D32" s="31" t="s">
         <v>171</v>
       </c>
-      <c r="E32" s="32" t="s">
+      <c r="E32" s="31" t="s">
         <v>167</v>
       </c>
-      <c r="F32" s="32" t="s">
+      <c r="F32" s="31" t="s">
         <v>167</v>
       </c>
-      <c r="G32" s="32">
+      <c r="G32" s="31">
         <f>AVERAGE(H32:I32)</f>
         <v>0.625</v>
       </c>
-      <c r="H32" s="32">
+      <c r="H32" s="31">
         <f>H33</f>
         <v>0.25</v>
       </c>
-      <c r="I32" s="32">
+      <c r="I32" s="31">
         <f>I33</f>
         <v>1</v>
       </c>
-      <c r="J32" s="32" t="s">
+      <c r="J32" s="31" t="s">
         <v>188</v>
       </c>
-      <c r="K32" s="36"/>
-    </row>
-    <row r="33" spans="1:11" s="46" customFormat="1" ht="66">
-      <c r="A33" s="31"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="F33" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="G33" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="H33" s="32">
+      <c r="K32" s="35"/>
+    </row>
+    <row r="33" spans="1:11" ht="54">
+      <c r="A33" s="30"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="G33" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="H33" s="31">
         <f>0.3/1.2</f>
         <v>0.25</v>
       </c>
-      <c r="I33" s="47">
+      <c r="I33" s="45">
         <v>1</v>
       </c>
-      <c r="J33" s="32" t="s">
+      <c r="J33" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="K33" s="36"/>
+      <c r="K33" s="35"/>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="31"/>
-      <c r="B34" s="44"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45" t="s">
+      <c r="A34" s="30"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44" t="s">
         <v>167</v>
       </c>
-      <c r="F34" s="45" t="s">
+      <c r="F34" s="44" t="s">
         <v>167</v>
       </c>
-      <c r="G34" s="45" t="s">
+      <c r="G34" s="44" t="s">
         <v>167</v>
       </c>
-      <c r="H34" s="45" t="s">
+      <c r="H34" s="44" t="s">
         <v>167</v>
       </c>
-      <c r="I34" s="45" t="s">
+      <c r="I34" s="44" t="s">
         <v>167</v>
       </c>
-      <c r="J34" s="32" t="s">
+      <c r="J34" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="K34" s="36" t="s">
+      <c r="K34" s="35" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="28" customFormat="1" ht="82.5">
-      <c r="A35" s="67" t="s">
+    <row r="35" spans="1:11" s="27" customFormat="1" ht="67.5">
+      <c r="A35" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="B35" s="23" t="str">
+      <c r="B35" s="22" t="str">
         <f>'Definition &amp; analysis design'!B18</f>
         <v>max_gw_storage</v>
       </c>
-      <c r="C35" s="24" t="str">
+      <c r="C35" s="23" t="str">
         <f>'Definition &amp; analysis design'!C18</f>
         <v>meters
 [m]</v>
       </c>
-      <c r="D35" s="24" t="s">
+      <c r="D35" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="E35" s="24" t="s">
+      <c r="E35" s="23" t="s">
         <v>211</v>
       </c>
-      <c r="F35" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G35" s="24">
+      <c r="F35" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G35" s="23">
         <f>G37</f>
         <v>50</v>
       </c>
-      <c r="H35" s="24">
+      <c r="H35" s="23">
         <f>H38</f>
         <v>10</v>
       </c>
-      <c r="I35" s="24">
+      <c r="I35" s="23">
         <f>I38</f>
         <v>250</v>
       </c>
-      <c r="J35" s="48" t="s">
+      <c r="J35" s="46" t="s">
         <v>180</v>
       </c>
-      <c r="K35" s="24"/>
-    </row>
-    <row r="36" spans="1:11" s="28" customFormat="1" ht="82.5">
-      <c r="A36" s="67"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24" t="s">
+      <c r="K35" s="23"/>
+    </row>
+    <row r="36" spans="1:11" s="27" customFormat="1" ht="94.5">
+      <c r="A36" s="64"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="F36" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G36" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="H36" s="24">
+      <c r="F36" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G36" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="H36" s="23">
         <v>10</v>
       </c>
-      <c r="I36" s="24">
+      <c r="I36" s="23">
         <v>250</v>
       </c>
-      <c r="J36" s="24" t="s">
+      <c r="J36" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="K36" s="29"/>
-    </row>
-    <row r="37" spans="1:11" s="28" customFormat="1" ht="66">
-      <c r="A37" s="67"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24" t="s">
+      <c r="K36" s="28"/>
+    </row>
+    <row r="37" spans="1:11" s="27" customFormat="1" ht="81">
+      <c r="A37" s="64"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="F37" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G37" s="24">
+      <c r="F37" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G37" s="23">
         <v>50</v>
       </c>
-      <c r="H37" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="I37" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="J37" s="24" t="s">
+      <c r="H37" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="I37" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="J37" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="K37" s="29" t="s">
+      <c r="K37" s="28" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="28" customFormat="1" ht="82.5">
-      <c r="A38" s="67"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24" t="s">
+    <row r="38" spans="1:11" s="27" customFormat="1" ht="94.5">
+      <c r="A38" s="64"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23" t="s">
         <v>210</v>
       </c>
-      <c r="F38" s="24" t="s">
+      <c r="F38" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="G38" s="24">
+      <c r="G38" s="23">
         <v>25</v>
       </c>
-      <c r="H38" s="24">
+      <c r="H38" s="23">
         <v>10</v>
       </c>
-      <c r="I38" s="24">
+      <c r="I38" s="23">
         <v>250</v>
       </c>
-      <c r="J38" s="24" t="s">
+      <c r="J38" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="K38" s="29" t="s">
+      <c r="K38" s="28" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="28" customFormat="1" ht="82.5">
-      <c r="A39" s="67"/>
-      <c r="B39" s="23"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24" t="s">
+    <row r="39" spans="1:11" s="27" customFormat="1" ht="94.5">
+      <c r="A39" s="64"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="F39" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G39" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="H39" s="24">
+      <c r="F39" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G39" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="H39" s="23">
         <v>1</v>
       </c>
-      <c r="I39" s="24">
+      <c r="I39" s="23">
         <v>2.5</v>
       </c>
-      <c r="J39" s="24" t="s">
+      <c r="J39" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="K39" s="29"/>
-    </row>
-    <row r="40" spans="1:11" ht="115.5">
-      <c r="A40" s="67"/>
-      <c r="B40" s="31" t="str">
+      <c r="K39" s="28"/>
+    </row>
+    <row r="40" spans="1:11" ht="81">
+      <c r="A40" s="64"/>
+      <c r="B40" s="30" t="str">
         <f>'Definition &amp; analysis design'!B19</f>
         <v>Cgw</v>
       </c>
-      <c r="C40" s="32" t="str">
+      <c r="C40" s="31" t="str">
         <f>'Definition &amp; analysis design'!C19</f>
         <v>meters/hour
 [m/h]</v>
       </c>
-      <c r="D40" s="32" t="s">
+      <c r="D40" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E40" s="32" t="s">
+      <c r="E40" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="F40" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="G40" s="32">
+      <c r="F40" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="G40" s="31">
         <f>G42</f>
         <v>1</v>
       </c>
-      <c r="H40" s="49">
+      <c r="H40" s="47">
         <f>G40*REPLACE(H41, 1, 1, "")</f>
         <v>0.2</v>
       </c>
-      <c r="I40" s="49">
+      <c r="I40" s="47">
         <f>G40*REPLACE(I41, 1, 1, "")</f>
         <v>2</v>
       </c>
-      <c r="J40" s="50" t="s">
+      <c r="J40" s="48" t="s">
         <v>195</v>
       </c>
-      <c r="K40" s="32" t="s">
+      <c r="K40" s="31" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="67"/>
-      <c r="B41" s="31"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="H41" s="32" t="s">
+      <c r="A41" s="64"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="H41" s="31" t="s">
         <v>194</v>
       </c>
-      <c r="I41" s="32" t="s">
+      <c r="I41" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="J41" s="32" t="s">
+      <c r="J41" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="K41" s="32"/>
-    </row>
-    <row r="42" spans="1:11" ht="33">
-      <c r="A42" s="67"/>
-      <c r="B42" s="31"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="G42" s="32">
+      <c r="K41" s="31"/>
+    </row>
+    <row r="42" spans="1:11" ht="27">
+      <c r="A42" s="64"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="G42" s="31">
         <v>1</v>
       </c>
-      <c r="H42" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="I42" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="J42" s="32" t="s">
+      <c r="H42" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="I42" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="J42" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="K42" s="38" t="s">
+      <c r="K42" s="37" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="67"/>
-      <c r="B43" s="31"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="G43" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="H43" s="32">
+      <c r="A43" s="64"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="G43" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="H43" s="31">
         <v>0.03</v>
       </c>
-      <c r="I43" s="32">
+      <c r="I43" s="31">
         <v>0.3</v>
       </c>
-      <c r="J43" s="32" t="s">
+      <c r="J43" s="31" t="s">
         <v>193</v>
       </c>
-      <c r="K43" s="32"/>
-    </row>
-    <row r="44" spans="1:11" s="28" customFormat="1" ht="132">
-      <c r="A44" s="67"/>
-      <c r="B44" s="23" t="str">
+      <c r="K43" s="31"/>
+    </row>
+    <row r="44" spans="1:11" s="27" customFormat="1" ht="108">
+      <c r="A44" s="64"/>
+      <c r="B44" s="22" t="str">
         <f>'Definition &amp; analysis design'!B20</f>
         <v>expon</v>
       </c>
-      <c r="C44" s="24" t="str">
+      <c r="C44" s="23" t="str">
         <f>'Definition &amp; analysis design'!C20</f>
         <v>-</v>
       </c>
-      <c r="D44" s="24" t="s">
+      <c r="D44" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E44" s="24" t="s">
+      <c r="E44" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="F44" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G44" s="24">
+      <c r="F44" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G44" s="23">
         <f>G45</f>
         <v>1.75</v>
       </c>
-      <c r="H44" s="24">
+      <c r="H44" s="23">
         <f t="shared" ref="H44:I44" si="0">H45</f>
         <v>1</v>
       </c>
-      <c r="I44" s="24">
+      <c r="I44" s="23">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="J44" s="24" t="s">
+      <c r="J44" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="K44" s="24"/>
-    </row>
-    <row r="45" spans="1:11" s="28" customFormat="1" ht="132">
-      <c r="A45" s="31"/>
-      <c r="B45" s="23"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24" t="s">
+      <c r="K44" s="23"/>
+    </row>
+    <row r="45" spans="1:11" s="27" customFormat="1" ht="108">
+      <c r="A45" s="30"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="F45" s="24" t="s">
+      <c r="F45" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="G45" s="24">
+      <c r="G45" s="23">
         <v>1.75</v>
       </c>
-      <c r="H45" s="24">
+      <c r="H45" s="23">
         <v>1</v>
       </c>
-      <c r="I45" s="24">
+      <c r="I45" s="23">
         <v>8</v>
       </c>
-      <c r="J45" s="24" t="s">
+      <c r="J45" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="K45" s="29" t="s">
+      <c r="K45" s="28" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="28" customFormat="1" ht="33">
-      <c r="A46" s="31"/>
-      <c r="B46" s="23"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24">
+    <row r="46" spans="1:11" s="27" customFormat="1" ht="27">
+      <c r="A46" s="30"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23">
         <v>3</v>
       </c>
-      <c r="H46" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="I46" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="J46" s="24" t="s">
+      <c r="H46" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="I46" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="J46" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="K46" s="29" t="s">
+      <c r="K46" s="28" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="63" customHeight="1">
-      <c r="A47" s="31" t="s">
+    <row r="47" spans="1:11" s="27" customFormat="1" ht="40.5">
+      <c r="A47" s="30"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="H47" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="I47" s="23">
+        <v>1</v>
+      </c>
+      <c r="J47" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="K47" s="28"/>
+    </row>
+    <row r="48" spans="1:11" ht="63" customHeight="1">
+      <c r="A48" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="B47" s="31" t="str">
+      <c r="B48" s="30" t="str">
         <f>'Definition &amp; analysis design'!B21</f>
         <v>REFKDT</v>
       </c>
-      <c r="C47" s="32" t="str">
+      <c r="C48" s="31" t="str">
         <f>'Definition &amp; analysis design'!C21</f>
         <v>s/m</v>
       </c>
-      <c r="D47" s="32" t="s">
+      <c r="D48" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="E47" s="32"/>
-      <c r="F47" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="G47" s="32">
-        <f>G49</f>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="G48" s="31">
+        <f>G50</f>
         <v>3</v>
       </c>
-      <c r="H47" s="32">
-        <f>H48</f>
+      <c r="H48" s="31">
+        <f>H49</f>
         <v>0.1</v>
       </c>
-      <c r="I47" s="32">
-        <f>I48</f>
+      <c r="I48" s="31">
+        <f>I49</f>
         <v>4</v>
       </c>
-      <c r="J47" s="50" t="s">
+      <c r="J48" s="48" t="s">
         <v>200</v>
       </c>
-      <c r="K47" s="32"/>
-    </row>
-    <row r="48" spans="1:11" ht="63.75" customHeight="1">
-      <c r="A48" s="31"/>
-      <c r="B48" s="31"/>
-      <c r="C48" s="32"/>
-      <c r="D48" s="32"/>
-      <c r="E48" s="32" t="s">
+      <c r="K48" s="31"/>
+    </row>
+    <row r="49" spans="1:19" ht="63.75" customHeight="1">
+      <c r="A49" s="30"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="31" t="s">
         <v>202</v>
       </c>
-      <c r="F48" s="32" t="s">
+      <c r="F49" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="G48" s="32">
+      <c r="G49" s="31">
         <v>0.6</v>
       </c>
-      <c r="H48" s="32">
+      <c r="H49" s="31">
         <v>0.1</v>
       </c>
-      <c r="I48" s="32">
+      <c r="I49" s="31">
         <v>4</v>
       </c>
-      <c r="J48" s="32" t="s">
+      <c r="J49" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="K48" s="53" t="s">
+      <c r="K49" s="51" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="49" spans="1:19" ht="115.5">
-      <c r="A49" s="31"/>
-      <c r="B49" s="31"/>
-      <c r="C49" s="32"/>
-      <c r="D49" s="32"/>
-      <c r="E49" s="32"/>
-      <c r="F49" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="G49" s="32">
+    <row r="50" spans="1:19" ht="94.5">
+      <c r="A50" s="30"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="G50" s="31">
         <v>3</v>
       </c>
-      <c r="H49" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="I49" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="J49" s="32" t="s">
+      <c r="H50" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="I50" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="J50" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="K49" s="32"/>
-    </row>
-    <row r="50" spans="1:19" s="28" customFormat="1" ht="409.5">
-      <c r="A50" s="23" t="s">
+      <c r="K50" s="31"/>
+    </row>
+    <row r="51" spans="1:19" s="27" customFormat="1" ht="391.5">
+      <c r="A51" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="B50" s="23" t="str">
+      <c r="B51" s="22" t="str">
         <f>'Definition &amp; analysis design'!B23</f>
         <v>K_nash</v>
       </c>
-      <c r="C50" s="24">
+      <c r="C51" s="23">
         <f>'Definition &amp; analysis design'!C23</f>
         <v>0</v>
       </c>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24" t="s">
+      <c r="D51" s="23"/>
+      <c r="E51" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="F50" s="24" t="s">
+      <c r="F51" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="G50" s="24">
+      <c r="G51" s="23">
         <v>0.03</v>
       </c>
-      <c r="H50" s="24">
+      <c r="H51" s="23">
         <v>0</v>
       </c>
-      <c r="I50" s="24">
+      <c r="I51" s="23">
         <v>1</v>
       </c>
-      <c r="J50" s="24" t="s">
+      <c r="J51" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="K50" s="24"/>
-    </row>
-    <row r="51" spans="1:19" s="51" customFormat="1" ht="16.5">
-      <c r="A51" s="67" t="s">
+      <c r="K51" s="23"/>
+    </row>
+    <row r="52" spans="1:19" s="49" customFormat="1" ht="13.9">
+      <c r="A52" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="B51" s="31" t="s">
+      <c r="B52" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="C51" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="D51" s="32" t="s">
+      <c r="C52" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="E51" s="39"/>
-      <c r="F51" s="32"/>
-      <c r="G51" s="32"/>
-      <c r="H51" s="32"/>
-      <c r="I51" s="32"/>
-      <c r="J51" s="32"/>
-      <c r="K51" s="32"/>
-      <c r="L51" s="32"/>
-      <c r="M51" s="32"/>
-      <c r="N51" s="32"/>
-      <c r="O51" s="32"/>
-      <c r="P51" s="32"/>
-      <c r="Q51" s="32"/>
-      <c r="R51" s="32"/>
-      <c r="S51" s="32"/>
-    </row>
-    <row r="52" spans="1:19" s="51" customFormat="1" ht="16.5">
-      <c r="A52" s="67"/>
-      <c r="B52" s="31" t="s">
+      <c r="E52" s="38"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="31"/>
+      <c r="J52" s="31"/>
+      <c r="K52" s="31"/>
+      <c r="L52" s="31"/>
+      <c r="M52" s="31"/>
+      <c r="N52" s="31"/>
+      <c r="O52" s="31"/>
+      <c r="P52" s="31"/>
+      <c r="Q52" s="31"/>
+      <c r="R52" s="31"/>
+      <c r="S52" s="31"/>
+    </row>
+    <row r="53" spans="1:19" s="49" customFormat="1" ht="13.9">
+      <c r="A53" s="64"/>
+      <c r="B53" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="C52" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="D52" s="32" t="s">
+      <c r="C53" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D53" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="E52" s="39"/>
-      <c r="F52" s="32"/>
-      <c r="G52" s="32"/>
-      <c r="H52" s="32"/>
-      <c r="I52" s="32"/>
-      <c r="J52" s="32"/>
-      <c r="K52" s="32"/>
-      <c r="L52" s="32"/>
-      <c r="M52" s="32"/>
-      <c r="N52" s="32"/>
-      <c r="O52" s="32"/>
-      <c r="P52" s="32"/>
-      <c r="Q52" s="32"/>
-      <c r="R52" s="32"/>
-      <c r="S52" s="32"/>
-    </row>
-    <row r="53" spans="1:19" s="51" customFormat="1" ht="16.5">
-      <c r="A53" s="67"/>
-      <c r="B53" s="31" t="s">
+      <c r="E53" s="38"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="31"/>
+      <c r="H53" s="31"/>
+      <c r="I53" s="31"/>
+      <c r="J53" s="31"/>
+      <c r="K53" s="31"/>
+      <c r="L53" s="31"/>
+      <c r="M53" s="31"/>
+      <c r="N53" s="31"/>
+      <c r="O53" s="31"/>
+      <c r="P53" s="31"/>
+      <c r="Q53" s="31"/>
+      <c r="R53" s="31"/>
+      <c r="S53" s="31"/>
+    </row>
+    <row r="54" spans="1:19" s="49" customFormat="1" ht="13.9">
+      <c r="A54" s="64"/>
+      <c r="B54" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="C53" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="D53" s="32" t="s">
+      <c r="C54" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D54" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="E53" s="39"/>
-      <c r="F53" s="32"/>
-      <c r="G53" s="32"/>
-      <c r="H53" s="32"/>
-      <c r="I53" s="32"/>
-      <c r="J53" s="32"/>
-      <c r="K53" s="32"/>
-      <c r="L53" s="32"/>
-      <c r="M53" s="32"/>
-      <c r="N53" s="32"/>
-      <c r="O53" s="32"/>
-      <c r="P53" s="32"/>
-      <c r="Q53" s="32"/>
-      <c r="R53" s="32"/>
-      <c r="S53" s="32"/>
-    </row>
-    <row r="54" spans="1:19" s="51" customFormat="1" ht="16.5">
-      <c r="A54" s="67"/>
-      <c r="B54" s="31" t="s">
+      <c r="E54" s="38"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="31"/>
+      <c r="H54" s="31"/>
+      <c r="I54" s="31"/>
+      <c r="J54" s="31"/>
+      <c r="K54" s="31"/>
+      <c r="L54" s="31"/>
+      <c r="M54" s="31"/>
+      <c r="N54" s="31"/>
+      <c r="O54" s="31"/>
+      <c r="P54" s="31"/>
+      <c r="Q54" s="31"/>
+      <c r="R54" s="31"/>
+      <c r="S54" s="31"/>
+    </row>
+    <row r="55" spans="1:19" s="49" customFormat="1" ht="27">
+      <c r="A55" s="64"/>
+      <c r="B55" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="C54" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="D54" s="32" t="s">
+      <c r="C55" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D55" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="E54" s="39"/>
-      <c r="F54" s="32"/>
-      <c r="G54" s="32"/>
-      <c r="H54" s="32"/>
-      <c r="I54" s="32"/>
-      <c r="J54" s="32"/>
-      <c r="K54" s="32"/>
-      <c r="L54" s="32"/>
-      <c r="M54" s="32"/>
-      <c r="N54" s="32"/>
-      <c r="O54" s="32"/>
-      <c r="P54" s="32"/>
-      <c r="Q54" s="32"/>
-      <c r="R54" s="32"/>
-      <c r="S54" s="32"/>
-    </row>
-    <row r="55" spans="1:19" s="51" customFormat="1" ht="49.5">
-      <c r="A55" s="67"/>
-      <c r="B55" s="31" t="s">
+      <c r="E55" s="38"/>
+      <c r="F55" s="31"/>
+      <c r="G55" s="31"/>
+      <c r="H55" s="31"/>
+      <c r="I55" s="31"/>
+      <c r="J55" s="31"/>
+      <c r="K55" s="31"/>
+      <c r="L55" s="31"/>
+      <c r="M55" s="31"/>
+      <c r="N55" s="31"/>
+      <c r="O55" s="31"/>
+      <c r="P55" s="31"/>
+      <c r="Q55" s="31"/>
+      <c r="R55" s="31"/>
+      <c r="S55" s="31"/>
+    </row>
+    <row r="56" spans="1:19" s="49" customFormat="1" ht="40.5">
+      <c r="A56" s="64"/>
+      <c r="B56" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C55" s="32" t="s">
+      <c r="C56" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="D55" s="32" t="s">
+      <c r="D56" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E55" s="39"/>
-      <c r="F55" s="32"/>
-      <c r="G55" s="32"/>
-      <c r="H55" s="32"/>
-      <c r="I55" s="32"/>
-      <c r="J55" s="32"/>
-      <c r="K55" s="32"/>
-      <c r="L55" s="32"/>
-      <c r="M55" s="32"/>
-      <c r="N55" s="32"/>
-      <c r="O55" s="32"/>
-      <c r="P55" s="32"/>
-      <c r="Q55" s="32"/>
-      <c r="R55" s="32"/>
-      <c r="S55" s="32"/>
-    </row>
-    <row r="56" spans="1:19" s="51" customFormat="1" ht="33">
-      <c r="A56" s="67"/>
-      <c r="B56" s="31" t="s">
+      <c r="E56" s="38"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="31"/>
+      <c r="H56" s="31"/>
+      <c r="I56" s="31"/>
+      <c r="J56" s="31"/>
+      <c r="K56" s="31"/>
+      <c r="L56" s="31"/>
+      <c r="M56" s="31"/>
+      <c r="N56" s="31"/>
+      <c r="O56" s="31"/>
+      <c r="P56" s="31"/>
+      <c r="Q56" s="31"/>
+      <c r="R56" s="31"/>
+      <c r="S56" s="31"/>
+    </row>
+    <row r="57" spans="1:19" s="49" customFormat="1" ht="27">
+      <c r="A57" s="64"/>
+      <c r="B57" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="C56" s="32" t="s">
+      <c r="C57" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="D56" s="32" t="s">
+      <c r="D57" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="E56" s="39"/>
-      <c r="F56" s="32"/>
-      <c r="G56" s="32"/>
-      <c r="H56" s="32"/>
-      <c r="I56" s="32"/>
-      <c r="J56" s="32"/>
-      <c r="K56" s="32"/>
-      <c r="L56" s="32"/>
-      <c r="M56" s="32"/>
-      <c r="N56" s="32"/>
-      <c r="O56" s="32"/>
-      <c r="P56" s="32"/>
-      <c r="Q56" s="32"/>
-      <c r="R56" s="32"/>
-      <c r="S56" s="32"/>
-    </row>
-    <row r="57" spans="1:19" s="51" customFormat="1" ht="33">
-      <c r="A57" s="67"/>
-      <c r="B57" s="31" t="s">
+      <c r="E57" s="38"/>
+      <c r="F57" s="31"/>
+      <c r="G57" s="31"/>
+      <c r="H57" s="31"/>
+      <c r="I57" s="31"/>
+      <c r="J57" s="31"/>
+      <c r="K57" s="31"/>
+      <c r="L57" s="31"/>
+      <c r="M57" s="31"/>
+      <c r="N57" s="31"/>
+      <c r="O57" s="31"/>
+      <c r="P57" s="31"/>
+      <c r="Q57" s="31"/>
+      <c r="R57" s="31"/>
+      <c r="S57" s="31"/>
+    </row>
+    <row r="58" spans="1:19" s="49" customFormat="1" ht="27">
+      <c r="A58" s="64"/>
+      <c r="B58" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C57" s="32" t="s">
+      <c r="C58" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="D57" s="32" t="s">
+      <c r="D58" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="E57" s="39"/>
-      <c r="F57" s="32"/>
-      <c r="G57" s="32"/>
-      <c r="H57" s="32"/>
-      <c r="I57" s="32"/>
-      <c r="J57" s="32"/>
-      <c r="K57" s="32"/>
-      <c r="L57" s="32"/>
-      <c r="M57" s="32"/>
-      <c r="N57" s="32"/>
-      <c r="O57" s="32"/>
-      <c r="P57" s="32"/>
-      <c r="Q57" s="32"/>
-      <c r="R57" s="32"/>
-      <c r="S57" s="32"/>
-    </row>
-    <row r="58" spans="1:19" s="51" customFormat="1" ht="33">
-      <c r="A58" s="67"/>
-      <c r="B58" s="31" t="s">
+      <c r="E58" s="38"/>
+      <c r="F58" s="31"/>
+      <c r="G58" s="31"/>
+      <c r="H58" s="31"/>
+      <c r="I58" s="31"/>
+      <c r="J58" s="31"/>
+      <c r="K58" s="31"/>
+      <c r="L58" s="31"/>
+      <c r="M58" s="31"/>
+      <c r="N58" s="31"/>
+      <c r="O58" s="31"/>
+      <c r="P58" s="31"/>
+      <c r="Q58" s="31"/>
+      <c r="R58" s="31"/>
+      <c r="S58" s="31"/>
+    </row>
+    <row r="59" spans="1:19" s="49" customFormat="1" ht="27">
+      <c r="A59" s="64"/>
+      <c r="B59" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C58" s="32" t="s">
+      <c r="C59" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="D58" s="32" t="s">
+      <c r="D59" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="E58" s="39"/>
-      <c r="F58" s="32"/>
-      <c r="G58" s="32"/>
-      <c r="H58" s="32"/>
-      <c r="I58" s="32"/>
-      <c r="J58" s="32"/>
-      <c r="K58" s="32"/>
-      <c r="L58" s="32"/>
-      <c r="M58" s="32"/>
-      <c r="N58" s="32"/>
-      <c r="O58" s="32"/>
-      <c r="P58" s="32"/>
-      <c r="Q58" s="32"/>
-      <c r="R58" s="32"/>
-      <c r="S58" s="32"/>
-    </row>
-    <row r="59" spans="1:19" s="51" customFormat="1" ht="16.5">
-      <c r="A59" s="67"/>
-      <c r="B59" s="31" t="s">
+      <c r="E59" s="38"/>
+      <c r="F59" s="31"/>
+      <c r="G59" s="31"/>
+      <c r="H59" s="31"/>
+      <c r="I59" s="31"/>
+      <c r="J59" s="31"/>
+      <c r="K59" s="31"/>
+      <c r="L59" s="31"/>
+      <c r="M59" s="31"/>
+      <c r="N59" s="31"/>
+      <c r="O59" s="31"/>
+      <c r="P59" s="31"/>
+      <c r="Q59" s="31"/>
+      <c r="R59" s="31"/>
+      <c r="S59" s="31"/>
+    </row>
+    <row r="60" spans="1:19" s="49" customFormat="1" ht="13.9">
+      <c r="A60" s="64"/>
+      <c r="B60" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="C59" s="32" t="s">
+      <c r="C60" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="D59" s="32"/>
-      <c r="E59" s="39"/>
-      <c r="F59" s="32"/>
-      <c r="G59" s="32"/>
-      <c r="H59" s="32"/>
-      <c r="I59" s="32"/>
-      <c r="J59" s="32"/>
-      <c r="K59" s="32"/>
-      <c r="L59" s="32"/>
-      <c r="M59" s="32"/>
-      <c r="N59" s="32"/>
-      <c r="O59" s="32"/>
-      <c r="P59" s="32"/>
-      <c r="Q59" s="32"/>
-      <c r="R59" s="32"/>
-      <c r="S59" s="32"/>
-    </row>
-    <row r="60" spans="1:19" s="51" customFormat="1" ht="33">
-      <c r="A60" s="67"/>
-      <c r="B60" s="31" t="s">
+      <c r="D60" s="31"/>
+      <c r="E60" s="38"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="31"/>
+      <c r="I60" s="31"/>
+      <c r="J60" s="31"/>
+      <c r="K60" s="31"/>
+      <c r="L60" s="31"/>
+      <c r="M60" s="31"/>
+      <c r="N60" s="31"/>
+      <c r="O60" s="31"/>
+      <c r="P60" s="31"/>
+      <c r="Q60" s="31"/>
+      <c r="R60" s="31"/>
+      <c r="S60" s="31"/>
+    </row>
+    <row r="61" spans="1:19" s="49" customFormat="1" ht="27">
+      <c r="A61" s="64"/>
+      <c r="B61" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C60" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="D60" s="32" t="s">
+      <c r="C61" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D61" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="E60" s="39"/>
-      <c r="F60" s="32"/>
-      <c r="G60" s="32"/>
-      <c r="H60" s="32"/>
-      <c r="I60" s="32"/>
-      <c r="J60" s="32"/>
-      <c r="K60" s="32"/>
-      <c r="L60" s="32"/>
-      <c r="M60" s="32"/>
-      <c r="N60" s="32"/>
-      <c r="O60" s="32"/>
-      <c r="P60" s="32"/>
-      <c r="Q60" s="32"/>
-      <c r="R60" s="32"/>
-      <c r="S60" s="32"/>
+      <c r="E61" s="38"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="31"/>
+      <c r="I61" s="31"/>
+      <c r="J61" s="31"/>
+      <c r="K61" s="31"/>
+      <c r="L61" s="31"/>
+      <c r="M61" s="31"/>
+      <c r="N61" s="31"/>
+      <c r="O61" s="31"/>
+      <c r="P61" s="31"/>
+      <c r="Q61" s="31"/>
+      <c r="R61" s="31"/>
+      <c r="S61" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A51:A60"/>
+    <mergeCell ref="A52:A61"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:K1"/>
@@ -4768,7 +4787,7 @@
     <hyperlink ref="K45" r:id="rId8" xr:uid="{6ED7FD56-AFAD-4B7A-9711-93BC81BE93AF}"/>
     <hyperlink ref="K46" r:id="rId9" xr:uid="{4F66CACD-2D12-4BC9-94D3-07A139A5A4B7}"/>
     <hyperlink ref="K42" r:id="rId10" xr:uid="{BD3F1ABE-946D-415B-9A24-034870E705E3}"/>
-    <hyperlink ref="K48" r:id="rId11" xr:uid="{AB94ECAD-2533-43AA-AF59-1FC37EA768C8}"/>
+    <hyperlink ref="K49" r:id="rId11" xr:uid="{AB94ECAD-2533-43AA-AF59-1FC37EA768C8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId12"/>

--- a/parameter_study/parameter_v2.xlsx
+++ b/parameter_study/parameter_v2.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\Ryoko and Hilary\SMSigxModel\analysis\parameter_study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6865AE92-2425-4F9F-AD27-7073FCDEC39F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05BF808-CA44-4109-B5E7-79FEF16C83E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37" yWindow="413" windowWidth="16995" windowHeight="10905" activeTab="1" xr2:uid="{C2B8906E-1C3B-4D84-9FF7-ACBD70084FC6}"/>
+    <workbookView xWindow="-98" yWindow="353" windowWidth="17115" windowHeight="11024" firstSheet="2" activeTab="2" xr2:uid="{C2B8906E-1C3B-4D84-9FF7-ACBD70084FC6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Definition &amp; analysis design" sheetId="1" r:id="rId1"/>
-    <sheet name="Lit review on WRF-Hydro" sheetId="2" r:id="rId2"/>
+    <sheet name="Final descision (MH)" sheetId="1" r:id="rId1"/>
+    <sheet name="Lit review (WRF-Hydro &amp; MH)" sheetId="2" r:id="rId2"/>
+    <sheet name="Final descision (LW)" sheetId="5" r:id="rId3"/>
+    <sheet name="Lit review (LW)" sheetId="3" r:id="rId4"/>
+    <sheet name="LW paper lists" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -106,8 +109,80 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={E1629A49-5AB2-4561-A4D2-FD2B31327D31}</author>
+    <author>tc={D7264951-5F30-45A1-9006-437FBBF22A6A}</author>
+    <author>tc={F770EF0D-7F3D-4370-9C49-CF95E835FB5C}</author>
+  </authors>
+  <commentList>
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{E1629A49-5AB2-4561-A4D2-FD2B31327D31}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    calibrated parameters in WRF-hydro, but is insensitive in CFE</t>
+      </text>
+    </comment>
+    <comment ref="B9" authorId="1" shapeId="0" xr:uid="{D7264951-5F30-45A1-9006-437FBBF22A6A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Very sensitive in CFE, but can be estimated from the soil type</t>
+      </text>
+    </comment>
+    <comment ref="B21" authorId="2" shapeId="0" xr:uid="{F770EF0D-7F3D-4370-9C49-CF95E835FB5C}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Very sensitive in WRF-hydro, but insensitive in CFE</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={945AB2B4-3411-492F-A39B-C599C232ED07}</author>
+    <author>tc={A85BD2E7-0816-46C3-B147-D92188CE066B}</author>
+    <author>tc={EC728A68-B7BA-4FD5-BB7A-5C7952F94C87}</author>
+  </authors>
+  <commentList>
+    <comment ref="B19" authorId="0" shapeId="0" xr:uid="{945AB2B4-3411-492F-A39B-C599C232ED07}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    calibrated parameters in WRF-hydro, but is insensitive in CFE</t>
+      </text>
+    </comment>
+    <comment ref="E19" authorId="1" shapeId="0" xr:uid="{A85BD2E7-0816-46C3-B147-D92188CE066B}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Probably not necessarily represent the actual slope degree</t>
+      </text>
+    </comment>
+    <comment ref="B51" authorId="2" shapeId="0" xr:uid="{EC728A68-B7BA-4FD5-BB7A-5C7952F94C87}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Very sensitive in WRF-hydro, but insensitive in CFE</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="317">
   <si>
     <t>init</t>
     <phoneticPr fontId="1"/>
@@ -397,10 +472,6 @@
   </si>
   <si>
     <t xml:space="preserve">In the Ogden's manual. Use CFE Github default value. </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Sensitivity analysis (Sobol and Morris)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -709,10 +780,6 @@
   </si>
   <si>
     <t>lksatfa determines K_lf (See equation 10 in the Ogden's document)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Calibration paramter bounds based on definition</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -924,10 +991,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>[0.1, 0.2, 0.4, 0.2, 0.1]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Approximate as triangle shape with the area = 1, because calculated GIUH based on the DEM was similar to triangle shape https://www.notion.so/raraki/GIUH-4ac4d00d7e8d4e0b9fd84caa1c0a37c1</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -993,6 +1056,335 @@
   </si>
   <si>
     <t>Manual calibration by myself on Mahurangi watershed</t>
+  </si>
+  <si>
+    <t>Calibration paramter bounds based on definition/physics</t>
+  </si>
+  <si>
+    <t>Sensitivity analysis (Sobol and Morris), Mahurangi</t>
+  </si>
+  <si>
+    <t>COPY FROM THE SHEET (Lit review, WRF-Hydro &amp; MH)</t>
+  </si>
+  <si>
+    <t>LW INPUT</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>km2</t>
+  </si>
+  <si>
+    <t>(Roselo et al., 2011)</t>
+  </si>
+  <si>
+    <t>Fine sand to silty loam</t>
+  </si>
+  <si>
+    <t>The influence of snow processes and frozen soil hydrology is negligible.</t>
+  </si>
+  <si>
+    <t>Soil type</t>
+  </si>
+  <si>
+    <t>temperature</t>
+  </si>
+  <si>
+    <t>[Reference] Parameters/information in other models</t>
+  </si>
+  <si>
+    <t>Condon and Maxwell (2013)</t>
+  </si>
+  <si>
+    <t>Cmax (max water storage capacity)</t>
+  </si>
+  <si>
+    <t>bexp (decapy component of storage capacity)</t>
+  </si>
+  <si>
+    <t>alpha (fraction of water goes to quickflow vs. slowflow)</t>
+  </si>
+  <si>
+    <t>Formetta et al. (2011) - Hymod model</t>
+  </si>
+  <si>
+    <t>Rs (saturation capacity to generate surface runoff)</t>
+  </si>
+  <si>
+    <t>Rq (routing capacity?)</t>
+  </si>
+  <si>
+    <t>Moriasi et al., (2020)</t>
+  </si>
+  <si>
+    <t>Moriasi et al., (2020), above the stream gauge</t>
+  </si>
+  <si>
+    <t>Silt loam to loam (B)</t>
+  </si>
+  <si>
+    <t>Ksat</t>
+  </si>
+  <si>
+    <t>Ksat at 5cm depth (cm/h)</t>
+  </si>
+  <si>
+    <t>Ksat at 30 cm depth (cm/h)</t>
+  </si>
+  <si>
+    <t>Ksat at 60 cm depth (cm/h)</t>
+  </si>
+  <si>
+    <t>0 to 44</t>
+  </si>
+  <si>
+    <t>0 to 30</t>
+  </si>
+  <si>
+    <t>o to 35</t>
+  </si>
+  <si>
+    <t>cm/h</t>
+  </si>
+  <si>
+    <t>Mattikalli et al., 1998, Figure 10</t>
+  </si>
+  <si>
+    <t>mean channel slope</t>
+  </si>
+  <si>
+    <t>m/km</t>
+  </si>
+  <si>
+    <t>Liew and Garbrecht 2003</t>
+  </si>
+  <si>
+    <t>29% silt loam</t>
+  </si>
+  <si>
+    <t>17% loam</t>
+  </si>
+  <si>
+    <t>41% fine sandy loam</t>
+  </si>
+  <si>
+    <t>13% sandy loam</t>
+  </si>
+  <si>
+    <t>Infiltration rate</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>0.15 to 2.7</t>
+  </si>
+  <si>
+    <t>Van Liew et al., 2003</t>
+  </si>
+  <si>
+    <t>Groundwater recession rate</t>
+  </si>
+  <si>
+    <t>0.75 to 0.98</t>
+  </si>
+  <si>
+    <t>Fraction of groundwater inflow lost to deep aquifer</t>
+  </si>
+  <si>
+    <t>0.221 to 0.78</t>
+  </si>
+  <si>
+    <t>Mean hillslope slope</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Picourlat et al., 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 x 10^(-5) to 1 x 10^(-6) </t>
+  </si>
+  <si>
+    <t>m/s</t>
+  </si>
+  <si>
+    <t>5 x 10^(-6)</t>
+  </si>
+  <si>
+    <t>Specific storage</t>
+  </si>
+  <si>
+    <t>2.3 x 10^(-4)</t>
+  </si>
+  <si>
+    <t>1/m</t>
+  </si>
+  <si>
+    <t>Residual saturation</t>
+  </si>
+  <si>
+    <t>Wilting point</t>
+  </si>
+  <si>
+    <t>Field capacity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recommended initial paramer for sandy loam in Noah-MP ppt. </t>
+  </si>
+  <si>
+    <t>Recommended initial paramer for sandy loam in Noah-MP ppt</t>
+  </si>
+  <si>
+    <t>Picourlat et al., 2022 (LW paper)</t>
+  </si>
+  <si>
+    <t>Final descision. Initial value from Noah-MP for sandy loam, range from Mendoza et al., 2015</t>
+  </si>
+  <si>
+    <t>Final descision. Initial value from LW paper, multiplier from NCAR ppt</t>
+  </si>
+  <si>
+    <t>init</t>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>x0.4</t>
+  </si>
+  <si>
+    <t>x1.9</t>
+  </si>
+  <si>
+    <t>Final descision in standardized form</t>
+  </si>
+  <si>
+    <t>Rachel's experiment</t>
+  </si>
+  <si>
+    <t>Multipliers obtained from b exponent values in the range 2–15 [Cosby et al., 1984].</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1tzSDGXckkEL5RTgzJ04tamTYYpmCVngR&amp;authuser=raraki8159%40sdsu.edu&amp;usp=drive_fs</t>
+  </si>
+  <si>
+    <t>Init</t>
+  </si>
+  <si>
+    <t>Remote-sensing esimated values</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Table and supplementary PDF </t>
+  </si>
+  <si>
+    <t>Mattikalli et al., 1998, Figure 10 (LW paper)</t>
+  </si>
+  <si>
+    <t>Hillslope mean slope</t>
+  </si>
+  <si>
+    <t>Channel mean slope</t>
+  </si>
+  <si>
+    <t>Final descision. Initial value from LW paper, bounds from NCAR ppt</t>
+  </si>
+  <si>
+    <t>Multipliers obtained from saturated matric potential ranging from 0.02 to 0.78 [Cosby et al., 1984].</t>
+  </si>
+  <si>
+    <t>Surface porosity</t>
+  </si>
+  <si>
+    <t>Surface porosity from  Picourlat et al., 2022</t>
+  </si>
+  <si>
+    <t>Wilting point from Picourlat et al., 2022</t>
+  </si>
+  <si>
+    <t>Field capacity from Picourlat et al., 2022</t>
+  </si>
+  <si>
+    <t>Recommended in Ogden's document</t>
+  </si>
+  <si>
+    <t>The model consists of 75,000 cells (45  32  50) with 1 km lateral resolution and 2 m vertical resolution modeled using a Par- Flow’s terrain following grid formulation [58].</t>
+  </si>
+  <si>
+    <t>Soil thickness</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Final descision. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>Based on the LW paper</t>
+    </r>
+  </si>
+  <si>
+    <t>A flat limit is set at the bottom boundary of the model, resulting in a subsur - face  domain  whose  depth  ranges  from  60  to  214  m,  as  Kollet  and  Maxwell  (2008)  did  for  their  LWW  model   built with ParFlow.</t>
+  </si>
+  <si>
+    <t>At the beginning of the spin-up process, the  water table is set to 2 m under the surface.</t>
+  </si>
+  <si>
+    <t>Final descision (Need to check units)</t>
+  </si>
+  <si>
+    <t>Abbaszadeh et al, 2020</t>
+  </si>
+  <si>
+    <t>Sampson and Gochis 2018</t>
+  </si>
+  <si>
+    <t>https://paperpile.com/app/p/9a8f2abe-c4ac-0451-b53c-b80a7df0deac</t>
+  </si>
+  <si>
+    <t>Temporaly descision. Initial parameter based on Sampson and Gochis, bound is from Rachel's experiment</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>Verri et al. 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final descision. NCAR-WRF hydro ppt. </t>
+  </si>
+  <si>
+    <t>Approximate as skewed triangle shape with the area = 1, based on the calculated GIUH based on the DEM https://www.notion.so/raraki/GIUH-4ac4d00d7e8d4e0b9fd84caa1c0a37c1</t>
+  </si>
+  <si>
+    <t>[0.133, 0.267, 0.4, 0.267, 0.133]</t>
+  </si>
+  <si>
+    <t>See the "Litreview"</t>
+  </si>
+  <si>
+    <t>Calculated using streamflow shapefile  https://www.notion.so/raraki/Drainage-density-fb8efbeb5d064e91845399729dc44fed</t>
+  </si>
+  <si>
+    <t>Definition from Ogden's document about CFE. Initial value for sandy loam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final descision in standardized form. Mendoza et al 2015 and Noah-MP ppt for bounds (picked larger bounds), init param for sandy loam in Noah-MP ppt. </t>
+  </si>
+  <si>
+    <t>[0.1, 0.4, 0.2, 0.2, 0.1]</t>
+  </si>
+  <si>
+    <t>The observed average soil moisture content in Mahurangi watershed is around 0.148</t>
   </si>
 </sst>
 </file>
@@ -1003,7 +1395,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1116,8 +1508,28 @@
       <name val="Arial Unicode MS"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="6"/>
+      <name val="Arial Unicode MS"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1142,8 +1554,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1255,12 +1685,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1410,6 +1877,61 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="11" fontId="7" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="11" fontId="7" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1444,6 +1966,27 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1759,15 +2302,43 @@
 </ThreadedComments>
 </file>
 
+<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B5" dT="2022-03-17T23:34:52.59" personId="{0D253195-8A92-4921-A6B5-DC18E4FE8100}" id="{E1629A49-5AB2-4561-A4D2-FD2B31327D31}">
+    <text>calibrated parameters in WRF-hydro, but is insensitive in CFE</text>
+  </threadedComment>
+  <threadedComment ref="B9" dT="2022-03-17T23:35:12.13" personId="{0D253195-8A92-4921-A6B5-DC18E4FE8100}" id="{D7264951-5F30-45A1-9006-437FBBF22A6A}">
+    <text>Very sensitive in CFE, but can be estimated from the soil type</text>
+  </threadedComment>
+  <threadedComment ref="B21" dT="2022-03-17T23:35:33.42" personId="{0D253195-8A92-4921-A6B5-DC18E4FE8100}" id="{F770EF0D-7F3D-4370-9C49-CF95E835FB5C}">
+    <text>Very sensitive in WRF-hydro, but insensitive in CFE</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment4.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B19" dT="2022-03-17T23:34:52.59" personId="{0D253195-8A92-4921-A6B5-DC18E4FE8100}" id="{945AB2B4-3411-492F-A39B-C599C232ED07}">
+    <text>calibrated parameters in WRF-hydro, but is insensitive in CFE</text>
+  </threadedComment>
+  <threadedComment ref="E19" dT="2022-10-14T00:15:17.17" personId="{0D253195-8A92-4921-A6B5-DC18E4FE8100}" id="{A85BD2E7-0816-46C3-B147-D92188CE066B}">
+    <text>Probably not necessarily represent the actual slope degree</text>
+  </threadedComment>
+  <threadedComment ref="B51" dT="2022-03-17T23:35:33.42" personId="{0D253195-8A92-4921-A6B5-DC18E4FE8100}" id="{EC728A68-B7BA-4FD5-BB7A-5C7952F94C87}">
+    <text>Very sensitive in WRF-hydro, but insensitive in CFE</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U40"/>
+  <dimension ref="A1:Y40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M20" sqref="M20"/>
+      <selection pane="bottomRight" activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1793,105 +2364,120 @@
     <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="4" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:25" s="4" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A1" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="80" t="s">
+        <v>211</v>
+      </c>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="83" t="s">
+        <v>212</v>
+      </c>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="83" t="s">
+        <v>87</v>
+      </c>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" s="4" customFormat="1" ht="30">
+      <c r="A2" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="57" t="s">
-        <v>151</v>
-      </c>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="60" t="s">
-        <v>88</v>
-      </c>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="59"/>
-    </row>
-    <row r="2" spans="1:21" s="4" customFormat="1" ht="27.75">
-      <c r="A2" s="7" t="s">
+      <c r="B2" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>66</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H2" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="I2" s="8" t="s">
-        <v>84</v>
-      </c>
       <c r="J2" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K2" s="8" t="s">
         <v>0</v>
       </c>
       <c r="L2" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="M2" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="N2" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q2" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="N2" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>85</v>
-      </c>
       <c r="R2" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="T2" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="U2" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="U2" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" s="2" customFormat="1" ht="94.5">
-      <c r="A3" s="55" t="s">
-        <v>92</v>
+      <c r="V2" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="W2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="X2" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y2" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" s="2" customFormat="1" ht="94.5">
+      <c r="A3" s="78" t="s">
+        <v>91</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>3</v>
@@ -1900,10 +2486,10 @@
         <v>19</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>54</v>
@@ -1915,21 +2501,21 @@
         <v>0</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K3" s="18">
-        <f>'Lit review on WRF-Hydro'!G3</f>
+        <f>'Lit review (WRF-Hydro &amp; MH)'!G3</f>
         <v>8.17</v>
       </c>
       <c r="L3" s="18">
-        <f>'Lit review on WRF-Hydro'!H3</f>
+        <f>'Lit review (WRF-Hydro &amp; MH)'!H3</f>
         <v>2</v>
       </c>
       <c r="M3" s="18">
-        <f>'Lit review on WRF-Hydro'!I3</f>
+        <f>'Lit review (WRF-Hydro &amp; MH)'!I3</f>
         <v>15</v>
       </c>
       <c r="N3" s="18"/>
@@ -1937,25 +2523,25 @@
       <c r="P3" s="10"/>
       <c r="Q3" s="10"/>
       <c r="R3" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S3" s="10"/>
       <c r="T3" s="10"/>
       <c r="U3" s="10"/>
     </row>
-    <row r="4" spans="1:21" s="2" customFormat="1" ht="40.5">
-      <c r="A4" s="63"/>
+    <row r="4" spans="1:25" s="2" customFormat="1" ht="40.5">
+      <c r="A4" s="86"/>
       <c r="B4" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>54</v>
@@ -1967,21 +2553,21 @@
         <v>0</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K4" s="13">
-        <f>'Lit review on WRF-Hydro'!G9</f>
+        <f>'Lit review (WRF-Hydro &amp; MH)'!G9</f>
         <v>2.4499999999999998E-6</v>
       </c>
       <c r="L4" s="13">
-        <f>'Lit review on WRF-Hydro'!H9</f>
+        <f>'Lit review (WRF-Hydro &amp; MH)'!H9</f>
         <v>4.8999999999999997E-7</v>
       </c>
       <c r="M4" s="13">
-        <f>'Lit review on WRF-Hydro'!I9</f>
+        <f>'Lit review (WRF-Hydro &amp; MH)'!I9</f>
         <v>2.4499999999999999E-5</v>
       </c>
       <c r="N4" s="13"/>
@@ -1993,19 +2579,19 @@
       <c r="T4" s="10"/>
       <c r="U4" s="10"/>
     </row>
-    <row r="5" spans="1:21" s="2" customFormat="1" ht="40.5">
-      <c r="A5" s="63"/>
+    <row r="5" spans="1:25" s="2" customFormat="1" ht="40.5">
+      <c r="A5" s="86"/>
       <c r="B5" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>54</v>
@@ -2020,18 +2606,18 @@
         <v>1</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K5" s="19">
-        <f>'Lit review on WRF-Hydro'!G15</f>
+        <f>'Lit review (WRF-Hydro &amp; MH)'!G15</f>
         <v>0.1466666666666667</v>
       </c>
       <c r="L5" s="19">
-        <f>'Lit review on WRF-Hydro'!H15</f>
+        <f>'Lit review (WRF-Hydro &amp; MH)'!H15</f>
         <v>0</v>
       </c>
       <c r="M5" s="19">
-        <f>'Lit review on WRF-Hydro'!I15</f>
+        <f>'Lit review (WRF-Hydro &amp; MH)'!I15</f>
         <v>1</v>
       </c>
       <c r="N5" s="19"/>
@@ -2043,45 +2629,45 @@
       <c r="T5" s="10"/>
       <c r="U5" s="10"/>
     </row>
-    <row r="6" spans="1:21" s="2" customFormat="1" ht="40.5">
-      <c r="A6" s="63"/>
+    <row r="6" spans="1:25" s="2" customFormat="1" ht="40.5">
+      <c r="A6" s="86"/>
       <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>54</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H6" s="10">
         <v>0</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K6" s="10">
-        <f>'Lit review on WRF-Hydro'!G20</f>
+        <f>'Lit review (WRF-Hydro &amp; MH)'!G20</f>
         <v>0.26300000000000001</v>
       </c>
       <c r="L6" s="10">
-        <f>'Lit review on WRF-Hydro'!H20</f>
+        <f>'Lit review (WRF-Hydro &amp; MH)'!H20</f>
         <v>6.9000000000000006E-2</v>
       </c>
       <c r="M6" s="10">
-        <f>'Lit review on WRF-Hydro'!I20</f>
+        <f>'Lit review (WRF-Hydro &amp; MH)'!I20</f>
         <v>0.78</v>
       </c>
       <c r="N6" s="10"/>
@@ -2093,19 +2679,19 @@
       <c r="T6" s="10"/>
       <c r="U6" s="10"/>
     </row>
-    <row r="7" spans="1:21" s="2" customFormat="1" ht="81">
-      <c r="A7" s="63"/>
+    <row r="7" spans="1:25" s="2" customFormat="1" ht="81">
+      <c r="A7" s="86"/>
       <c r="B7" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>40</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>54</v>
@@ -2114,13 +2700,13 @@
         <v>19</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I7" s="10">
         <v>1</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K7" s="10">
         <v>0.5</v>
@@ -2140,19 +2726,19 @@
       <c r="T7" s="10"/>
       <c r="U7" s="10"/>
     </row>
-    <row r="8" spans="1:21" s="2" customFormat="1" ht="81">
-      <c r="A8" s="63"/>
+    <row r="8" spans="1:25" s="2" customFormat="1" ht="81">
+      <c r="A8" s="86"/>
       <c r="B8" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>41</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>54</v>
@@ -2164,10 +2750,10 @@
         <v>0</v>
       </c>
       <c r="I8" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="J8" s="10" t="s">
         <v>129</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>130</v>
       </c>
       <c r="K8" s="10">
         <v>0.35</v>
@@ -2187,19 +2773,19 @@
       <c r="T8" s="10"/>
       <c r="U8" s="10"/>
     </row>
-    <row r="9" spans="1:21" s="2" customFormat="1" ht="81">
-      <c r="A9" s="63"/>
+    <row r="9" spans="1:25" s="2" customFormat="1" ht="81">
+      <c r="A9" s="86"/>
       <c r="B9" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>54</v>
@@ -2214,7 +2800,7 @@
         <v>0.33</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K9" s="10">
         <v>0.33</v>
@@ -2236,8 +2822,8 @@
       <c r="T9" s="10"/>
       <c r="U9" s="10"/>
     </row>
-    <row r="10" spans="1:21" s="16" customFormat="1" ht="81">
-      <c r="A10" s="63"/>
+    <row r="10" spans="1:25" s="16" customFormat="1" ht="81">
+      <c r="A10" s="86"/>
       <c r="B10" s="14" t="s">
         <v>51</v>
       </c>
@@ -2248,13 +2834,13 @@
         <v>68</v>
       </c>
       <c r="E10" s="53" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F10" s="15" t="s">
         <v>53</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H10" s="15" t="s">
         <v>19</v>
@@ -2283,10 +2869,10 @@
       <c r="T10" s="15"/>
       <c r="U10" s="15"/>
     </row>
-    <row r="11" spans="1:21" s="2" customFormat="1" ht="81">
-      <c r="A11" s="63"/>
+    <row r="11" spans="1:25" s="2" customFormat="1" ht="81">
+      <c r="A11" s="86"/>
       <c r="B11" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>19</v>
@@ -2295,19 +2881,19 @@
         <v>68</v>
       </c>
       <c r="E11" s="53" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F11" s="15" t="s">
         <v>53</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H11" s="15">
         <v>0</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J11" s="15" t="s">
         <v>19</v>
@@ -2330,8 +2916,8 @@
       <c r="T11" s="10"/>
       <c r="U11" s="10"/>
     </row>
-    <row r="12" spans="1:21" s="16" customFormat="1" ht="67.5">
-      <c r="A12" s="63"/>
+    <row r="12" spans="1:25" s="16" customFormat="1" ht="67.5">
+      <c r="A12" s="86"/>
       <c r="B12" s="14" t="s">
         <v>50</v>
       </c>
@@ -2339,16 +2925,16 @@
         <v>19</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F12" s="15" t="s">
         <v>53</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H12" s="15" t="s">
         <v>19</v>
@@ -2377,8 +2963,8 @@
       <c r="T12" s="15"/>
       <c r="U12" s="15"/>
     </row>
-    <row r="13" spans="1:21" s="16" customFormat="1" ht="81">
-      <c r="A13" s="63"/>
+    <row r="13" spans="1:25" s="16" customFormat="1" ht="81">
+      <c r="A13" s="86"/>
       <c r="B13" s="14" t="s">
         <v>62</v>
       </c>
@@ -2386,16 +2972,16 @@
         <v>19</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F13" s="15" t="s">
         <v>53</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H13" s="15" t="s">
         <v>19</v>
@@ -2424,25 +3010,25 @@
       <c r="T13" s="15"/>
       <c r="U13" s="15"/>
     </row>
-    <row r="14" spans="1:21" s="2" customFormat="1" ht="135">
-      <c r="A14" s="63"/>
+    <row r="14" spans="1:25" s="2" customFormat="1" ht="135">
+      <c r="A14" s="86"/>
       <c r="B14" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="D14" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="D14" s="15" t="s">
-        <v>126</v>
-      </c>
       <c r="E14" s="53" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F14" s="15" t="s">
         <v>53</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H14" s="15">
         <v>0</v>
@@ -2451,7 +3037,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="K14" s="15">
         <v>1.4350000000000001E-3</v>
@@ -2471,10 +3057,10 @@
       <c r="T14" s="10"/>
       <c r="U14" s="10"/>
     </row>
-    <row r="15" spans="1:21" s="2" customFormat="1" ht="40.5">
-      <c r="A15" s="63"/>
+    <row r="15" spans="1:25" s="2" customFormat="1" ht="40.5">
+      <c r="A15" s="86"/>
       <c r="B15" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>19</v>
@@ -2483,7 +3069,7 @@
         <v>43</v>
       </c>
       <c r="E15" s="52" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>54</v>
@@ -2495,21 +3081,21 @@
         <v>0</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K15" s="10">
-        <f>'Lit review on WRF-Hydro'!G26</f>
+        <f>'Lit review (WRF-Hydro &amp; MH)'!G26</f>
         <v>1000</v>
       </c>
       <c r="L15" s="10">
-        <f>'Lit review on WRF-Hydro'!H26</f>
+        <f>'Lit review (WRF-Hydro &amp; MH)'!H26</f>
         <v>10</v>
       </c>
       <c r="M15" s="10">
-        <f>'Lit review on WRF-Hydro'!I26</f>
+        <f>'Lit review (WRF-Hydro &amp; MH)'!I26</f>
         <v>10000</v>
       </c>
       <c r="N15" s="10"/>
@@ -2521,13 +3107,13 @@
       <c r="T15" s="10"/>
       <c r="U15" s="10"/>
     </row>
-    <row r="16" spans="1:21" s="2" customFormat="1" ht="40.5">
-      <c r="A16" s="63"/>
+    <row r="16" spans="1:25" s="2" customFormat="1" ht="40.5">
+      <c r="A16" s="86"/>
       <c r="B16" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>44</v>
@@ -2545,21 +3131,21 @@
         <v>0</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K16" s="10">
-        <f>'Lit review on WRF-Hydro'!G29</f>
+        <f>'Lit review (WRF-Hydro &amp; MH)'!G29</f>
         <v>1</v>
       </c>
       <c r="L16" s="10">
-        <f>'Lit review on WRF-Hydro'!H29</f>
+        <f>'Lit review (WRF-Hydro &amp; MH)'!H29</f>
         <v>0.9</v>
       </c>
       <c r="M16" s="10">
-        <f>'Lit review on WRF-Hydro'!I29</f>
+        <f>'Lit review (WRF-Hydro &amp; MH)'!I29</f>
         <v>1.2</v>
       </c>
       <c r="N16" s="10"/>
@@ -2572,9 +3158,9 @@
       <c r="U16" s="10"/>
     </row>
     <row r="17" spans="1:21" s="2" customFormat="1" ht="54">
-      <c r="A17" s="56"/>
+      <c r="A17" s="79"/>
       <c r="B17" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>19</v>
@@ -2583,7 +3169,7 @@
         <v>52</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>54</v>
@@ -2598,18 +3184,18 @@
         <v>1</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K17" s="19">
-        <f>'Lit review on WRF-Hydro'!G32</f>
+        <f>'Lit review (WRF-Hydro &amp; MH)'!G32</f>
         <v>0.625</v>
       </c>
       <c r="L17" s="19">
-        <f>'Lit review on WRF-Hydro'!H32</f>
+        <f>'Lit review (WRF-Hydro &amp; MH)'!H32</f>
         <v>0.25</v>
       </c>
       <c r="M17" s="19">
-        <f>'Lit review on WRF-Hydro'!I32</f>
+        <f>'Lit review (WRF-Hydro &amp; MH)'!I32</f>
         <v>1</v>
       </c>
       <c r="N17" s="19"/>
@@ -2622,20 +3208,20 @@
       <c r="U17" s="10"/>
     </row>
     <row r="18" spans="1:21" s="2" customFormat="1" ht="40.5">
-      <c r="A18" s="55" t="s">
-        <v>91</v>
+      <c r="A18" s="78" t="s">
+        <v>90</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="54" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>39</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>54</v>
@@ -2647,21 +3233,21 @@
         <v>0</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K18" s="10">
-        <f>'Lit review on WRF-Hydro'!G35</f>
+        <f>'Lit review (WRF-Hydro &amp; MH)'!G35</f>
         <v>50</v>
       </c>
       <c r="L18" s="10">
-        <f>'Lit review on WRF-Hydro'!H35</f>
+        <f>'Lit review (WRF-Hydro &amp; MH)'!H35</f>
         <v>10</v>
       </c>
       <c r="M18" s="10">
-        <f>'Lit review on WRF-Hydro'!I35</f>
+        <f>'Lit review (WRF-Hydro &amp; MH)'!I35</f>
         <v>250</v>
       </c>
       <c r="N18" s="10"/>
@@ -2674,18 +3260,18 @@
       <c r="U18" s="10"/>
     </row>
     <row r="19" spans="1:21" s="2" customFormat="1" ht="81">
-      <c r="A19" s="63"/>
+      <c r="A19" s="86"/>
       <c r="B19" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>48</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>54</v>
@@ -2697,13 +3283,13 @@
         <v>0</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="K19" s="10">
-        <f>'Lit review on WRF-Hydro'!G40</f>
+        <f>'Lit review (WRF-Hydro &amp; MH)'!G40</f>
         <v>1</v>
       </c>
       <c r="L19" s="18">
@@ -2724,7 +3310,7 @@
       <c r="U19" s="10"/>
     </row>
     <row r="20" spans="1:21" s="2" customFormat="1" ht="81">
-      <c r="A20" s="56"/>
+      <c r="A20" s="79"/>
       <c r="B20" s="9" t="s">
         <v>12</v>
       </c>
@@ -2735,7 +3321,7 @@
         <v>49</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>54</v>
@@ -2747,21 +3333,21 @@
         <v>0</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K20" s="10">
-        <f>'Lit review on WRF-Hydro'!G44</f>
+        <f>'Lit review (WRF-Hydro &amp; MH)'!G44</f>
         <v>1.75</v>
       </c>
       <c r="L20" s="10">
-        <f>'Lit review on WRF-Hydro'!H44</f>
+        <f>'Lit review (WRF-Hydro &amp; MH)'!H44</f>
         <v>1</v>
       </c>
       <c r="M20" s="10">
-        <f>'Lit review on WRF-Hydro'!I44</f>
+        <f>'Lit review (WRF-Hydro &amp; MH)'!I44</f>
         <v>8</v>
       </c>
       <c r="N20" s="10"/>
@@ -2775,7 +3361,7 @@
     </row>
     <row r="21" spans="1:21" s="2" customFormat="1" ht="54">
       <c r="A21" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>45</v>
@@ -2784,10 +3370,10 @@
         <v>46</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>54</v>
@@ -2799,21 +3385,21 @@
         <v>0</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K21" s="10">
-        <f>'Lit review on WRF-Hydro'!G48</f>
+        <f>'Lit review (WRF-Hydro &amp; MH)'!G48</f>
         <v>3</v>
       </c>
       <c r="L21" s="10">
-        <f>'Lit review on WRF-Hydro'!H48</f>
+        <f>'Lit review (WRF-Hydro &amp; MH)'!H48</f>
         <v>0.1</v>
       </c>
       <c r="M21" s="10">
-        <f>'Lit review on WRF-Hydro'!I48</f>
+        <f>'Lit review (WRF-Hydro &amp; MH)'!I48</f>
         <v>4</v>
       </c>
       <c r="N21" s="10"/>
@@ -2833,25 +3419,25 @@
         <v>1</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D22" s="15" t="s">
         <v>38</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F22" s="15" t="s">
         <v>53</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H22" s="15">
         <v>0</v>
       </c>
       <c r="I22" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J22" s="15" t="s">
         <v>19</v>
@@ -2875,7 +3461,7 @@
       <c r="U22" s="10"/>
     </row>
     <row r="23" spans="1:21" s="2" customFormat="1" ht="270">
-      <c r="A23" s="55" t="s">
+      <c r="A23" s="78" t="s">
         <v>56</v>
       </c>
       <c r="B23" s="9" t="s">
@@ -2886,7 +3472,7 @@
         <v>63</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>54</v>
@@ -2901,7 +3487,7 @@
         <v>1</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="K23" s="10">
         <v>0.03</v>
@@ -2924,7 +3510,7 @@
       <c r="U23" s="10"/>
     </row>
     <row r="24" spans="1:21" s="2" customFormat="1" ht="54">
-      <c r="A24" s="56"/>
+      <c r="A24" s="79"/>
       <c r="B24" s="14" t="s">
         <v>14</v>
       </c>
@@ -2937,7 +3523,7 @@
         <v>53</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H24" s="15" t="s">
         <v>19</v>
@@ -2946,10 +3532,10 @@
         <v>19</v>
       </c>
       <c r="J24" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="K24" s="15" t="s">
         <v>196</v>
-      </c>
-      <c r="K24" s="15" t="s">
-        <v>199</v>
       </c>
       <c r="L24" s="15" t="s">
         <v>19</v>
@@ -2984,7 +3570,7 @@
         <v>53</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H25" s="15" t="s">
         <v>19</v>
@@ -2993,10 +3579,10 @@
         <v>19</v>
       </c>
       <c r="J25" s="15" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="K25" s="15" t="s">
-        <v>197</v>
+        <v>310</v>
       </c>
       <c r="L25" s="15" t="s">
         <v>19</v>
@@ -3026,6 +3612,7 @@
       <c r="E40" s="2"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="7">
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A1:E1"/>
@@ -3046,15 +3633,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DB7CFF8-16E9-44BD-BC94-406D58013BA0}">
   <dimension ref="A1:S61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D44" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="G51" sqref="G51:I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="19.46484375" style="50" customWidth="1"/>
     <col min="2" max="2" width="30" style="20" customWidth="1"/>
-    <col min="3" max="3" width="22.59765625" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.59765625" style="20" customWidth="1"/>
     <col min="4" max="4" width="13.1328125" style="20" customWidth="1"/>
     <col min="5" max="5" width="9" style="20"/>
     <col min="6" max="6" width="17" style="20" customWidth="1"/>
@@ -3067,39 +3657,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="88" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66" t="s">
-        <v>103</v>
-      </c>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66" t="s">
-        <v>79</v>
-      </c>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
     </row>
     <row r="2" spans="1:11" ht="55.5">
       <c r="A2" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>75</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>76</v>
       </c>
       <c r="C2" s="21" t="s">
         <v>66</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F2" s="21" t="s">
         <v>58</v>
@@ -3108,35 +3698,35 @@
         <v>0</v>
       </c>
       <c r="H2" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="I2" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="I2" s="21" t="s">
-        <v>84</v>
-      </c>
       <c r="J2" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K2" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="27" customFormat="1" ht="94.5">
-      <c r="A3" s="64" t="s">
-        <v>92</v>
+      <c r="A3" s="87" t="s">
+        <v>91</v>
       </c>
       <c r="B3" s="22" t="str">
-        <f>'Definition &amp; analysis design'!B3</f>
+        <f>'Final descision (MH)'!B3</f>
         <v>bb</v>
       </c>
       <c r="C3" s="23" t="str">
-        <f>'Definition &amp; analysis design'!C3</f>
+        <f>'Final descision (MH)'!C3</f>
         <v>-</v>
       </c>
       <c r="D3" s="23" t="s">
         <v>57</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F3" s="24" t="s">
         <v>19</v>
@@ -3154,12 +3744,12 @@
         <v>15</v>
       </c>
       <c r="J3" s="26" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K3" s="23"/>
     </row>
     <row r="4" spans="1:11" s="27" customFormat="1" ht="67.5">
-      <c r="A4" s="64"/>
+      <c r="A4" s="87"/>
       <c r="B4" s="22"/>
       <c r="C4" s="23"/>
       <c r="D4" s="23"/>
@@ -3180,66 +3770,66 @@
         <v>15</v>
       </c>
       <c r="J4" s="23" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K4" s="23"/>
     </row>
     <row r="5" spans="1:11" s="27" customFormat="1">
-      <c r="A5" s="64"/>
+      <c r="A5" s="87"/>
       <c r="B5" s="22"/>
       <c r="C5" s="23"/>
       <c r="D5" s="23"/>
       <c r="E5" s="23"/>
       <c r="F5" s="23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G5" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="I5" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="H5" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="I5" s="23" t="s">
-        <v>135</v>
-      </c>
       <c r="J5" s="23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K5" s="23"/>
     </row>
     <row r="6" spans="1:11" s="27" customFormat="1" ht="46.5" customHeight="1">
-      <c r="A6" s="64"/>
+      <c r="A6" s="87"/>
       <c r="B6" s="22"/>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
       <c r="E6" s="23"/>
       <c r="F6" s="23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G6" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="I6" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="H6" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="I6" s="23" t="s">
-        <v>135</v>
-      </c>
       <c r="J6" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K6" s="28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="27" customFormat="1" ht="46.5" customHeight="1">
-      <c r="A7" s="64"/>
+      <c r="A7" s="87"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
       <c r="D7" s="23"/>
       <c r="E7" s="23"/>
       <c r="F7" s="23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G7" s="23" t="s">
         <v>19</v>
@@ -3251,14 +3841,14 @@
         <v>15</v>
       </c>
       <c r="J7" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K7" s="28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="27" customFormat="1" ht="40.5">
-      <c r="A8" s="64"/>
+      <c r="A8" s="87"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
       <c r="D8" s="23"/>
@@ -3276,20 +3866,20 @@
         <v>11.55</v>
       </c>
       <c r="J8" s="23" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K8" s="29" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="34" customFormat="1" ht="67.5">
-      <c r="A9" s="64"/>
+      <c r="A9" s="87"/>
       <c r="B9" s="30" t="str">
-        <f>'Definition &amp; analysis design'!B4</f>
+        <f>'Final descision (MH)'!B4</f>
         <v>satdk</v>
       </c>
       <c r="C9" s="31" t="str">
-        <f>'Definition &amp; analysis design'!C4</f>
+        <f>'Final descision (MH)'!C4</f>
         <v>meters/second
 [m/s]</v>
       </c>
@@ -3315,12 +3905,12 @@
         <v>2.4499999999999999E-5</v>
       </c>
       <c r="J9" s="30" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K9" s="33"/>
     </row>
     <row r="10" spans="1:11" ht="67.5">
-      <c r="A10" s="64"/>
+      <c r="A10" s="87"/>
       <c r="B10" s="35"/>
       <c r="C10" s="35"/>
       <c r="D10" s="35"/>
@@ -3339,12 +3929,12 @@
         <v>x10</v>
       </c>
       <c r="J10" s="31" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K10" s="31"/>
     </row>
     <row r="11" spans="1:11" ht="27">
-      <c r="A11" s="64"/>
+      <c r="A11" s="87"/>
       <c r="B11" s="35"/>
       <c r="C11" s="35"/>
       <c r="D11" s="35"/>
@@ -3354,18 +3944,18 @@
         <v>19</v>
       </c>
       <c r="H11" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="I11" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="I11" s="31" t="s">
-        <v>148</v>
-      </c>
       <c r="J11" s="31" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K11" s="31"/>
     </row>
     <row r="12" spans="1:11" ht="27">
-      <c r="A12" s="64"/>
+      <c r="A12" s="87"/>
       <c r="B12" s="30"/>
       <c r="C12" s="31"/>
       <c r="D12" s="31"/>
@@ -3375,20 +3965,20 @@
         <v>19</v>
       </c>
       <c r="H12" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="I12" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="I12" s="31" t="s">
-        <v>148</v>
-      </c>
       <c r="J12" s="31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K12" s="37" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="27">
-      <c r="A13" s="64"/>
+      <c r="A13" s="87"/>
       <c r="B13" s="30"/>
       <c r="C13" s="31"/>
       <c r="D13" s="31"/>
@@ -3404,14 +3994,14 @@
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="J13" s="31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K13" s="31" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="40.5">
-      <c r="A14" s="64"/>
+      <c r="A14" s="87"/>
       <c r="B14" s="30"/>
       <c r="C14" s="31"/>
       <c r="D14" s="31"/>
@@ -3427,18 +4017,18 @@
         <v>19</v>
       </c>
       <c r="J14" s="31" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K14" s="31"/>
     </row>
     <row r="15" spans="1:11" ht="94.5">
-      <c r="A15" s="64"/>
+      <c r="A15" s="87"/>
       <c r="B15" s="22" t="str">
-        <f>'Definition &amp; analysis design'!B5</f>
+        <f>'Final descision (MH)'!B5</f>
         <v>slop</v>
       </c>
       <c r="C15" s="23" t="str">
-        <f>'Definition &amp; analysis design'!C5</f>
+        <f>'Final descision (MH)'!C5</f>
         <v>meters/meters
 [m/m]</v>
       </c>
@@ -3446,7 +4036,7 @@
         <v>6</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F15" s="23"/>
       <c r="G15" s="39">
@@ -3462,12 +4052,12 @@
         <v>1</v>
       </c>
       <c r="J15" s="22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K15" s="23"/>
     </row>
     <row r="16" spans="1:11" s="27" customFormat="1" ht="54">
-      <c r="A16" s="64"/>
+      <c r="A16" s="87"/>
       <c r="B16" s="24"/>
       <c r="C16" s="24"/>
       <c r="D16" s="24"/>
@@ -3486,18 +4076,18 @@
         <v>1</v>
       </c>
       <c r="J16" s="23" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K16" s="23"/>
     </row>
     <row r="17" spans="1:11" s="27" customFormat="1" ht="27">
-      <c r="A17" s="64"/>
+      <c r="A17" s="87"/>
       <c r="B17" s="22"/>
       <c r="C17" s="23"/>
       <c r="D17" s="23"/>
       <c r="E17" s="23"/>
       <c r="F17" s="23" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G17" s="23">
         <v>0.1</v>
@@ -3509,14 +4099,14 @@
         <v>1</v>
       </c>
       <c r="J17" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K17" s="28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="27" customFormat="1" ht="27">
-      <c r="A18" s="64"/>
+      <c r="A18" s="87"/>
       <c r="B18" s="22"/>
       <c r="C18" s="23"/>
       <c r="D18" s="23"/>
@@ -3535,14 +4125,14 @@
         <v>19</v>
       </c>
       <c r="J18" s="23" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K18" s="23" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="27" customFormat="1" ht="40.5">
-      <c r="A19" s="64"/>
+      <c r="A19" s="87"/>
       <c r="B19" s="22"/>
       <c r="C19" s="23"/>
       <c r="D19" s="23"/>
@@ -3561,20 +4151,20 @@
         <v>19</v>
       </c>
       <c r="J19" s="23" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K19" s="23" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="111">
-      <c r="A20" s="64"/>
+      <c r="A20" s="87"/>
       <c r="B20" s="30" t="str">
-        <f>'Definition &amp; analysis design'!B6</f>
+        <f>'Final descision (MH)'!B6</f>
         <v>satpsi</v>
       </c>
       <c r="C20" s="31" t="str">
-        <f>'Definition &amp; analysis design'!C6</f>
+        <f>'Final descision (MH)'!C6</f>
         <v>meters
 [m]</v>
       </c>
@@ -3600,12 +4190,12 @@
         <v>0.78</v>
       </c>
       <c r="J20" s="30" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K20" s="31"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="64"/>
+      <c r="A21" s="87"/>
       <c r="B21" s="30"/>
       <c r="C21" s="31"/>
       <c r="D21" s="31"/>
@@ -3621,14 +4211,14 @@
         <v>0.78</v>
       </c>
       <c r="J21" s="35" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K21" s="31" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="40.5">
-      <c r="A22" s="64"/>
+      <c r="A22" s="87"/>
       <c r="B22" s="30"/>
       <c r="C22" s="31"/>
       <c r="D22" s="31"/>
@@ -3644,20 +4234,20 @@
         <v>0.75900000000000001</v>
       </c>
       <c r="J22" s="31" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K22" s="37" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="27" customFormat="1" ht="67.5">
-      <c r="A23" s="64"/>
+      <c r="A23" s="87"/>
       <c r="B23" s="41" t="str">
-        <f>'Definition &amp; analysis design'!B7</f>
+        <f>'Final descision (MH)'!B7</f>
         <v>smcmax</v>
       </c>
       <c r="C23" s="42" t="str">
-        <f>'Definition &amp; analysis design'!C7</f>
+        <f>'Final descision (MH)'!C7</f>
         <v>meters/meters
 [m/m]</v>
       </c>
@@ -3687,13 +4277,13 @@
       </c>
     </row>
     <row r="24" spans="1:11" ht="27">
-      <c r="A24" s="64"/>
+      <c r="A24" s="87"/>
       <c r="B24" s="43" t="str">
-        <f>'Definition &amp; analysis design'!B8</f>
+        <f>'Final descision (MH)'!B8</f>
         <v>wltsmc</v>
       </c>
       <c r="C24" s="44" t="str">
-        <f>'Definition &amp; analysis design'!C8</f>
+        <f>'Final descision (MH)'!C8</f>
         <v>meters/meters
 [m/m]</v>
       </c>
@@ -3723,17 +4313,17 @@
       </c>
     </row>
     <row r="25" spans="1:11" s="27" customFormat="1" ht="41.65">
-      <c r="A25" s="64"/>
+      <c r="A25" s="87"/>
       <c r="B25" s="41" t="str">
-        <f>'Definition &amp; analysis design'!B9</f>
+        <f>'Final descision (MH)'!B9</f>
         <v>field_capacity_atm_press_fraction (alpha_fc in the NOAA version CFE)</v>
       </c>
       <c r="C25" s="42" t="str">
-        <f>'Definition &amp; analysis design'!C9</f>
+        <f>'Final descision (MH)'!C9</f>
         <v>-</v>
       </c>
       <c r="D25" s="42" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E25" s="42" t="s">
         <v>19</v>
@@ -3752,25 +4342,25 @@
         <v>-1</v>
       </c>
       <c r="J25" s="42" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K25" s="42" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="40.5">
-      <c r="A26" s="64"/>
+      <c r="A26" s="87"/>
       <c r="B26" s="30" t="str">
-        <f>'Definition &amp; analysis design'!B15</f>
+        <f>'Final descision (MH)'!B15</f>
         <v>lksatfac</v>
       </c>
       <c r="C26" s="31" t="str">
-        <f>'Definition &amp; analysis design'!C15</f>
+        <f>'Final descision (MH)'!C15</f>
         <v>-</v>
       </c>
       <c r="D26" s="31"/>
       <c r="E26" s="31" t="str">
-        <f>'Definition &amp; analysis design'!D15</f>
+        <f>'Final descision (MH)'!D15</f>
         <v>Multiplier applied to satdk</v>
       </c>
       <c r="F26" s="31" t="s">
@@ -3789,18 +4379,18 @@
         <v>10000</v>
       </c>
       <c r="J26" s="30" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K26" s="31"/>
     </row>
     <row r="27" spans="1:11" ht="27">
-      <c r="A27" s="64"/>
+      <c r="A27" s="87"/>
       <c r="B27" s="30"/>
       <c r="C27" s="31"/>
       <c r="D27" s="31"/>
       <c r="E27" s="31"/>
       <c r="F27" s="31" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G27" s="31">
         <v>1000</v>
@@ -3812,14 +4402,14 @@
         <v>10000</v>
       </c>
       <c r="J27" s="31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K27" s="31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="27">
-      <c r="A28" s="64"/>
+      <c r="A28" s="87"/>
       <c r="B28" s="30"/>
       <c r="C28" s="31"/>
       <c r="D28" s="31"/>
@@ -3837,18 +4427,18 @@
         <v>10000</v>
       </c>
       <c r="J28" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K28" s="31"/>
     </row>
     <row r="29" spans="1:11" s="27" customFormat="1" ht="54.4">
-      <c r="A29" s="64"/>
+      <c r="A29" s="87"/>
       <c r="B29" s="22" t="str">
-        <f>'Definition &amp; analysis design'!B16</f>
+        <f>'Final descision (MH)'!B16</f>
         <v>D</v>
       </c>
       <c r="C29" s="23" t="str">
-        <f>'Definition &amp; analysis design'!C16</f>
+        <f>'Final descision (MH)'!C16</f>
         <v>meters
 [m]</v>
       </c>
@@ -3872,12 +4462,12 @@
         <v>1.2</v>
       </c>
       <c r="J29" s="22" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K29" s="23"/>
     </row>
     <row r="30" spans="1:11" s="27" customFormat="1">
-      <c r="A30" s="64"/>
+      <c r="A30" s="87"/>
       <c r="B30" s="22"/>
       <c r="C30" s="23"/>
       <c r="D30" s="23"/>
@@ -3897,14 +4487,14 @@
         <v>19</v>
       </c>
       <c r="J30" s="23" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K30" s="23" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="31" spans="1:11" s="27" customFormat="1">
-      <c r="A31" s="64"/>
+      <c r="A31" s="87"/>
       <c r="B31" s="22"/>
       <c r="C31" s="23"/>
       <c r="D31" s="23"/>
@@ -3924,30 +4514,30 @@
         <v>1.2</v>
       </c>
       <c r="J31" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="K31" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="K31" s="23" t="s">
-        <v>185</v>
-      </c>
     </row>
     <row r="32" spans="1:11" ht="40.5">
-      <c r="A32" s="64"/>
+      <c r="A32" s="87"/>
       <c r="B32" s="30" t="str">
-        <f>'Definition &amp; analysis design'!B17</f>
+        <f>'Final descision (MH)'!B17</f>
         <v>trigger_z_m_coeff (*added by me)</v>
       </c>
       <c r="C32" s="31" t="str">
-        <f>'Definition &amp; analysis design'!C17</f>
+        <f>'Final descision (MH)'!C17</f>
         <v>-</v>
       </c>
       <c r="D32" s="31" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E32" s="31" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F32" s="31" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G32" s="31">
         <f>AVERAGE(H32:I32)</f>
@@ -3962,7 +4552,7 @@
         <v>1</v>
       </c>
       <c r="J32" s="31" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K32" s="35"/>
     </row>
@@ -3988,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="J33" s="31" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K33" s="35"/>
     </row>
@@ -3998,37 +4588,37 @@
       <c r="C34" s="44"/>
       <c r="D34" s="44"/>
       <c r="E34" s="44" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F34" s="44" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G34" s="44" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H34" s="44" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I34" s="44" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J34" s="31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K34" s="35" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="35" spans="1:11" s="27" customFormat="1" ht="67.5">
-      <c r="A35" s="64" t="s">
-        <v>91</v>
+      <c r="A35" s="87" t="s">
+        <v>90</v>
       </c>
       <c r="B35" s="22" t="str">
-        <f>'Definition &amp; analysis design'!B18</f>
+        <f>'Final descision (MH)'!B18</f>
         <v>max_gw_storage</v>
       </c>
       <c r="C35" s="23" t="str">
-        <f>'Definition &amp; analysis design'!C18</f>
+        <f>'Final descision (MH)'!C18</f>
         <v>meters
 [m]</v>
       </c>
@@ -4036,7 +4626,7 @@
         <v>67</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F35" s="23" t="s">
         <v>19</v>
@@ -4054,17 +4644,17 @@
         <v>250</v>
       </c>
       <c r="J35" s="46" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K35" s="23"/>
     </row>
     <row r="36" spans="1:11" s="27" customFormat="1" ht="94.5">
-      <c r="A36" s="64"/>
+      <c r="A36" s="87"/>
       <c r="B36" s="22"/>
       <c r="C36" s="23"/>
       <c r="D36" s="23"/>
       <c r="E36" s="23" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F36" s="23" t="s">
         <v>19</v>
@@ -4079,17 +4669,17 @@
         <v>250</v>
       </c>
       <c r="J36" s="23" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K36" s="28"/>
     </row>
     <row r="37" spans="1:11" s="27" customFormat="1" ht="81">
-      <c r="A37" s="64"/>
+      <c r="A37" s="87"/>
       <c r="B37" s="22"/>
       <c r="C37" s="23"/>
       <c r="D37" s="23"/>
       <c r="E37" s="23" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F37" s="23" t="s">
         <v>19</v>
@@ -4104,22 +4694,22 @@
         <v>19</v>
       </c>
       <c r="J37" s="23" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K37" s="28" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="38" spans="1:11" s="27" customFormat="1" ht="94.5">
-      <c r="A38" s="64"/>
+      <c r="A38" s="87"/>
       <c r="B38" s="22"/>
       <c r="C38" s="23"/>
       <c r="D38" s="23"/>
       <c r="E38" s="23" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F38" s="23" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G38" s="23">
         <v>25</v>
@@ -4131,19 +4721,19 @@
         <v>250</v>
       </c>
       <c r="J38" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K38" s="28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="39" spans="1:11" s="27" customFormat="1" ht="94.5">
-      <c r="A39" s="64"/>
+      <c r="A39" s="87"/>
       <c r="B39" s="22"/>
       <c r="C39" s="23"/>
       <c r="D39" s="23"/>
       <c r="E39" s="23" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F39" s="23" t="s">
         <v>19</v>
@@ -4158,18 +4748,18 @@
         <v>2.5</v>
       </c>
       <c r="J39" s="23" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K39" s="28"/>
     </row>
     <row r="40" spans="1:11" ht="81">
-      <c r="A40" s="64"/>
+      <c r="A40" s="87"/>
       <c r="B40" s="30" t="str">
-        <f>'Definition &amp; analysis design'!B19</f>
+        <f>'Final descision (MH)'!B19</f>
         <v>Cgw</v>
       </c>
       <c r="C40" s="31" t="str">
-        <f>'Definition &amp; analysis design'!C19</f>
+        <f>'Final descision (MH)'!C19</f>
         <v>meters/hour
 [m/h]</v>
       </c>
@@ -4195,14 +4785,14 @@
         <v>2</v>
       </c>
       <c r="J40" s="48" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K40" s="31" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="64"/>
+      <c r="A41" s="87"/>
       <c r="B41" s="30"/>
       <c r="C41" s="31"/>
       <c r="D41" s="31"/>
@@ -4212,18 +4802,18 @@
         <v>19</v>
       </c>
       <c r="H41" s="31" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I41" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="J41" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="J41" s="31" t="s">
-        <v>144</v>
-      </c>
       <c r="K41" s="31"/>
     </row>
     <row r="42" spans="1:11" ht="27">
-      <c r="A42" s="64"/>
+      <c r="A42" s="87"/>
       <c r="B42" s="30"/>
       <c r="C42" s="31"/>
       <c r="D42" s="31"/>
@@ -4241,14 +4831,14 @@
         <v>19</v>
       </c>
       <c r="J42" s="31" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K42" s="37" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="64"/>
+      <c r="A43" s="87"/>
       <c r="B43" s="30"/>
       <c r="C43" s="31"/>
       <c r="D43" s="31"/>
@@ -4266,18 +4856,18 @@
         <v>0.3</v>
       </c>
       <c r="J43" s="31" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K43" s="31"/>
     </row>
     <row r="44" spans="1:11" s="27" customFormat="1" ht="108">
-      <c r="A44" s="64"/>
+      <c r="A44" s="87"/>
       <c r="B44" s="22" t="str">
-        <f>'Definition &amp; analysis design'!B20</f>
+        <f>'Final descision (MH)'!B20</f>
         <v>expon</v>
       </c>
       <c r="C44" s="23" t="str">
-        <f>'Definition &amp; analysis design'!C20</f>
+        <f>'Final descision (MH)'!C20</f>
         <v>-</v>
       </c>
       <c r="D44" s="23" t="s">
@@ -4302,7 +4892,7 @@
         <v>8</v>
       </c>
       <c r="J44" s="23" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K44" s="23"/>
     </row>
@@ -4312,10 +4902,10 @@
       <c r="C45" s="23"/>
       <c r="D45" s="23"/>
       <c r="E45" s="23" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F45" s="23" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G45" s="23">
         <v>1.75</v>
@@ -4327,10 +4917,10 @@
         <v>8</v>
       </c>
       <c r="J45" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K45" s="28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="46" spans="1:11" s="27" customFormat="1" ht="27">
@@ -4350,10 +4940,10 @@
         <v>19</v>
       </c>
       <c r="J46" s="23" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K46" s="28" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="47" spans="1:11" s="27" customFormat="1" ht="40.5">
@@ -4364,7 +4954,7 @@
       <c r="E47" s="23"/>
       <c r="F47" s="23"/>
       <c r="G47" s="23" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H47" s="23">
         <v>0.05</v>
@@ -4373,20 +4963,20 @@
         <v>1</v>
       </c>
       <c r="J47" s="23" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="K47" s="28"/>
     </row>
     <row r="48" spans="1:11" ht="63" customHeight="1">
       <c r="A48" s="30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B48" s="30" t="str">
-        <f>'Definition &amp; analysis design'!B21</f>
+        <f>'Final descision (MH)'!B21</f>
         <v>REFKDT</v>
       </c>
       <c r="C48" s="31" t="str">
-        <f>'Definition &amp; analysis design'!C21</f>
+        <f>'Final descision (MH)'!C21</f>
         <v>s/m</v>
       </c>
       <c r="D48" s="31" t="s">
@@ -4409,7 +4999,7 @@
         <v>4</v>
       </c>
       <c r="J48" s="48" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K48" s="31"/>
     </row>
@@ -4419,10 +5009,10 @@
       <c r="C49" s="31"/>
       <c r="D49" s="31"/>
       <c r="E49" s="31" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F49" s="31" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G49" s="31">
         <v>0.6</v>
@@ -4434,10 +5024,10 @@
         <v>4</v>
       </c>
       <c r="J49" s="31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K49" s="51" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="50" spans="1:19" ht="94.5">
@@ -4468,11 +5058,11 @@
         <v>56</v>
       </c>
       <c r="B51" s="22" t="str">
-        <f>'Definition &amp; analysis design'!B23</f>
+        <f>'Final descision (MH)'!B23</f>
         <v>K_nash</v>
       </c>
       <c r="C51" s="23">
-        <f>'Definition &amp; analysis design'!C23</f>
+        <f>'Final descision (MH)'!C23</f>
         <v>0</v>
       </c>
       <c r="D51" s="23"/>
@@ -4497,8 +5087,8 @@
       <c r="K51" s="23"/>
     </row>
     <row r="52" spans="1:19" s="49" customFormat="1" ht="13.9">
-      <c r="A52" s="64" t="s">
-        <v>94</v>
+      <c r="A52" s="87" t="s">
+        <v>93</v>
       </c>
       <c r="B52" s="30" t="s">
         <v>33</v>
@@ -4526,7 +5116,7 @@
       <c r="S52" s="31"/>
     </row>
     <row r="53" spans="1:19" s="49" customFormat="1" ht="13.9">
-      <c r="A53" s="64"/>
+      <c r="A53" s="87"/>
       <c r="B53" s="30" t="s">
         <v>33</v>
       </c>
@@ -4553,7 +5143,7 @@
       <c r="S53" s="31"/>
     </row>
     <row r="54" spans="1:19" s="49" customFormat="1" ht="13.9">
-      <c r="A54" s="64"/>
+      <c r="A54" s="87"/>
       <c r="B54" s="30" t="s">
         <v>33</v>
       </c>
@@ -4580,7 +5170,7 @@
       <c r="S54" s="31"/>
     </row>
     <row r="55" spans="1:19" s="49" customFormat="1" ht="27">
-      <c r="A55" s="64"/>
+      <c r="A55" s="87"/>
       <c r="B55" s="30" t="s">
         <v>36</v>
       </c>
@@ -4607,7 +5197,7 @@
       <c r="S55" s="31"/>
     </row>
     <row r="56" spans="1:19" s="49" customFormat="1" ht="40.5">
-      <c r="A56" s="64"/>
+      <c r="A56" s="87"/>
       <c r="B56" s="30" t="s">
         <v>27</v>
       </c>
@@ -4634,7 +5224,7 @@
       <c r="S56" s="31"/>
     </row>
     <row r="57" spans="1:19" s="49" customFormat="1" ht="27">
-      <c r="A57" s="64"/>
+      <c r="A57" s="87"/>
       <c r="B57" s="30" t="s">
         <v>34</v>
       </c>
@@ -4661,7 +5251,7 @@
       <c r="S57" s="31"/>
     </row>
     <row r="58" spans="1:19" s="49" customFormat="1" ht="27">
-      <c r="A58" s="64"/>
+      <c r="A58" s="87"/>
       <c r="B58" s="30" t="s">
         <v>20</v>
       </c>
@@ -4688,7 +5278,7 @@
       <c r="S58" s="31"/>
     </row>
     <row r="59" spans="1:19" s="49" customFormat="1" ht="27">
-      <c r="A59" s="64"/>
+      <c r="A59" s="87"/>
       <c r="B59" s="30" t="s">
         <v>21</v>
       </c>
@@ -4715,7 +5305,7 @@
       <c r="S59" s="31"/>
     </row>
     <row r="60" spans="1:19" s="49" customFormat="1" ht="13.9">
-      <c r="A60" s="64"/>
+      <c r="A60" s="87"/>
       <c r="B60" s="30" t="s">
         <v>22</v>
       </c>
@@ -4740,7 +5330,7 @@
       <c r="S60" s="31"/>
     </row>
     <row r="61" spans="1:19" s="49" customFormat="1" ht="27">
-      <c r="A61" s="64"/>
+      <c r="A61" s="87"/>
       <c r="B61" s="30" t="s">
         <v>23</v>
       </c>
@@ -4767,6 +5357,7 @@
       <c r="S61" s="31"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="6">
     <mergeCell ref="A52:A61"/>
     <mergeCell ref="A1:C1"/>
@@ -4792,4 +5383,3444 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId12"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{493AC8F8-2375-4F54-840A-27E2F57541B4}">
+  <dimension ref="A1:Y40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="K9" sqref="K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="19.46484375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="30" style="1" customWidth="1"/>
+    <col min="3" max="4" width="13.1328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29.73046875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.59765625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1328125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.3984375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.1328125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.46484375" style="1" customWidth="1"/>
+    <col min="13" max="14" width="21.265625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="20.86328125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="17" style="1" customWidth="1"/>
+    <col min="17" max="17" width="26.73046875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="16.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9" style="1"/>
+    <col min="20" max="20" width="13.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" s="4" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A1" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="80" t="s">
+        <v>211</v>
+      </c>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="83" t="s">
+        <v>212</v>
+      </c>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="83" t="s">
+        <v>87</v>
+      </c>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" s="4" customFormat="1" ht="30">
+      <c r="A2" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="W2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="X2" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y2" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" s="2" customFormat="1" ht="94.5">
+      <c r="A3" s="78" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="10">
+        <v>0</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="K3" s="18">
+        <f>'Lit review (LW)'!G4</f>
+        <v>4.74</v>
+      </c>
+      <c r="L3" s="18">
+        <f>'Lit review (LW)'!H4</f>
+        <v>2</v>
+      </c>
+      <c r="M3" s="18">
+        <f>'Lit review (LW)'!I4</f>
+        <v>15</v>
+      </c>
+      <c r="N3" s="18"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+    </row>
+    <row r="4" spans="1:25" s="2" customFormat="1" ht="40.5">
+      <c r="A4" s="86"/>
+      <c r="B4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="10">
+        <v>0</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="K4" s="13">
+        <f>'Lit review (LW)'!G11</f>
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="L4" s="13">
+        <f>'Lit review (LW)'!H11</f>
+        <v>1.0000000000000002E-6</v>
+      </c>
+      <c r="M4" s="13">
+        <f>'Lit review (LW)'!I11</f>
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="N4" s="13"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+    </row>
+    <row r="5" spans="1:25" s="2" customFormat="1" ht="40.5">
+      <c r="A5" s="86"/>
+      <c r="B5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="10">
+        <v>0</v>
+      </c>
+      <c r="I5" s="10">
+        <v>1</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="K5" s="19">
+        <f>'Lit review (LW)'!G19</f>
+        <v>0.02</v>
+      </c>
+      <c r="L5" s="19">
+        <f>'Lit review (LW)'!H19</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="19">
+        <f>'Lit review (LW)'!I19</f>
+        <v>1</v>
+      </c>
+      <c r="N5" s="19"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+    </row>
+    <row r="6" spans="1:25" s="2" customFormat="1" ht="40.5">
+      <c r="A6" s="86"/>
+      <c r="B6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="H6" s="10">
+        <v>0</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="K6" s="10">
+        <f>'Lit review (LW)'!G24</f>
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="L6" s="10">
+        <f>'Lit review (LW)'!H24</f>
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="M6" s="10">
+        <f>'Lit review (LW)'!I24</f>
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+    </row>
+    <row r="7" spans="1:25" s="2" customFormat="1" ht="81">
+      <c r="A7" s="86"/>
+      <c r="B7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="I7" s="10">
+        <v>1</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="K7" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="L7" s="10">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="M7" s="10">
+        <v>1</v>
+      </c>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+    </row>
+    <row r="8" spans="1:25" s="2" customFormat="1" ht="81">
+      <c r="A8" s="86"/>
+      <c r="B8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="52">
+        <v>0</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="K8" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="L8" s="10">
+        <v>0</v>
+      </c>
+      <c r="M8" s="10">
+        <f>L7</f>
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+    </row>
+    <row r="9" spans="1:25" s="2" customFormat="1" ht="81">
+      <c r="A9" s="86"/>
+      <c r="B9" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="I9" s="10">
+        <v>0.33</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="K9" s="10">
+        <v>0.18</v>
+      </c>
+      <c r="L9" s="10">
+        <f>H9</f>
+        <v>0.1</v>
+      </c>
+      <c r="M9" s="10">
+        <f>I9</f>
+        <v>0.33</v>
+      </c>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+    </row>
+    <row r="10" spans="1:25" s="16" customFormat="1" ht="81">
+      <c r="A10" s="86"/>
+      <c r="B10" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="15">
+        <v>1</v>
+      </c>
+      <c r="L10" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+    </row>
+    <row r="11" spans="1:25" s="2" customFormat="1" ht="81">
+      <c r="A11" s="86"/>
+      <c r="B11" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="H11" s="15">
+        <v>0</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="N11" s="15"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+    </row>
+    <row r="12" spans="1:25" s="16" customFormat="1" ht="67.5">
+      <c r="A12" s="86"/>
+      <c r="B12" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="15">
+        <v>1</v>
+      </c>
+      <c r="L12" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+    </row>
+    <row r="13" spans="1:25" s="16" customFormat="1" ht="81">
+      <c r="A13" s="86"/>
+      <c r="B13" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
+    </row>
+    <row r="14" spans="1:25" s="2" customFormat="1" ht="121.5">
+      <c r="A14" s="86"/>
+      <c r="B14" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="E14" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="H14" s="15">
+        <v>0</v>
+      </c>
+      <c r="I14" s="15">
+        <v>1</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="K14" s="15">
+        <v>1.4599999999999999E-3</v>
+      </c>
+      <c r="L14" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="N14" s="15"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+    </row>
+    <row r="15" spans="1:25" s="2" customFormat="1" ht="40.5">
+      <c r="A15" s="86"/>
+      <c r="B15" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="10">
+        <v>0</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="K15" s="10">
+        <f>'Lit review (LW)'!G30</f>
+        <v>1000</v>
+      </c>
+      <c r="L15" s="10">
+        <f>'Lit review (LW)'!H30</f>
+        <v>10</v>
+      </c>
+      <c r="M15" s="10">
+        <f>'Lit review (LW)'!I30</f>
+        <v>10000</v>
+      </c>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+    </row>
+    <row r="16" spans="1:25" s="2" customFormat="1" ht="40.5">
+      <c r="A16" s="86"/>
+      <c r="B16" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="10">
+        <v>0</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="K16" s="10">
+        <f>'Lit review (LW)'!G33</f>
+        <v>2</v>
+      </c>
+      <c r="L16" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="M16" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+    </row>
+    <row r="17" spans="1:21" s="2" customFormat="1" ht="54">
+      <c r="A17" s="79"/>
+      <c r="B17" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="10">
+        <v>0</v>
+      </c>
+      <c r="I17" s="10">
+        <v>1</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="K17" s="19">
+        <f>'Lit review (LW)'!G36</f>
+        <v>0.25</v>
+      </c>
+      <c r="L17" s="19">
+        <f>'Lit review (LW)'!H36</f>
+        <v>0.25</v>
+      </c>
+      <c r="M17" s="19">
+        <f>'Lit review (LW)'!I36</f>
+        <v>1</v>
+      </c>
+      <c r="N17" s="19"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+    </row>
+    <row r="18" spans="1:21" s="2" customFormat="1" ht="40.5">
+      <c r="A18" s="78" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="10">
+        <v>0</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="K18" s="10">
+        <f>'Lit review (LW)'!G38</f>
+        <v>137</v>
+      </c>
+      <c r="L18" s="10">
+        <f>'Lit review (LW)'!H38</f>
+        <v>60</v>
+      </c>
+      <c r="M18" s="10">
+        <f>'Lit review (LW)'!I38</f>
+        <v>214</v>
+      </c>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+    </row>
+    <row r="19" spans="1:21" s="2" customFormat="1" ht="81">
+      <c r="A19" s="86"/>
+      <c r="B19" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="10">
+        <v>0</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="K19" s="10">
+        <f>'Lit review (WRF-Hydro &amp; MH)'!G40</f>
+        <v>1</v>
+      </c>
+      <c r="L19" s="18">
+        <f>0.2*EXP(1)/(EXP(1)-1)</f>
+        <v>0.31639534137386532</v>
+      </c>
+      <c r="M19" s="18">
+        <f>2*EXP(8)/(EXP(8)-1)</f>
+        <v>2.0006711504016823</v>
+      </c>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+    </row>
+    <row r="20" spans="1:21" s="2" customFormat="1" ht="81">
+      <c r="A20" s="79"/>
+      <c r="B20" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="10">
+        <v>0</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="K20" s="10">
+        <f>'Lit review (LW)'!G47</f>
+        <v>1.75</v>
+      </c>
+      <c r="L20" s="10">
+        <f>'Lit review (LW)'!H47</f>
+        <v>1</v>
+      </c>
+      <c r="M20" s="10">
+        <f>'Lit review (LW)'!I47</f>
+        <v>8</v>
+      </c>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+    </row>
+    <row r="21" spans="1:21" s="2" customFormat="1" ht="54">
+      <c r="A21" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" s="10">
+        <v>0</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="K21" s="10">
+        <f>'Lit review (WRF-Hydro &amp; MH)'!G48</f>
+        <v>3</v>
+      </c>
+      <c r="L21" s="10">
+        <f>'Lit review (WRF-Hydro &amp; MH)'!H48</f>
+        <v>0.1</v>
+      </c>
+      <c r="M21" s="10">
+        <f>'Lit review (WRF-Hydro &amp; MH)'!I48</f>
+        <v>4</v>
+      </c>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+    </row>
+    <row r="22" spans="1:21" s="2" customFormat="1" ht="40.5">
+      <c r="A22" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="H22" s="15">
+        <v>0</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="J22" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="K22" s="15">
+        <v>610</v>
+      </c>
+      <c r="L22" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="M22" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="N22" s="15"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+    </row>
+    <row r="23" spans="1:21" s="2" customFormat="1" ht="283.5">
+      <c r="A23" s="78" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" s="10">
+        <v>0</v>
+      </c>
+      <c r="I23" s="10">
+        <v>1</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="K23" s="10">
+        <f>'Lit review (LW)'!G54</f>
+        <v>0.03</v>
+      </c>
+      <c r="L23" s="10">
+        <f>'Lit review (LW)'!H54</f>
+        <v>0</v>
+      </c>
+      <c r="M23" s="10">
+        <f>'Lit review (LW)'!I54</f>
+        <v>1</v>
+      </c>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+    </row>
+    <row r="24" spans="1:21" s="2" customFormat="1" ht="54">
+      <c r="A24" s="79"/>
+      <c r="B24" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="17"/>
+      <c r="F24" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="K24" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="L24" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="N24" s="15"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+    </row>
+    <row r="25" spans="1:21" s="2" customFormat="1" ht="162">
+      <c r="A25" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="17"/>
+      <c r="F25" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I25" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="J25" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="K25" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="L25" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="M25" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="N25" s="15"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+    </row>
+    <row r="36" spans="1:5" s="2" customFormat="1">
+      <c r="A36" s="5"/>
+    </row>
+    <row r="37" spans="1:5" s="2" customFormat="1">
+      <c r="A37" s="5"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="E40" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="Q1:U1"/>
+    <mergeCell ref="A3:A17"/>
+    <mergeCell ref="A18:A20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7943494D-652D-4C26-A282-D43D1A006482}">
+  <dimension ref="A1:S64"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="F19" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="19.46484375" style="50" customWidth="1"/>
+    <col min="2" max="2" width="30" style="20" customWidth="1"/>
+    <col min="3" max="3" width="22.59765625" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1328125" style="20" customWidth="1"/>
+    <col min="5" max="5" width="9" style="20"/>
+    <col min="6" max="6" width="17" style="20" customWidth="1"/>
+    <col min="7" max="7" width="14.3984375" style="68" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="20" customWidth="1"/>
+    <col min="9" max="9" width="15.59765625" style="20" customWidth="1"/>
+    <col min="10" max="10" width="20.265625" style="68" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="86.1328125" style="20" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="90" t="s">
+        <v>213</v>
+      </c>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="93" t="s">
+        <v>213</v>
+      </c>
+      <c r="I1" s="94"/>
+      <c r="J1" s="57" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="95" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" s="96"/>
+      <c r="F2" s="89" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" s="89" t="s">
+        <v>274</v>
+      </c>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+    </row>
+    <row r="3" spans="1:11" ht="55.5">
+      <c r="A3" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="F3" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="73" t="s">
+        <v>282</v>
+      </c>
+      <c r="H3" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="I3" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="J3" s="73" t="s">
+        <v>86</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="27" customFormat="1" ht="94.5">
+      <c r="A4" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="22" t="str">
+        <f>'Final descision (MH)'!B3</f>
+        <v>bb</v>
+      </c>
+      <c r="C4" s="23" t="str">
+        <f>'Final descision (MH)'!C3</f>
+        <v>-</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="60">
+        <f>G5</f>
+        <v>4.74</v>
+      </c>
+      <c r="H4" s="25">
+        <f>H5</f>
+        <v>2</v>
+      </c>
+      <c r="I4" s="25">
+        <f>I5</f>
+        <v>15</v>
+      </c>
+      <c r="J4" s="69" t="s">
+        <v>278</v>
+      </c>
+      <c r="K4" s="23"/>
+    </row>
+    <row r="5" spans="1:11" s="27" customFormat="1" ht="67.5">
+      <c r="A5" s="87"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="74">
+        <f>G9</f>
+        <v>4.74</v>
+      </c>
+      <c r="H5" s="23">
+        <f>H8</f>
+        <v>2</v>
+      </c>
+      <c r="I5" s="23">
+        <f>I8</f>
+        <v>15</v>
+      </c>
+      <c r="J5" s="61" t="s">
+        <v>272</v>
+      </c>
+      <c r="K5" s="23"/>
+    </row>
+    <row r="6" spans="1:11" s="27" customFormat="1">
+      <c r="A6" s="87"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="G6" s="61" t="s">
+        <v>275</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="I6" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="J6" s="61" t="s">
+        <v>279</v>
+      </c>
+      <c r="K6" s="23"/>
+    </row>
+    <row r="7" spans="1:11" s="27" customFormat="1" ht="46.5" customHeight="1">
+      <c r="A7" s="87"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="G7" s="61" t="s">
+        <v>275</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="I7" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="J7" s="61" t="s">
+        <v>135</v>
+      </c>
+      <c r="K7" s="28" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="27" customFormat="1" ht="46.5" customHeight="1">
+      <c r="A8" s="87"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="G8" s="61" t="s">
+        <v>165</v>
+      </c>
+      <c r="H8" s="23">
+        <v>2</v>
+      </c>
+      <c r="I8" s="23">
+        <v>15</v>
+      </c>
+      <c r="J8" s="61" t="s">
+        <v>140</v>
+      </c>
+      <c r="K8" s="28" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="27" customFormat="1" ht="40.5">
+      <c r="A9" s="87"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="60">
+        <v>4.74</v>
+      </c>
+      <c r="H9" s="24">
+        <v>2.79</v>
+      </c>
+      <c r="I9" s="24">
+        <v>11.55</v>
+      </c>
+      <c r="J9" s="61" t="s">
+        <v>269</v>
+      </c>
+      <c r="K9" s="29" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="27" customFormat="1" ht="27">
+      <c r="A10" s="87"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="63" t="s">
+        <v>165</v>
+      </c>
+      <c r="H10" s="24">
+        <v>0.31</v>
+      </c>
+      <c r="I10" s="24">
+        <v>0.85</v>
+      </c>
+      <c r="J10" s="61" t="s">
+        <v>227</v>
+      </c>
+      <c r="K10" s="29" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="34" customFormat="1" ht="67.5">
+      <c r="A11" s="87"/>
+      <c r="B11" s="30" t="str">
+        <f>'Final descision (MH)'!B4</f>
+        <v>satdk</v>
+      </c>
+      <c r="C11" s="31" t="str">
+        <f>'Final descision (MH)'!C4</f>
+        <v>meters/second
+[m/s]</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="63">
+        <f>G18</f>
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="H11" s="32">
+        <f>$G11*REPLACE(H12, 1, 1, "")</f>
+        <v>1.0000000000000002E-6</v>
+      </c>
+      <c r="I11" s="32">
+        <f>$G11*REPLACE(I12, 1, 1, "")</f>
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="J11" s="70" t="s">
+        <v>156</v>
+      </c>
+      <c r="K11" s="33"/>
+    </row>
+    <row r="12" spans="1:11" ht="54">
+      <c r="A12" s="87"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="64" t="s">
+        <v>165</v>
+      </c>
+      <c r="H12" s="31" t="str">
+        <f>H14</f>
+        <v>x0.2</v>
+      </c>
+      <c r="I12" s="31" t="str">
+        <f>I14</f>
+        <v>x10</v>
+      </c>
+      <c r="J12" s="61" t="s">
+        <v>273</v>
+      </c>
+      <c r="K12" s="31"/>
+    </row>
+    <row r="13" spans="1:11" ht="27">
+      <c r="A13" s="87"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="64" t="s">
+        <v>165</v>
+      </c>
+      <c r="H13" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="I13" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="J13" s="61" t="s">
+        <v>177</v>
+      </c>
+      <c r="K13" s="31"/>
+    </row>
+    <row r="14" spans="1:11" ht="27">
+      <c r="A14" s="87"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="64" t="s">
+        <v>165</v>
+      </c>
+      <c r="H14" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="I14" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="J14" s="61" t="s">
+        <v>136</v>
+      </c>
+      <c r="K14" s="37" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="27">
+      <c r="A15" s="87"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="64">
+        <v>2.4499999999999998E-6</v>
+      </c>
+      <c r="H15" s="36">
+        <v>4.9999999999999998E-7</v>
+      </c>
+      <c r="I15" s="36">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="J15" s="61" t="s">
+        <v>140</v>
+      </c>
+      <c r="K15" s="31" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="40.5">
+      <c r="A16" s="87"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="64">
+        <v>5.2299999999999999E-6</v>
+      </c>
+      <c r="H16" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" s="61" t="s">
+        <v>270</v>
+      </c>
+      <c r="K16" s="31"/>
+    </row>
+    <row r="17" spans="1:11" ht="27">
+      <c r="A17" s="87"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="64" t="s">
+        <v>165</v>
+      </c>
+      <c r="H17" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="I17" s="32">
+        <v>1.2222200000000001E-4</v>
+      </c>
+      <c r="J17" s="61" t="s">
+        <v>285</v>
+      </c>
+      <c r="K17" s="31" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="27">
+      <c r="A18" s="87"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="64">
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="H18" s="32">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I18" s="32">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="J18" s="61" t="s">
+        <v>271</v>
+      </c>
+      <c r="K18" s="31" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="94.5" customHeight="1">
+      <c r="A19" s="87"/>
+      <c r="B19" s="22" t="str">
+        <f>'Final descision (MH)'!B5</f>
+        <v>slop</v>
+      </c>
+      <c r="C19" s="23" t="str">
+        <f>'Final descision (MH)'!C5</f>
+        <v>meters/meters
+[m/m]</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="F19" s="23"/>
+      <c r="G19" s="65">
+        <f>G20</f>
+        <v>0.02</v>
+      </c>
+      <c r="H19" s="23">
+        <f>H20</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="23">
+        <f>I20</f>
+        <v>1</v>
+      </c>
+      <c r="J19" s="70" t="s">
+        <v>156</v>
+      </c>
+      <c r="K19" s="23"/>
+    </row>
+    <row r="20" spans="1:11" s="27" customFormat="1" ht="54">
+      <c r="A20" s="87"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="65">
+        <f>G22</f>
+        <v>0.02</v>
+      </c>
+      <c r="H20" s="23">
+        <f>H21</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="23">
+        <f>I21</f>
+        <v>1</v>
+      </c>
+      <c r="J20" s="61" t="s">
+        <v>288</v>
+      </c>
+      <c r="K20" s="23"/>
+    </row>
+    <row r="21" spans="1:11" s="27" customFormat="1" ht="27">
+      <c r="A21" s="87"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="G21" s="66">
+        <v>0.1</v>
+      </c>
+      <c r="H21" s="23">
+        <v>0</v>
+      </c>
+      <c r="I21" s="23">
+        <v>1</v>
+      </c>
+      <c r="J21" s="61" t="s">
+        <v>135</v>
+      </c>
+      <c r="K21" s="28" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="27" customFormat="1">
+      <c r="A22" s="87"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="66">
+        <f>2/100</f>
+        <v>0.02</v>
+      </c>
+      <c r="H22" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="I22" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="J22" s="61" t="s">
+        <v>259</v>
+      </c>
+      <c r="K22" s="23" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="27" customFormat="1" ht="27">
+      <c r="A23" s="87"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" s="61">
+        <f>7/1000</f>
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H23" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="I23" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="J23" s="61" t="s">
+        <v>244</v>
+      </c>
+      <c r="K23" s="23" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="124.9">
+      <c r="A24" s="87"/>
+      <c r="B24" s="30" t="str">
+        <f>'Final descision (MH)'!B6</f>
+        <v>satpsi</v>
+      </c>
+      <c r="C24" s="31" t="str">
+        <f>'Final descision (MH)'!C6</f>
+        <v>meters
+[m]</v>
+      </c>
+      <c r="D24" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24" s="61">
+        <f>G26</f>
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="H24" s="31">
+        <f t="shared" ref="H24:I24" si="0">H26</f>
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="I24" s="31">
+        <f t="shared" si="0"/>
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="J24" s="70" t="s">
+        <v>314</v>
+      </c>
+      <c r="K24" s="31"/>
+    </row>
+    <row r="25" spans="1:11" ht="27" customHeight="1">
+      <c r="A25" s="87"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="64" t="s">
+        <v>165</v>
+      </c>
+      <c r="H25" s="35">
+        <v>0.02</v>
+      </c>
+      <c r="I25" s="35">
+        <v>0.78</v>
+      </c>
+      <c r="J25" s="62" t="s">
+        <v>140</v>
+      </c>
+      <c r="K25" s="31" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="40.5">
+      <c r="A26" s="87"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="61">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="H26" s="38">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="I26" s="38">
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="J26" s="61" t="s">
+        <v>270</v>
+      </c>
+      <c r="K26" s="37" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="76" customFormat="1" ht="67.5">
+      <c r="A27" s="87"/>
+      <c r="B27" s="41" t="str">
+        <f>'Final descision (MH)'!B7</f>
+        <v>smcmax</v>
+      </c>
+      <c r="C27" s="42" t="str">
+        <f>'Final descision (MH)'!C7</f>
+        <v>meters/meters
+[m/m]</v>
+      </c>
+      <c r="D27" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="67">
+        <v>0.4</v>
+      </c>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="67" t="s">
+        <v>291</v>
+      </c>
+      <c r="K27" s="42"/>
+    </row>
+    <row r="28" spans="1:11" s="59" customFormat="1" ht="27">
+      <c r="A28" s="87"/>
+      <c r="B28" s="43" t="str">
+        <f>'Final descision (MH)'!B8</f>
+        <v>wltsmc</v>
+      </c>
+      <c r="C28" s="44" t="str">
+        <f>'Final descision (MH)'!C8</f>
+        <v>meters/meters
+[m/m]</v>
+      </c>
+      <c r="D28" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="G28" s="67">
+        <v>0.25</v>
+      </c>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="67" t="s">
+        <v>292</v>
+      </c>
+      <c r="K28" s="44"/>
+    </row>
+    <row r="29" spans="1:11" s="76" customFormat="1" ht="41.65">
+      <c r="A29" s="87"/>
+      <c r="B29" s="41" t="str">
+        <f>'Final descision (MH)'!B9</f>
+        <v>field_capacity_atm_press_fraction (alpha_fc in the NOAA version CFE)</v>
+      </c>
+      <c r="C29" s="42" t="str">
+        <f>'Final descision (MH)'!C9</f>
+        <v>-</v>
+      </c>
+      <c r="D29" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="E29" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29" s="67">
+        <v>0.5</v>
+      </c>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="67" t="s">
+        <v>293</v>
+      </c>
+      <c r="K29" s="42"/>
+    </row>
+    <row r="30" spans="1:11" ht="40.5">
+      <c r="A30" s="87"/>
+      <c r="B30" s="30" t="str">
+        <f>'Final descision (MH)'!B15</f>
+        <v>lksatfac</v>
+      </c>
+      <c r="C30" s="31" t="str">
+        <f>'Final descision (MH)'!C15</f>
+        <v>-</v>
+      </c>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31" t="str">
+        <f>'Final descision (MH)'!D15</f>
+        <v>Multiplier applied to satdk</v>
+      </c>
+      <c r="F30" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="G30" s="61">
+        <f>G31</f>
+        <v>1000</v>
+      </c>
+      <c r="H30" s="31">
+        <f>H31</f>
+        <v>10</v>
+      </c>
+      <c r="I30" s="31">
+        <f>I31</f>
+        <v>10000</v>
+      </c>
+      <c r="J30" s="70" t="s">
+        <v>278</v>
+      </c>
+      <c r="K30" s="31"/>
+    </row>
+    <row r="31" spans="1:11" ht="27">
+      <c r="A31" s="87"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="G31" s="61">
+        <v>1000</v>
+      </c>
+      <c r="H31" s="31">
+        <v>10</v>
+      </c>
+      <c r="I31" s="31">
+        <v>10000</v>
+      </c>
+      <c r="J31" s="61" t="s">
+        <v>135</v>
+      </c>
+      <c r="K31" s="31" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="27">
+      <c r="A32" s="87"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="G32" s="61" t="s">
+        <v>165</v>
+      </c>
+      <c r="H32" s="31">
+        <v>10</v>
+      </c>
+      <c r="I32" s="31">
+        <v>10000</v>
+      </c>
+      <c r="J32" s="61" t="s">
+        <v>294</v>
+      </c>
+      <c r="K32" s="31"/>
+    </row>
+    <row r="33" spans="1:11" s="27" customFormat="1" ht="40.9">
+      <c r="A33" s="87"/>
+      <c r="B33" s="22" t="str">
+        <f>'Final descision (MH)'!B16</f>
+        <v>D</v>
+      </c>
+      <c r="C33" s="23" t="str">
+        <f>'Final descision (MH)'!C16</f>
+        <v>meters
+[m]</v>
+      </c>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G33" s="61">
+        <f>G35</f>
+        <v>2</v>
+      </c>
+      <c r="H33" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="I33" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="J33" s="70" t="s">
+        <v>298</v>
+      </c>
+      <c r="K33" s="23"/>
+    </row>
+    <row r="34" spans="1:11" s="27" customFormat="1">
+      <c r="A34" s="87"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="61">
+        <v>2</v>
+      </c>
+      <c r="H34" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="I34" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="J34" s="77" t="s">
+        <v>259</v>
+      </c>
+      <c r="K34" s="23" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" s="27" customFormat="1" ht="27.75" customHeight="1">
+      <c r="A35" s="87"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G35" s="61">
+        <v>2</v>
+      </c>
+      <c r="H35" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="I35" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="J35" s="61" t="s">
+        <v>223</v>
+      </c>
+      <c r="K35" s="23" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="40.5">
+      <c r="A36" s="87"/>
+      <c r="B36" s="30" t="str">
+        <f>'Final descision (MH)'!B17</f>
+        <v>trigger_z_m_coeff (*added by me)</v>
+      </c>
+      <c r="C36" s="31" t="str">
+        <f>'Final descision (MH)'!C17</f>
+        <v>-</v>
+      </c>
+      <c r="D36" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="E36" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="F36" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="G36" s="31">
+        <f>G37</f>
+        <v>0.25</v>
+      </c>
+      <c r="H36" s="31">
+        <f>H37</f>
+        <v>0.25</v>
+      </c>
+      <c r="I36" s="31">
+        <f>I37</f>
+        <v>1</v>
+      </c>
+      <c r="J36" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="K36" s="35"/>
+    </row>
+    <row r="37" spans="1:11" ht="54">
+      <c r="A37" s="30"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="F37" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="G37" s="31">
+        <f>0.5/2</f>
+        <v>0.25</v>
+      </c>
+      <c r="H37" s="31">
+        <f>0.3/1.2</f>
+        <v>0.25</v>
+      </c>
+      <c r="I37" s="45">
+        <v>1</v>
+      </c>
+      <c r="J37" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="K37" s="35"/>
+    </row>
+    <row r="38" spans="1:11" s="27" customFormat="1" ht="67.5">
+      <c r="A38" s="87" t="s">
+        <v>90</v>
+      </c>
+      <c r="B38" s="22" t="str">
+        <f>'Final descision (MH)'!B18</f>
+        <v>max_gw_storage</v>
+      </c>
+      <c r="C38" s="23" t="str">
+        <f>'Final descision (MH)'!C18</f>
+        <v>meters
+[m]</v>
+      </c>
+      <c r="D38" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="E38" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="F38" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G38" s="61">
+        <f>AVERAGE(H38, I38)</f>
+        <v>137</v>
+      </c>
+      <c r="H38" s="23">
+        <f>H42</f>
+        <v>60</v>
+      </c>
+      <c r="I38" s="23">
+        <f>I42</f>
+        <v>214</v>
+      </c>
+      <c r="J38" s="71" t="s">
+        <v>301</v>
+      </c>
+      <c r="K38" s="23"/>
+    </row>
+    <row r="39" spans="1:11" s="27" customFormat="1" ht="94.5">
+      <c r="A39" s="87"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="F39" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G39" s="61" t="s">
+        <v>165</v>
+      </c>
+      <c r="H39" s="23">
+        <v>10</v>
+      </c>
+      <c r="I39" s="23">
+        <v>250</v>
+      </c>
+      <c r="J39" s="61" t="s">
+        <v>302</v>
+      </c>
+      <c r="K39" s="28"/>
+    </row>
+    <row r="40" spans="1:11" s="27" customFormat="1" ht="81">
+      <c r="A40" s="87"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="F40" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G40" s="61">
+        <v>50</v>
+      </c>
+      <c r="H40" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="I40" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="J40" s="61" t="s">
+        <v>303</v>
+      </c>
+      <c r="K40" s="28" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" s="27" customFormat="1" ht="94.5">
+      <c r="A41" s="87"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="F41" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="G41" s="61">
+        <v>25</v>
+      </c>
+      <c r="H41" s="23">
+        <v>10</v>
+      </c>
+      <c r="I41" s="23">
+        <v>250</v>
+      </c>
+      <c r="J41" s="61" t="s">
+        <v>135</v>
+      </c>
+      <c r="K41" s="28" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" s="27" customFormat="1" ht="40.5">
+      <c r="A42" s="87"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="61" t="s">
+        <v>165</v>
+      </c>
+      <c r="H42" s="23">
+        <v>60</v>
+      </c>
+      <c r="I42" s="23">
+        <v>214</v>
+      </c>
+      <c r="J42" s="61" t="s">
+        <v>259</v>
+      </c>
+      <c r="K42" s="28" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="94.5" customHeight="1">
+      <c r="A43" s="87"/>
+      <c r="B43" s="30" t="str">
+        <f>'Final descision (MH)'!B19</f>
+        <v>Cgw</v>
+      </c>
+      <c r="C43" s="31" t="str">
+        <f>'Final descision (MH)'!C19</f>
+        <v>meters/hour
+[m/h]</v>
+      </c>
+      <c r="D43" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="F43" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="G43" s="61">
+        <f>G45</f>
+        <v>1</v>
+      </c>
+      <c r="H43" s="47">
+        <f>G43*REPLACE(H44, 1, 1, "")</f>
+        <v>0.2</v>
+      </c>
+      <c r="I43" s="47">
+        <f>G43*REPLACE(I44, 1, 1, "")</f>
+        <v>2</v>
+      </c>
+      <c r="J43" s="72" t="s">
+        <v>305</v>
+      </c>
+      <c r="K43" s="31" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="87"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="61" t="s">
+        <v>165</v>
+      </c>
+      <c r="H44" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="I44" s="31" t="s">
+        <v>306</v>
+      </c>
+      <c r="J44" s="61" t="s">
+        <v>279</v>
+      </c>
+      <c r="K44" s="31"/>
+    </row>
+    <row r="45" spans="1:11" ht="27">
+      <c r="A45" s="87"/>
+      <c r="B45" s="30"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="G45" s="61">
+        <v>1</v>
+      </c>
+      <c r="H45" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="I45" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="J45" s="61" t="s">
+        <v>303</v>
+      </c>
+      <c r="K45" s="37" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="87"/>
+      <c r="B46" s="30"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="G46" s="61" t="s">
+        <v>165</v>
+      </c>
+      <c r="H46" s="31">
+        <v>0.03</v>
+      </c>
+      <c r="I46" s="31">
+        <v>0.3</v>
+      </c>
+      <c r="J46" s="61" t="s">
+        <v>307</v>
+      </c>
+      <c r="K46" s="31"/>
+    </row>
+    <row r="47" spans="1:11" s="27" customFormat="1" ht="121.5" customHeight="1">
+      <c r="A47" s="87"/>
+      <c r="B47" s="22" t="str">
+        <f>'Final descision (MH)'!B20</f>
+        <v>expon</v>
+      </c>
+      <c r="C47" s="23" t="str">
+        <f>'Final descision (MH)'!C20</f>
+        <v>-</v>
+      </c>
+      <c r="D47" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="F47" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G47" s="61">
+        <f>G48</f>
+        <v>1.75</v>
+      </c>
+      <c r="H47" s="23">
+        <f t="shared" ref="H47:I47" si="1">H48</f>
+        <v>1</v>
+      </c>
+      <c r="I47" s="23">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="J47" s="61" t="s">
+        <v>308</v>
+      </c>
+      <c r="K47" s="23"/>
+    </row>
+    <row r="48" spans="1:11" s="27" customFormat="1" ht="108">
+      <c r="A48" s="30"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="F48" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="G48" s="61">
+        <v>1.75</v>
+      </c>
+      <c r="H48" s="23">
+        <v>1</v>
+      </c>
+      <c r="I48" s="23">
+        <v>8</v>
+      </c>
+      <c r="J48" s="61" t="s">
+        <v>135</v>
+      </c>
+      <c r="K48" s="28" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" s="27" customFormat="1" ht="27">
+      <c r="A49" s="30"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="61">
+        <v>3</v>
+      </c>
+      <c r="H49" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="I49" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="J49" s="61" t="s">
+        <v>176</v>
+      </c>
+      <c r="K49" s="28" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" s="27" customFormat="1" ht="54">
+      <c r="A50" s="30"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="F50" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="G50" s="61" t="s">
+        <v>165</v>
+      </c>
+      <c r="H50" s="23">
+        <v>0.75</v>
+      </c>
+      <c r="I50" s="23">
+        <v>0.98</v>
+      </c>
+      <c r="J50" s="61" t="s">
+        <v>252</v>
+      </c>
+      <c r="K50" s="28"/>
+    </row>
+    <row r="51" spans="1:19" ht="63" customHeight="1">
+      <c r="A51" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="B51" s="30" t="str">
+        <f>'Final descision (MH)'!B21</f>
+        <v>REFKDT</v>
+      </c>
+      <c r="C51" s="31" t="str">
+        <f>'Final descision (MH)'!C21</f>
+        <v>s/m</v>
+      </c>
+      <c r="D51" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="G51" s="61">
+        <v>3</v>
+      </c>
+      <c r="H51" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="I51" s="31">
+        <v>4</v>
+      </c>
+      <c r="J51" s="72" t="s">
+        <v>197</v>
+      </c>
+      <c r="K51" s="31"/>
+    </row>
+    <row r="52" spans="1:19" ht="63.75" customHeight="1">
+      <c r="A52" s="30"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="F52" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="G52" s="61">
+        <v>0.6</v>
+      </c>
+      <c r="H52" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="I52" s="31">
+        <v>4</v>
+      </c>
+      <c r="J52" s="61" t="s">
+        <v>135</v>
+      </c>
+      <c r="K52" s="51" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" ht="94.5">
+      <c r="A53" s="30"/>
+      <c r="B53" s="30"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="G53" s="61">
+        <v>3</v>
+      </c>
+      <c r="H53" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="I53" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="J53" s="61" t="s">
+        <v>47</v>
+      </c>
+      <c r="K53" s="31"/>
+    </row>
+    <row r="54" spans="1:19" s="27" customFormat="1" ht="391.5">
+      <c r="A54" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" s="22" t="str">
+        <f>'Final descision (MH)'!B23</f>
+        <v>K_nash</v>
+      </c>
+      <c r="C54" s="23">
+        <f>'Final descision (MH)'!C23</f>
+        <v>0</v>
+      </c>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="F54" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="G54" s="61">
+        <v>0.03</v>
+      </c>
+      <c r="H54" s="23">
+        <v>0</v>
+      </c>
+      <c r="I54" s="23">
+        <v>1</v>
+      </c>
+      <c r="J54" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="K54" s="23"/>
+    </row>
+    <row r="55" spans="1:19" s="49" customFormat="1" ht="13.5">
+      <c r="G55" s="61"/>
+      <c r="H55" s="31"/>
+      <c r="I55" s="31"/>
+      <c r="J55" s="61"/>
+      <c r="K55" s="31"/>
+      <c r="L55" s="31"/>
+      <c r="M55" s="31"/>
+      <c r="N55" s="31"/>
+      <c r="O55" s="31"/>
+      <c r="P55" s="31"/>
+      <c r="Q55" s="31"/>
+      <c r="R55" s="31"/>
+      <c r="S55" s="31"/>
+    </row>
+    <row r="56" spans="1:19" s="49" customFormat="1" ht="13.5">
+      <c r="G56" s="61"/>
+      <c r="H56" s="31"/>
+      <c r="I56" s="31"/>
+      <c r="J56" s="61"/>
+      <c r="K56" s="31"/>
+      <c r="L56" s="31"/>
+      <c r="M56" s="31"/>
+      <c r="N56" s="31"/>
+      <c r="O56" s="31"/>
+      <c r="P56" s="31"/>
+      <c r="Q56" s="31"/>
+      <c r="R56" s="31"/>
+      <c r="S56" s="31"/>
+    </row>
+    <row r="57" spans="1:19" s="49" customFormat="1" ht="13.5">
+      <c r="G57" s="61"/>
+      <c r="H57" s="31"/>
+      <c r="I57" s="31"/>
+      <c r="J57" s="61"/>
+      <c r="K57" s="31"/>
+      <c r="L57" s="31"/>
+      <c r="M57" s="31"/>
+      <c r="N57" s="31"/>
+      <c r="O57" s="31"/>
+      <c r="P57" s="31"/>
+      <c r="Q57" s="31"/>
+      <c r="R57" s="31"/>
+      <c r="S57" s="31"/>
+    </row>
+    <row r="58" spans="1:19" s="49" customFormat="1" ht="13.5">
+      <c r="G58" s="61"/>
+      <c r="H58" s="31"/>
+      <c r="I58" s="31"/>
+      <c r="J58" s="61"/>
+      <c r="K58" s="31"/>
+      <c r="L58" s="31"/>
+      <c r="M58" s="31"/>
+      <c r="N58" s="31"/>
+      <c r="O58" s="31"/>
+      <c r="P58" s="31"/>
+      <c r="Q58" s="31"/>
+      <c r="R58" s="31"/>
+      <c r="S58" s="31"/>
+    </row>
+    <row r="59" spans="1:19" s="49" customFormat="1" ht="13.5">
+      <c r="G59" s="61"/>
+      <c r="H59" s="31"/>
+      <c r="I59" s="31"/>
+      <c r="J59" s="61"/>
+      <c r="K59" s="31"/>
+      <c r="L59" s="31"/>
+      <c r="M59" s="31"/>
+      <c r="N59" s="31"/>
+      <c r="O59" s="31"/>
+      <c r="P59" s="31"/>
+      <c r="Q59" s="31"/>
+      <c r="R59" s="31"/>
+      <c r="S59" s="31"/>
+    </row>
+    <row r="60" spans="1:19" s="49" customFormat="1" ht="13.5">
+      <c r="G60" s="61"/>
+      <c r="H60" s="31"/>
+      <c r="I60" s="31"/>
+      <c r="J60" s="61"/>
+      <c r="K60" s="31"/>
+      <c r="L60" s="31"/>
+      <c r="M60" s="31"/>
+      <c r="N60" s="31"/>
+      <c r="O60" s="31"/>
+      <c r="P60" s="31"/>
+      <c r="Q60" s="31"/>
+      <c r="R60" s="31"/>
+      <c r="S60" s="31"/>
+    </row>
+    <row r="61" spans="1:19" s="49" customFormat="1" ht="13.5">
+      <c r="G61" s="61"/>
+      <c r="H61" s="31"/>
+      <c r="I61" s="31"/>
+      <c r="J61" s="61"/>
+      <c r="K61" s="31"/>
+      <c r="L61" s="31"/>
+      <c r="M61" s="31"/>
+      <c r="N61" s="31"/>
+      <c r="O61" s="31"/>
+      <c r="P61" s="31"/>
+      <c r="Q61" s="31"/>
+      <c r="R61" s="31"/>
+      <c r="S61" s="31"/>
+    </row>
+    <row r="62" spans="1:19" s="49" customFormat="1" ht="13.5">
+      <c r="G62" s="61"/>
+      <c r="H62" s="31"/>
+      <c r="I62" s="31"/>
+      <c r="J62" s="61"/>
+      <c r="K62" s="31"/>
+      <c r="L62" s="31"/>
+      <c r="M62" s="31"/>
+      <c r="N62" s="31"/>
+      <c r="O62" s="31"/>
+      <c r="P62" s="31"/>
+      <c r="Q62" s="31"/>
+      <c r="R62" s="31"/>
+      <c r="S62" s="31"/>
+    </row>
+    <row r="63" spans="1:19" s="49" customFormat="1" ht="13.5">
+      <c r="G63" s="61"/>
+      <c r="H63" s="31"/>
+      <c r="I63" s="31"/>
+      <c r="J63" s="61"/>
+      <c r="K63" s="31"/>
+      <c r="L63" s="31"/>
+      <c r="M63" s="31"/>
+      <c r="N63" s="31"/>
+      <c r="O63" s="31"/>
+      <c r="P63" s="31"/>
+      <c r="Q63" s="31"/>
+      <c r="R63" s="31"/>
+      <c r="S63" s="31"/>
+    </row>
+    <row r="64" spans="1:19" s="49" customFormat="1" ht="13.5">
+      <c r="G64" s="61"/>
+      <c r="H64" s="31"/>
+      <c r="I64" s="31"/>
+      <c r="J64" s="61"/>
+      <c r="K64" s="31"/>
+      <c r="L64" s="31"/>
+      <c r="M64" s="31"/>
+      <c r="N64" s="31"/>
+      <c r="O64" s="31"/>
+      <c r="P64" s="31"/>
+      <c r="Q64" s="31"/>
+      <c r="R64" s="31"/>
+      <c r="S64" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A4:A36"/>
+    <mergeCell ref="A38:A47"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:K2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="K7" r:id="rId1" xr:uid="{A49B682E-0EEC-42EA-8846-2E88D0B1CCE2}"/>
+    <hyperlink ref="K14" r:id="rId2" xr:uid="{172D16C8-E2C9-4FA7-A2E4-DD737EC6AB13}"/>
+    <hyperlink ref="K9" r:id="rId3" xr:uid="{A97C72CB-679E-4566-9EC6-91D8E5C81A6F}"/>
+    <hyperlink ref="K21" r:id="rId4" xr:uid="{89692F5E-7361-4EE9-9915-C079CF815DDF}"/>
+    <hyperlink ref="K26" r:id="rId5" xr:uid="{0524B5CB-6834-4177-9249-AC16EF6BED34}"/>
+    <hyperlink ref="K41" r:id="rId6" xr:uid="{41B773DF-8E78-468B-A060-20B81DAF588A}"/>
+    <hyperlink ref="K40" r:id="rId7" xr:uid="{E3C0034F-18D3-41E9-B5F5-FAE8B1466193}"/>
+    <hyperlink ref="K48" r:id="rId8" xr:uid="{667792AC-A647-4658-A89B-1ECD69FBA18B}"/>
+    <hyperlink ref="K49" r:id="rId9" xr:uid="{27DB971A-2F56-4657-A654-E8964AD1D081}"/>
+    <hyperlink ref="K45" r:id="rId10" xr:uid="{4A51DD11-D3C3-46A9-AE44-AE2B3697C300}"/>
+    <hyperlink ref="K52" r:id="rId11" xr:uid="{B7E50863-6348-4CD5-8E11-BD4DA764BF96}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId12"/>
+  <legacyDrawing r:id="rId13"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F27323-9036-4421-9360-09218F79B0B1}">
+  <dimension ref="A1:F36"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="25.3984375" customWidth="1"/>
+    <col min="2" max="2" width="37" customWidth="1"/>
+    <col min="3" max="3" width="42.73046875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="58" customFormat="1">
+      <c r="A1" s="58" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1" s="58" t="s">
+        <v>215</v>
+      </c>
+      <c r="C1" s="58">
+        <v>611</v>
+      </c>
+      <c r="D1" s="58" t="s">
+        <v>216</v>
+      </c>
+      <c r="E1" s="58" t="s">
+        <v>217</v>
+      </c>
+      <c r="F1" s="44"/>
+    </row>
+    <row r="2" spans="1:6" s="58" customFormat="1">
+      <c r="B2" s="58" t="s">
+        <v>215</v>
+      </c>
+      <c r="C2" s="58">
+        <v>610</v>
+      </c>
+      <c r="D2" s="58" t="s">
+        <v>216</v>
+      </c>
+      <c r="E2" s="58" t="s">
+        <v>231</v>
+      </c>
+      <c r="F2" s="75"/>
+    </row>
+    <row r="3" spans="1:6" s="58" customFormat="1">
+      <c r="B3" s="58" t="s">
+        <v>220</v>
+      </c>
+      <c r="C3" s="58" t="s">
+        <v>218</v>
+      </c>
+      <c r="E3" s="58" t="s">
+        <v>217</v>
+      </c>
+      <c r="F3" s="44"/>
+    </row>
+    <row r="4" spans="1:6" s="58" customFormat="1">
+      <c r="B4" s="58" t="s">
+        <v>221</v>
+      </c>
+      <c r="C4" s="58" t="s">
+        <v>219</v>
+      </c>
+      <c r="E4" s="58" t="s">
+        <v>217</v>
+      </c>
+      <c r="F4" s="44"/>
+    </row>
+    <row r="5" spans="1:6" s="58" customFormat="1">
+      <c r="B5" s="58" t="s">
+        <v>224</v>
+      </c>
+      <c r="C5" s="58">
+        <v>603.45000000000005</v>
+      </c>
+      <c r="E5" s="58" t="s">
+        <v>227</v>
+      </c>
+      <c r="F5" s="44"/>
+    </row>
+    <row r="6" spans="1:6" s="58" customFormat="1">
+      <c r="B6" s="58" t="s">
+        <v>224</v>
+      </c>
+      <c r="C6" s="58">
+        <v>572.52</v>
+      </c>
+      <c r="E6" s="58" t="s">
+        <v>227</v>
+      </c>
+      <c r="F6" s="44"/>
+    </row>
+    <row r="7" spans="1:6" s="58" customFormat="1">
+      <c r="B7" s="58" t="s">
+        <v>225</v>
+      </c>
+      <c r="C7" s="58">
+        <v>0.31</v>
+      </c>
+      <c r="E7" s="58" t="s">
+        <v>227</v>
+      </c>
+      <c r="F7" s="44"/>
+    </row>
+    <row r="8" spans="1:6" s="58" customFormat="1">
+      <c r="B8" s="58" t="s">
+        <v>225</v>
+      </c>
+      <c r="C8" s="58">
+        <v>0.85</v>
+      </c>
+      <c r="E8" s="58" t="s">
+        <v>227</v>
+      </c>
+      <c r="F8" s="44"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="B9" t="s">
+        <v>226</v>
+      </c>
+      <c r="C9">
+        <v>0.35</v>
+      </c>
+      <c r="E9" t="s">
+        <v>227</v>
+      </c>
+      <c r="F9" s="31"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="B10" t="s">
+        <v>226</v>
+      </c>
+      <c r="C10">
+        <v>0.39</v>
+      </c>
+      <c r="E10" t="s">
+        <v>227</v>
+      </c>
+      <c r="F10" s="31"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="B11" t="s">
+        <v>228</v>
+      </c>
+      <c r="C11">
+        <v>9.7999999999999997E-3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>227</v>
+      </c>
+      <c r="F11" s="31"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="B12" t="s">
+        <v>228</v>
+      </c>
+      <c r="C12">
+        <v>1E-3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>227</v>
+      </c>
+      <c r="F12" s="20"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="B13" t="s">
+        <v>229</v>
+      </c>
+      <c r="C13">
+        <v>0.12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>227</v>
+      </c>
+      <c r="F13" s="20"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="B14" t="s">
+        <v>229</v>
+      </c>
+      <c r="C14">
+        <v>0.13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>227</v>
+      </c>
+      <c r="F14" s="20"/>
+    </row>
+    <row r="15" spans="1:6" s="58" customFormat="1">
+      <c r="B15" s="58" t="s">
+        <v>220</v>
+      </c>
+      <c r="C15" s="58" t="s">
+        <v>232</v>
+      </c>
+      <c r="E15" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="F15" s="59"/>
+    </row>
+    <row r="16" spans="1:6" s="58" customFormat="1">
+      <c r="B16" s="58" t="s">
+        <v>234</v>
+      </c>
+      <c r="C16" s="58" t="s">
+        <v>237</v>
+      </c>
+      <c r="D16" s="58" t="s">
+        <v>240</v>
+      </c>
+      <c r="E16" s="58" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" s="58" customFormat="1">
+      <c r="B17" s="58" t="s">
+        <v>235</v>
+      </c>
+      <c r="C17" s="58" t="s">
+        <v>238</v>
+      </c>
+      <c r="D17" s="58" t="s">
+        <v>240</v>
+      </c>
+      <c r="E17" s="58" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" s="58" customFormat="1">
+      <c r="B18" s="58" t="s">
+        <v>236</v>
+      </c>
+      <c r="C18" s="58" t="s">
+        <v>239</v>
+      </c>
+      <c r="D18" s="58" t="s">
+        <v>240</v>
+      </c>
+      <c r="E18" s="58" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" s="58" customFormat="1">
+      <c r="B19" s="58" t="s">
+        <v>242</v>
+      </c>
+      <c r="C19" s="58">
+        <v>7</v>
+      </c>
+      <c r="D19" s="58" t="s">
+        <v>243</v>
+      </c>
+      <c r="E19" s="58" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" s="58" customFormat="1">
+      <c r="B20" s="58" t="s">
+        <v>220</v>
+      </c>
+      <c r="C20" s="58" t="s">
+        <v>245</v>
+      </c>
+      <c r="E20" s="58" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" s="58" customFormat="1">
+      <c r="C21" s="58" t="s">
+        <v>246</v>
+      </c>
+      <c r="E21" s="58" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" s="58" customFormat="1">
+      <c r="C22" s="58" t="s">
+        <v>247</v>
+      </c>
+      <c r="E22" s="58" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" s="58" customFormat="1">
+      <c r="C23" s="58" t="s">
+        <v>248</v>
+      </c>
+      <c r="E23" s="58" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" t="s">
+        <v>249</v>
+      </c>
+      <c r="C24" t="s">
+        <v>251</v>
+      </c>
+      <c r="D24" t="s">
+        <v>250</v>
+      </c>
+      <c r="E24" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" s="58" customFormat="1">
+      <c r="B25" s="58" t="s">
+        <v>253</v>
+      </c>
+      <c r="C25" s="58" t="s">
+        <v>254</v>
+      </c>
+      <c r="D25" s="58" t="s">
+        <v>250</v>
+      </c>
+      <c r="E25" s="58" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" t="s">
+        <v>255</v>
+      </c>
+      <c r="C26" t="s">
+        <v>256</v>
+      </c>
+      <c r="E26" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" s="58" customFormat="1">
+      <c r="B27" s="58" t="s">
+        <v>257</v>
+      </c>
+      <c r="C27" s="58">
+        <v>2</v>
+      </c>
+      <c r="D27" s="58" t="s">
+        <v>258</v>
+      </c>
+      <c r="E27" s="58" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" s="58" customFormat="1">
+      <c r="B28" s="58" t="s">
+        <v>233</v>
+      </c>
+      <c r="C28" s="58" t="s">
+        <v>260</v>
+      </c>
+      <c r="D28" s="58" t="s">
+        <v>261</v>
+      </c>
+      <c r="E28" s="58" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" s="58" customFormat="1">
+      <c r="B29" s="58" t="s">
+        <v>233</v>
+      </c>
+      <c r="C29" s="58" t="s">
+        <v>262</v>
+      </c>
+      <c r="D29" s="58" t="s">
+        <v>261</v>
+      </c>
+      <c r="E29" s="58" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" s="58" customFormat="1">
+      <c r="B30" s="58" t="s">
+        <v>290</v>
+      </c>
+      <c r="C30" s="58">
+        <v>0.4</v>
+      </c>
+      <c r="D30" s="58" t="s">
+        <v>165</v>
+      </c>
+      <c r="E30" s="58" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" t="s">
+        <v>263</v>
+      </c>
+      <c r="C31" t="s">
+        <v>264</v>
+      </c>
+      <c r="D31" t="s">
+        <v>265</v>
+      </c>
+      <c r="E31" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" t="s">
+        <v>266</v>
+      </c>
+      <c r="C32">
+        <v>0.2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>165</v>
+      </c>
+      <c r="E32" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" s="58" customFormat="1">
+      <c r="B33" s="58" t="s">
+        <v>267</v>
+      </c>
+      <c r="C33" s="58">
+        <v>0.25</v>
+      </c>
+      <c r="D33" s="58" t="s">
+        <v>165</v>
+      </c>
+      <c r="E33" s="58" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" s="58" customFormat="1">
+      <c r="B34" s="58" t="s">
+        <v>268</v>
+      </c>
+      <c r="C34" s="58">
+        <v>0.5</v>
+      </c>
+      <c r="D34" s="58" t="s">
+        <v>165</v>
+      </c>
+      <c r="E34" s="58" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" s="58" t="s">
+        <v>296</v>
+      </c>
+      <c r="C35" s="58">
+        <v>2</v>
+      </c>
+      <c r="D35" s="58" t="s">
+        <v>297</v>
+      </c>
+      <c r="E35" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="E36" t="s">
+        <v>299</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>